--- a/Training_Git.xlsx
+++ b/Training_Git.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646E4E7-CCE3-46AC-9222-8E532275CABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="20370" yWindow="-2160" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chung" sheetId="1" r:id="rId1"/>
@@ -50,10 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HƯỚNG DẪN CÁC DỰ ÁN KYORITSU GẤP TRONG THÁNG 10,11,12/2021 &amp; 01/2022</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TortoiseSVN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2842,22 +2839,25 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>HƯỚNG DẪN SỬ DỤNG GIT VÀ GITHUB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3717,6 +3717,14 @@
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3763,7 +3771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3795,9 +3803,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3829,6 +3855,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4004,26 +4048,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC406"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A377" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M402" sqref="M402"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="76"/>
-    <col min="4" max="28" width="4.625" style="2"/>
-    <col min="29" max="29" width="2.625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="4.625" style="3"/>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="76"/>
+    <col min="4" max="28" width="4.5703125" style="2"/>
+    <col min="29" max="29" width="2.5703125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="4.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="14.25">
       <c r="B1" s="85" t="s">
-        <v>8</v>
+        <v>341</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -4176,10 +4220,10 @@
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -4209,7 +4253,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>2</v>
@@ -4242,7 +4286,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>3</v>
@@ -4275,10 +4319,10 @@
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -4308,10 +4352,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -4401,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -4461,7 +4505,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>5</v>
@@ -4494,10 +4538,10 @@
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -4527,10 +4571,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -4560,10 +4604,10 @@
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -4593,10 +4637,10 @@
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -4626,10 +4670,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -4659,10 +4703,10 @@
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -4749,10 +4793,10 @@
     <row r="24" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -4815,7 +4859,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -4878,7 +4922,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -4888,10 +4932,10 @@
       <c r="L28" s="17"/>
       <c r="M28" s="18"/>
       <c r="N28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
@@ -4913,7 +4957,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="19"/>
       <c r="F29" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -4973,7 +5017,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="15"/>
       <c r="F31" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -4983,10 +5027,10 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
@@ -5008,7 +5052,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="19"/>
       <c r="F32" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -5068,7 +5112,7 @@
       <c r="D34" s="10"/>
       <c r="E34" s="15"/>
       <c r="F34" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -5078,10 +5122,10 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
@@ -5103,7 +5147,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="19"/>
       <c r="F35" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -5163,7 +5207,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="15"/>
       <c r="F37" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -5173,10 +5217,10 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
@@ -5198,7 +5242,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="19"/>
       <c r="F38" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -5258,7 +5302,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="15"/>
       <c r="F40" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -5268,10 +5312,10 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -5293,7 +5337,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="19"/>
       <c r="F41" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -5351,10 +5395,10 @@
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -5385,7 +5429,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
       <c r="E44" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -5417,7 +5461,7 @@
       <c r="D45" s="10"/>
       <c r="E45" s="15"/>
       <c r="F45" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -5427,10 +5471,10 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
@@ -5452,7 +5496,7 @@
       <c r="D46" s="10"/>
       <c r="E46" s="19"/>
       <c r="F46" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -5512,7 +5556,7 @@
       <c r="D48" s="10"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -5522,10 +5566,10 @@
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
@@ -5547,7 +5591,7 @@
       <c r="D49" s="10"/>
       <c r="E49" s="19"/>
       <c r="F49" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -5607,7 +5651,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="15"/>
       <c r="F51" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -5617,10 +5661,10 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
@@ -5642,7 +5686,7 @@
       <c r="D52" s="10"/>
       <c r="E52" s="19"/>
       <c r="F52" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -5702,7 +5746,7 @@
       <c r="D54" s="10"/>
       <c r="E54" s="15"/>
       <c r="F54" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -5712,10 +5756,10 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
@@ -5737,7 +5781,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="19"/>
       <c r="F55" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -5823,10 +5867,10 @@
     <row r="58" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -5886,10 +5930,10 @@
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -5921,7 +5965,7 @@
       <c r="D61" s="10"/>
       <c r="E61" s="19"/>
       <c r="F61" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -5952,7 +5996,7 @@
       <c r="D62" s="10"/>
       <c r="E62" s="29"/>
       <c r="F62" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G62" s="31"/>
       <c r="H62" s="31"/>
@@ -5984,7 +6028,7 @@
       <c r="E63" s="29"/>
       <c r="F63" s="31"/>
       <c r="G63" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
@@ -5999,10 +6043,10 @@
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
       <c r="T63" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="34" t="s">
         <v>51</v>
-      </c>
-      <c r="U63" s="34" t="s">
-        <v>52</v>
       </c>
       <c r="V63" s="31"/>
       <c r="W63" s="31"/>
@@ -6019,7 +6063,7 @@
       <c r="E64" s="29"/>
       <c r="F64" s="31"/>
       <c r="G64" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
@@ -6034,10 +6078,10 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
       <c r="T64" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U64" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V64" s="31"/>
       <c r="W64" s="31"/>
@@ -6054,7 +6098,7 @@
       <c r="E65" s="29"/>
       <c r="F65" s="31"/>
       <c r="G65" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
@@ -6069,10 +6113,10 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
       <c r="T65" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U65" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V65" s="31"/>
       <c r="W65" s="31"/>
@@ -6116,7 +6160,7 @@
       <c r="D67" s="10"/>
       <c r="E67" s="19"/>
       <c r="F67" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
@@ -6148,7 +6192,7 @@
       <c r="E68" s="29"/>
       <c r="F68" s="31"/>
       <c r="G68" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
@@ -6163,10 +6207,10 @@
       <c r="R68" s="31"/>
       <c r="S68" s="31"/>
       <c r="T68" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U68" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="U68" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="V68" s="31"/>
       <c r="W68" s="31"/>
@@ -6210,7 +6254,7 @@
       <c r="D70" s="10"/>
       <c r="E70" s="19"/>
       <c r="F70" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -6242,7 +6286,7 @@
       <c r="E71" s="29"/>
       <c r="F71" s="31"/>
       <c r="G71" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
@@ -6257,10 +6301,10 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
       <c r="T71" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U71" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V71" s="31"/>
       <c r="W71" s="31"/>
@@ -6304,7 +6348,7 @@
       <c r="D73" s="10"/>
       <c r="E73" s="19"/>
       <c r="F73" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
@@ -6336,7 +6380,7 @@
       <c r="E74" s="29"/>
       <c r="F74" s="31"/>
       <c r="G74" s="81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H74" s="82"/>
       <c r="I74" s="82"/>
@@ -6351,10 +6395,10 @@
       <c r="R74" s="82"/>
       <c r="S74" s="82"/>
       <c r="T74" s="83" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U74" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V74" s="82"/>
       <c r="W74" s="82"/>
@@ -6397,7 +6441,7 @@
       <c r="D76" s="10"/>
       <c r="E76" s="19"/>
       <c r="F76" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
@@ -6413,10 +6457,10 @@
       <c r="R76" s="27"/>
       <c r="S76" s="27"/>
       <c r="T76" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U76" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V76" s="27"/>
       <c r="W76" s="27"/>
@@ -6433,7 +6477,7 @@
       <c r="E77" s="29"/>
       <c r="F77" s="31"/>
       <c r="G77" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
@@ -6448,10 +6492,10 @@
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
       <c r="T77" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U77" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V77" s="31"/>
       <c r="W77" s="31"/>
@@ -6494,7 +6538,7 @@
       <c r="D79" s="10"/>
       <c r="E79" s="19"/>
       <c r="F79" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
@@ -6526,7 +6570,7 @@
       <c r="E80" s="29"/>
       <c r="F80" s="31"/>
       <c r="G80" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
@@ -6541,10 +6585,10 @@
       <c r="R80" s="31"/>
       <c r="S80" s="31"/>
       <c r="T80" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U80" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V80" s="31"/>
       <c r="W80" s="31"/>
@@ -6616,10 +6660,10 @@
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
       <c r="D83" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -6651,7 +6695,7 @@
       <c r="D84" s="10"/>
       <c r="E84" s="19"/>
       <c r="F84" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
@@ -6682,7 +6726,7 @@
       <c r="D85" s="10"/>
       <c r="E85" s="29"/>
       <c r="F85" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G85" s="31"/>
       <c r="H85" s="31"/>
@@ -6714,7 +6758,7 @@
       <c r="E86" s="29"/>
       <c r="F86" s="31"/>
       <c r="G86" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H86" s="38"/>
       <c r="I86" s="38"/>
@@ -6729,10 +6773,10 @@
       <c r="R86" s="38"/>
       <c r="S86" s="38"/>
       <c r="T86" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="U86" s="38" t="s">
         <v>78</v>
-      </c>
-      <c r="U86" s="38" t="s">
-        <v>79</v>
       </c>
       <c r="V86" s="38"/>
       <c r="W86" s="38"/>
@@ -6749,7 +6793,7 @@
       <c r="E87" s="29"/>
       <c r="F87" s="31"/>
       <c r="G87" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H87" s="38"/>
       <c r="I87" s="38"/>
@@ -6764,10 +6808,10 @@
       <c r="R87" s="38"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U87" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V87" s="38"/>
       <c r="W87" s="38"/>
@@ -6811,7 +6855,7 @@
       <c r="D89" s="10"/>
       <c r="E89" s="19"/>
       <c r="F89" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
@@ -6843,7 +6887,7 @@
       <c r="E90" s="29"/>
       <c r="F90" s="31"/>
       <c r="G90" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
@@ -6858,10 +6902,10 @@
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
       <c r="T90" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U90" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V90" s="31"/>
       <c r="W90" s="31"/>
@@ -6905,7 +6949,7 @@
       <c r="D92" s="10"/>
       <c r="E92" s="19"/>
       <c r="F92" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
@@ -6937,7 +6981,7 @@
       <c r="E93" s="29"/>
       <c r="F93" s="31"/>
       <c r="G93" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
@@ -6952,10 +6996,10 @@
       <c r="R93" s="31"/>
       <c r="S93" s="31"/>
       <c r="T93" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="U93" s="34" t="s">
         <v>86</v>
-      </c>
-      <c r="U93" s="34" t="s">
-        <v>87</v>
       </c>
       <c r="V93" s="31"/>
       <c r="W93" s="31"/>
@@ -6999,7 +7043,7 @@
       <c r="D95" s="10"/>
       <c r="E95" s="19"/>
       <c r="F95" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
@@ -7031,7 +7075,7 @@
       <c r="E96" s="29"/>
       <c r="F96" s="31"/>
       <c r="G96" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
@@ -7046,10 +7090,10 @@
       <c r="R96" s="31"/>
       <c r="S96" s="31"/>
       <c r="T96" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U96" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V96" s="31"/>
       <c r="W96" s="31"/>
@@ -7093,7 +7137,7 @@
       <c r="D98" s="10"/>
       <c r="E98" s="19"/>
       <c r="F98" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
@@ -7125,7 +7169,7 @@
       <c r="E99" s="29"/>
       <c r="F99" s="31"/>
       <c r="G99" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
@@ -7140,10 +7184,10 @@
       <c r="R99" s="31"/>
       <c r="S99" s="31"/>
       <c r="T99" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="U99" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="U99" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="V99" s="31"/>
       <c r="W99" s="31"/>
@@ -7186,7 +7230,7 @@
       <c r="D101" s="10"/>
       <c r="E101" s="19"/>
       <c r="F101" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
@@ -7202,10 +7246,10 @@
       <c r="R101" s="27"/>
       <c r="S101" s="27"/>
       <c r="T101" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U101" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V101" s="27"/>
       <c r="W101" s="27"/>
@@ -7222,7 +7266,7 @@
       <c r="E102" s="29"/>
       <c r="F102" s="31"/>
       <c r="G102" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -7237,10 +7281,10 @@
       <c r="R102" s="31"/>
       <c r="S102" s="31"/>
       <c r="T102" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U102" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V102" s="31"/>
       <c r="W102" s="31"/>
@@ -7283,7 +7327,7 @@
       <c r="D104" s="10"/>
       <c r="E104" s="19"/>
       <c r="F104" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
@@ -7315,7 +7359,7 @@
       <c r="E105" s="29"/>
       <c r="F105" s="31"/>
       <c r="G105" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
@@ -7330,10 +7374,10 @@
       <c r="R105" s="31"/>
       <c r="S105" s="31"/>
       <c r="T105" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U105" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V105" s="31"/>
       <c r="W105" s="31"/>
@@ -7405,10 +7449,10 @@
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
       <c r="D108" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -7440,7 +7484,7 @@
       <c r="D109" s="10"/>
       <c r="E109" s="19"/>
       <c r="F109" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
@@ -7472,7 +7516,7 @@
       <c r="E110" s="29"/>
       <c r="F110" s="31"/>
       <c r="G110" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
@@ -7487,10 +7531,10 @@
       <c r="R110" s="31"/>
       <c r="S110" s="31"/>
       <c r="T110" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U110" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V110" s="31"/>
       <c r="W110" s="31"/>
@@ -7561,10 +7605,10 @@
     <row r="113" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B113" s="4"/>
       <c r="C113" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -7624,10 +7668,10 @@
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
       <c r="D115" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
@@ -7658,10 +7702,10 @@
       <c r="C116" s="9"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
@@ -7692,13 +7736,13 @@
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G117" s="40"/>
       <c r="H117" s="40"/>
       <c r="I117" s="40"/>
       <c r="J117" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K117" s="40"/>
       <c r="L117" s="40"/>
@@ -7725,13 +7769,13 @@
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G118" s="44"/>
       <c r="H118" s="44"/>
       <c r="I118" s="44"/>
       <c r="J118" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K118" s="44"/>
       <c r="L118" s="44"/>
@@ -7758,13 +7802,13 @@
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G119" s="44"/>
       <c r="H119" s="44"/>
       <c r="I119" s="44"/>
       <c r="J119" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K119" s="44"/>
       <c r="L119" s="44"/>
@@ -7791,13 +7835,13 @@
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48"/>
       <c r="J120" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K120" s="48"/>
       <c r="L120" s="48"/>
@@ -7824,7 +7868,7 @@
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -7883,10 +7927,10 @@
       <c r="C123" s="9"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -7973,10 +8017,10 @@
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
       <c r="D126" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
@@ -8007,10 +8051,10 @@
       <c r="C127" s="9"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
@@ -8040,10 +8084,10 @@
       <c r="C128" s="9"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
@@ -8074,7 +8118,7 @@
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
@@ -8105,7 +8149,7 @@
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
@@ -8164,10 +8208,10 @@
       <c r="C132" s="9"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
@@ -8198,13 +8242,13 @@
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G133" s="40"/>
       <c r="H133" s="40"/>
       <c r="I133" s="40"/>
       <c r="J133" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K133" s="40"/>
       <c r="L133" s="40"/>
@@ -8231,13 +8275,13 @@
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G134" s="44"/>
       <c r="H134" s="44"/>
       <c r="I134" s="44"/>
       <c r="J134" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K134" s="44"/>
       <c r="L134" s="44"/>
@@ -8264,13 +8308,13 @@
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G135" s="44"/>
       <c r="H135" s="44"/>
       <c r="I135" s="44"/>
       <c r="J135" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K135" s="44"/>
       <c r="L135" s="44"/>
@@ -8297,13 +8341,13 @@
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48"/>
       <c r="J136" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K136" s="48"/>
       <c r="L136" s="48"/>
@@ -8386,10 +8430,10 @@
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
       <c r="D139" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E139" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
@@ -8420,11 +8464,11 @@
       <c r="C140" s="9"/>
       <c r="D140" s="10"/>
       <c r="E140" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F140" s="51"/>
       <c r="G140" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
@@ -8455,10 +8499,10 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -8489,7 +8533,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
@@ -8548,10 +8592,10 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -8582,7 +8626,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
@@ -8639,11 +8683,11 @@
       <c r="C147" s="9"/>
       <c r="D147" s="10"/>
       <c r="E147" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F147" s="51"/>
       <c r="G147" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
@@ -8674,10 +8718,10 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
@@ -8708,7 +8752,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
@@ -8767,10 +8811,10 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
@@ -8801,7 +8845,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
@@ -8858,11 +8902,11 @@
       <c r="C154" s="9"/>
       <c r="D154" s="10"/>
       <c r="E154" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F154" s="51"/>
       <c r="G154" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="10"/>
@@ -8893,10 +8937,10 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
@@ -8927,7 +8971,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
@@ -8958,7 +9002,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
@@ -8989,7 +9033,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
@@ -9073,10 +9117,10 @@
     <row r="161" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B161" s="4"/>
       <c r="C161" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -9136,10 +9180,10 @@
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
       <c r="D163" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -9170,7 +9214,7 @@
       <c r="C164" s="9"/>
       <c r="D164" s="10"/>
       <c r="E164" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
@@ -9201,10 +9245,10 @@
       <c r="C165" s="9"/>
       <c r="D165" s="51"/>
       <c r="E165" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F165" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G165" s="55"/>
       <c r="H165" s="51"/>
@@ -9235,7 +9279,7 @@
       <c r="D166" s="51"/>
       <c r="E166" s="53"/>
       <c r="F166" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G166" s="55"/>
       <c r="H166" s="51"/>
@@ -9267,7 +9311,7 @@
       <c r="E167" s="53"/>
       <c r="F167" s="19"/>
       <c r="G167" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H167" s="51"/>
       <c r="I167" s="56"/>
@@ -9298,7 +9342,7 @@
       <c r="E168" s="53"/>
       <c r="F168" s="29"/>
       <c r="G168" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H168" s="51"/>
       <c r="I168" s="56"/>
@@ -9329,7 +9373,7 @@
       <c r="E169" s="53"/>
       <c r="F169" s="29"/>
       <c r="G169" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H169" s="51"/>
       <c r="I169" s="56"/>
@@ -9387,10 +9431,10 @@
       <c r="C171" s="9"/>
       <c r="D171" s="51"/>
       <c r="E171" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F171" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G171" s="53"/>
       <c r="H171" s="51"/>
@@ -9421,7 +9465,7 @@
       <c r="D172" s="51"/>
       <c r="E172" s="53"/>
       <c r="F172" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G172" s="56"/>
       <c r="H172" s="51"/>
@@ -9453,7 +9497,7 @@
       <c r="E173" s="53"/>
       <c r="F173" s="19"/>
       <c r="G173" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H173" s="51"/>
       <c r="I173" s="56"/>
@@ -9484,7 +9528,7 @@
       <c r="E174" s="53"/>
       <c r="F174" s="29"/>
       <c r="G174" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H174" s="51"/>
       <c r="I174" s="56"/>
@@ -9542,10 +9586,10 @@
       <c r="C176" s="9"/>
       <c r="D176" s="51"/>
       <c r="E176" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F176" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G176" s="53"/>
       <c r="H176" s="51"/>
@@ -9576,7 +9620,7 @@
       <c r="D177" s="51"/>
       <c r="E177" s="53"/>
       <c r="F177" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G177" s="56"/>
       <c r="H177" s="51"/>
@@ -9608,7 +9652,7 @@
       <c r="E178" s="53"/>
       <c r="F178" s="19"/>
       <c r="G178" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H178" s="51"/>
       <c r="I178" s="56"/>
@@ -9639,7 +9683,7 @@
       <c r="E179" s="53"/>
       <c r="F179" s="29"/>
       <c r="G179" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H179" s="51"/>
       <c r="I179" s="56"/>
@@ -9670,7 +9714,7 @@
       <c r="E180" s="53"/>
       <c r="F180" s="29"/>
       <c r="G180" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H180" s="51"/>
       <c r="I180" s="56"/>
@@ -9728,10 +9772,10 @@
       <c r="C182" s="9"/>
       <c r="D182" s="51"/>
       <c r="E182" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F182" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G182" s="53"/>
       <c r="H182" s="51"/>
@@ -9762,7 +9806,7 @@
       <c r="D183" s="51"/>
       <c r="E183" s="53"/>
       <c r="F183" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G183" s="56"/>
       <c r="H183" s="51"/>
@@ -9794,7 +9838,7 @@
       <c r="E184" s="53"/>
       <c r="F184" s="19"/>
       <c r="G184" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H184" s="51"/>
       <c r="I184" s="56"/>
@@ -9852,10 +9896,10 @@
       <c r="C186" s="9"/>
       <c r="D186" s="51"/>
       <c r="E186" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F186" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G186" s="53"/>
       <c r="H186" s="51"/>
@@ -9886,7 +9930,7 @@
       <c r="D187" s="51"/>
       <c r="E187" s="53"/>
       <c r="F187" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G187" s="56"/>
       <c r="H187" s="51"/>
@@ -9918,7 +9962,7 @@
       <c r="E188" s="53"/>
       <c r="F188" s="19"/>
       <c r="G188" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H188" s="51"/>
       <c r="I188" s="56"/>
@@ -10004,10 +10048,10 @@
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
       <c r="D191" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
@@ -10038,7 +10082,7 @@
       <c r="C192" s="9"/>
       <c r="D192" s="10"/>
       <c r="E192" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
@@ -10069,10 +10113,10 @@
       <c r="C193" s="9"/>
       <c r="D193" s="53"/>
       <c r="E193" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F193" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
@@ -10103,7 +10147,7 @@
       <c r="D194" s="53"/>
       <c r="E194" s="53"/>
       <c r="F194" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
@@ -10135,7 +10179,7 @@
       <c r="E195" s="53"/>
       <c r="F195" s="19"/>
       <c r="G195" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H195" s="51"/>
       <c r="I195" s="56"/>
@@ -10166,7 +10210,7 @@
       <c r="E196" s="53"/>
       <c r="F196" s="29"/>
       <c r="G196" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H196" s="51"/>
       <c r="I196" s="56"/>
@@ -10224,7 +10268,7 @@
       <c r="C198" s="9"/>
       <c r="D198" s="10"/>
       <c r="E198" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
@@ -10255,10 +10299,10 @@
       <c r="C199" s="9"/>
       <c r="D199" s="10"/>
       <c r="E199" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F199" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G199" s="17"/>
       <c r="H199" s="17"/>
@@ -10289,7 +10333,7 @@
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G200" s="21"/>
       <c r="H200" s="21"/>
@@ -10321,7 +10365,7 @@
       <c r="E201" s="53"/>
       <c r="F201" s="19"/>
       <c r="G201" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H201" s="51"/>
       <c r="I201" s="56"/>
@@ -10379,7 +10423,7 @@
       <c r="C203" s="9"/>
       <c r="D203" s="10"/>
       <c r="E203" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
@@ -10410,10 +10454,10 @@
       <c r="C204" s="9"/>
       <c r="D204" s="10"/>
       <c r="E204" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F204" s="59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
@@ -10444,7 +10488,7 @@
       <c r="D205" s="10"/>
       <c r="E205" s="10"/>
       <c r="F205" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
@@ -10476,7 +10520,7 @@
       <c r="E206" s="53"/>
       <c r="F206" s="19"/>
       <c r="G206" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H206" s="51"/>
       <c r="I206" s="56"/>
@@ -10507,7 +10551,7 @@
       <c r="E207" s="10"/>
       <c r="F207" s="29"/>
       <c r="G207" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H207" s="51"/>
       <c r="I207" s="56"/>
@@ -10538,7 +10582,7 @@
       <c r="E208" s="10"/>
       <c r="F208" s="29"/>
       <c r="G208" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H208" s="51"/>
       <c r="I208" s="56"/>
@@ -10596,7 +10640,7 @@
       <c r="C210" s="9"/>
       <c r="D210" s="10"/>
       <c r="E210" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
@@ -10627,10 +10671,10 @@
       <c r="C211" s="9"/>
       <c r="D211" s="10"/>
       <c r="E211" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F211" s="59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
@@ -10661,7 +10705,7 @@
       <c r="D212" s="10"/>
       <c r="E212" s="10"/>
       <c r="F212" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
@@ -10693,7 +10737,7 @@
       <c r="E213" s="53"/>
       <c r="F213" s="19"/>
       <c r="G213" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H213" s="51"/>
       <c r="I213" s="56"/>
@@ -10751,7 +10795,7 @@
       <c r="C215" s="9"/>
       <c r="D215" s="10"/>
       <c r="E215" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F215" s="10"/>
       <c r="G215" s="10"/>
@@ -10782,10 +10826,10 @@
       <c r="C216" s="9"/>
       <c r="D216" s="10"/>
       <c r="E216" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F216" s="59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
@@ -10816,7 +10860,7 @@
       <c r="D217" s="10"/>
       <c r="E217" s="10"/>
       <c r="F217" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
@@ -10848,7 +10892,7 @@
       <c r="E218" s="53"/>
       <c r="F218" s="19"/>
       <c r="G218" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H218" s="51"/>
       <c r="I218" s="56"/>
@@ -10962,10 +11006,10 @@
     <row r="222" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B222" s="4"/>
       <c r="C222" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D222" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -11025,10 +11069,10 @@
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
       <c r="D224" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F224" s="10"/>
       <c r="G224" s="10"/>
@@ -11059,7 +11103,7 @@
       <c r="C225" s="9"/>
       <c r="D225" s="10"/>
       <c r="E225" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F225" s="51"/>
       <c r="G225" s="53"/>
@@ -11090,7 +11134,7 @@
       <c r="C226" s="9"/>
       <c r="D226" s="10"/>
       <c r="E226" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F226" s="51"/>
       <c r="G226" s="53"/>
@@ -11121,10 +11165,10 @@
       <c r="C227" s="9"/>
       <c r="D227" s="10"/>
       <c r="E227" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F227" s="67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G227" s="53"/>
       <c r="H227" s="53"/>
@@ -11133,7 +11177,7 @@
       <c r="K227" s="53"/>
       <c r="L227" s="51"/>
       <c r="M227" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N227" s="53"/>
       <c r="O227" s="53"/>
@@ -11156,10 +11200,10 @@
       <c r="C228" s="9"/>
       <c r="D228" s="10"/>
       <c r="E228" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F228" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G228" s="53"/>
       <c r="H228" s="53"/>
@@ -11168,7 +11212,7 @@
       <c r="K228" s="53"/>
       <c r="L228" s="51"/>
       <c r="M228" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N228" s="53"/>
       <c r="O228" s="53"/>
@@ -11219,10 +11263,10 @@
       <c r="B230" s="8"/>
       <c r="C230" s="9"/>
       <c r="D230" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E230" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F230" s="53"/>
       <c r="G230" s="53"/>
@@ -11253,7 +11297,7 @@
       <c r="C231" s="9"/>
       <c r="D231" s="10"/>
       <c r="E231" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F231" s="51"/>
       <c r="G231" s="53"/>
@@ -11284,7 +11328,7 @@
       <c r="C232" s="9"/>
       <c r="D232" s="10"/>
       <c r="E232" s="66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F232" s="69"/>
       <c r="G232" s="53"/>
@@ -11315,10 +11359,10 @@
       <c r="C233" s="9"/>
       <c r="D233" s="10"/>
       <c r="E233" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F233" s="67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G233" s="53"/>
       <c r="H233" s="53"/>
@@ -11327,7 +11371,7 @@
       <c r="K233" s="53"/>
       <c r="L233" s="51"/>
       <c r="M233" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N233" s="53"/>
       <c r="O233" s="53"/>
@@ -11378,10 +11422,10 @@
       <c r="B235" s="8"/>
       <c r="C235" s="9"/>
       <c r="D235" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E235" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F235" s="53"/>
       <c r="G235" s="53"/>
@@ -11412,7 +11456,7 @@
       <c r="C236" s="9"/>
       <c r="D236" s="10"/>
       <c r="E236" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F236" s="51"/>
       <c r="G236" s="53"/>
@@ -11443,7 +11487,7 @@
       <c r="C237" s="9"/>
       <c r="D237" s="10"/>
       <c r="E237" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F237" s="53"/>
       <c r="G237" s="51"/>
@@ -11474,10 +11518,10 @@
       <c r="C238" s="9"/>
       <c r="D238" s="10"/>
       <c r="E238" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F238" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
@@ -11486,7 +11530,7 @@
       <c r="K238" s="10"/>
       <c r="L238" s="10"/>
       <c r="M238" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
@@ -11537,7 +11581,7 @@
       <c r="B240" s="8"/>
       <c r="C240" s="9"/>
       <c r="D240" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
@@ -11568,7 +11612,7 @@
       <c r="B241" s="8"/>
       <c r="C241" s="9"/>
       <c r="D241" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
@@ -11599,7 +11643,7 @@
       <c r="B242" s="8"/>
       <c r="C242" s="9"/>
       <c r="D242" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
@@ -11630,7 +11674,7 @@
       <c r="B243" s="8"/>
       <c r="C243" s="9"/>
       <c r="D243" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
@@ -11718,10 +11762,10 @@
     <row r="246" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B246" s="4"/>
       <c r="C246" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D246" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -11781,10 +11825,10 @@
       <c r="B248" s="8"/>
       <c r="C248" s="9"/>
       <c r="D248" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E248" s="68" t="s">
         <v>194</v>
-      </c>
-      <c r="E248" s="68" t="s">
-        <v>195</v>
       </c>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
@@ -11815,10 +11859,10 @@
       <c r="C249" s="9"/>
       <c r="D249" s="10"/>
       <c r="E249" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
@@ -11848,7 +11892,7 @@
       <c r="C250" s="9"/>
       <c r="D250" s="10"/>
       <c r="E250" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
@@ -11879,10 +11923,10 @@
       <c r="C251" s="9"/>
       <c r="D251" s="10"/>
       <c r="E251" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
@@ -11912,7 +11956,7 @@
       <c r="C252" s="9"/>
       <c r="D252" s="10"/>
       <c r="E252" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
@@ -11943,10 +11987,10 @@
       <c r="C253" s="9"/>
       <c r="D253" s="10"/>
       <c r="E253" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
@@ -11976,10 +12020,10 @@
       <c r="C254" s="9"/>
       <c r="D254" s="10"/>
       <c r="E254" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
@@ -12009,10 +12053,10 @@
       <c r="C255" s="9"/>
       <c r="D255" s="10"/>
       <c r="E255" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
@@ -12042,7 +12086,7 @@
       <c r="C256" s="9"/>
       <c r="D256" s="10"/>
       <c r="E256" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F256" s="10"/>
       <c r="G256" s="10"/>
@@ -12073,10 +12117,10 @@
       <c r="C257" s="9"/>
       <c r="D257" s="10"/>
       <c r="E257" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
@@ -12106,7 +12150,7 @@
       <c r="C258" s="9"/>
       <c r="D258" s="10"/>
       <c r="E258" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
@@ -12137,10 +12181,10 @@
       <c r="C259" s="9"/>
       <c r="D259" s="10"/>
       <c r="E259" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
@@ -12171,7 +12215,7 @@
       <c r="D260" s="10"/>
       <c r="E260" s="10"/>
       <c r="F260" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
@@ -12201,7 +12245,7 @@
       <c r="C261" s="9"/>
       <c r="D261" s="10"/>
       <c r="E261" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F261" s="14"/>
       <c r="G261" s="10"/>
@@ -12232,7 +12276,7 @@
       <c r="C262" s="9"/>
       <c r="D262" s="10"/>
       <c r="E262" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F262" s="14"/>
       <c r="G262" s="10"/>
@@ -12291,10 +12335,10 @@
       <c r="B264" s="8"/>
       <c r="C264" s="9"/>
       <c r="D264" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E264" s="68" t="s">
         <v>203</v>
-      </c>
-      <c r="E264" s="68" t="s">
-        <v>204</v>
       </c>
       <c r="F264" s="10"/>
       <c r="G264" s="10"/>
@@ -12325,7 +12369,7 @@
       <c r="C265" s="9"/>
       <c r="D265" s="12"/>
       <c r="E265" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F265" s="10"/>
       <c r="G265" s="10"/>
@@ -12356,10 +12400,10 @@
       <c r="C266" s="9"/>
       <c r="D266" s="10"/>
       <c r="E266" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
@@ -12389,7 +12433,7 @@
       <c r="C267" s="9"/>
       <c r="D267" s="10"/>
       <c r="E267" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
@@ -12420,10 +12464,10 @@
       <c r="C268" s="9"/>
       <c r="D268" s="10"/>
       <c r="E268" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
@@ -12454,7 +12498,7 @@
       <c r="D269" s="10"/>
       <c r="E269" s="10"/>
       <c r="F269" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
@@ -12512,10 +12556,10 @@
       <c r="B271" s="8"/>
       <c r="C271" s="9"/>
       <c r="D271" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E271" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
@@ -12546,7 +12590,7 @@
       <c r="C272" s="9"/>
       <c r="D272" s="12"/>
       <c r="E272" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
@@ -12577,10 +12621,10 @@
       <c r="C273" s="9"/>
       <c r="D273" s="10"/>
       <c r="E273" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
@@ -12610,7 +12654,7 @@
       <c r="C274" s="9"/>
       <c r="D274" s="10"/>
       <c r="E274" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
@@ -12641,10 +12685,10 @@
       <c r="C275" s="9"/>
       <c r="D275" s="10"/>
       <c r="E275" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F275" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
@@ -12675,7 +12719,7 @@
       <c r="D276" s="10"/>
       <c r="E276" s="10"/>
       <c r="F276" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
@@ -12733,10 +12777,10 @@
       <c r="B278" s="8"/>
       <c r="C278" s="9"/>
       <c r="D278" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E278" s="68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F278" s="10"/>
       <c r="G278" s="10"/>
@@ -12767,10 +12811,10 @@
       <c r="C279" s="9"/>
       <c r="D279" s="10"/>
       <c r="E279" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
@@ -12800,10 +12844,10 @@
       <c r="C280" s="9"/>
       <c r="D280" s="10"/>
       <c r="E280" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
@@ -12833,10 +12877,10 @@
       <c r="C281" s="9"/>
       <c r="D281" s="10"/>
       <c r="E281" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F281" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
@@ -12866,7 +12910,7 @@
       <c r="C282" s="9"/>
       <c r="D282" s="10"/>
       <c r="E282" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F282" s="10"/>
       <c r="G282" s="10"/>
@@ -12897,10 +12941,10 @@
       <c r="C283" s="9"/>
       <c r="D283" s="10"/>
       <c r="E283" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
@@ -12930,7 +12974,7 @@
       <c r="C284" s="9"/>
       <c r="D284" s="10"/>
       <c r="E284" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F284" s="10"/>
       <c r="G284" s="10"/>
@@ -12961,10 +13005,10 @@
       <c r="C285" s="9"/>
       <c r="D285" s="10"/>
       <c r="E285" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F285" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
@@ -13022,10 +13066,10 @@
       <c r="B287" s="8"/>
       <c r="C287" s="9"/>
       <c r="D287" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E287" s="68" t="s">
         <v>218</v>
-      </c>
-      <c r="E287" s="68" t="s">
-        <v>219</v>
       </c>
       <c r="F287" s="10"/>
       <c r="G287" s="10"/>
@@ -13056,10 +13100,10 @@
       <c r="C288" s="9"/>
       <c r="D288" s="10"/>
       <c r="E288" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F288" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
@@ -13089,10 +13133,10 @@
       <c r="C289" s="9"/>
       <c r="D289" s="10"/>
       <c r="E289" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
@@ -13122,10 +13166,10 @@
       <c r="C290" s="9"/>
       <c r="D290" s="10"/>
       <c r="E290" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
@@ -13155,7 +13199,7 @@
       <c r="C291" s="9"/>
       <c r="D291" s="10"/>
       <c r="E291" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
@@ -13186,10 +13230,10 @@
       <c r="C292" s="9"/>
       <c r="D292" s="10"/>
       <c r="E292" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
@@ -13247,10 +13291,10 @@
       <c r="B294" s="8"/>
       <c r="C294" s="9"/>
       <c r="D294" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E294" s="68" t="s">
         <v>223</v>
-      </c>
-      <c r="E294" s="68" t="s">
-        <v>224</v>
       </c>
       <c r="F294" s="10"/>
       <c r="G294" s="10"/>
@@ -13281,10 +13325,10 @@
       <c r="C295" s="9"/>
       <c r="D295" s="10"/>
       <c r="E295" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F295" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
@@ -13314,7 +13358,7 @@
       <c r="C296" s="9"/>
       <c r="D296" s="10"/>
       <c r="E296" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
@@ -13345,10 +13389,10 @@
       <c r="C297" s="9"/>
       <c r="D297" s="10"/>
       <c r="E297" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F297" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
@@ -13378,7 +13422,7 @@
       <c r="C298" s="9"/>
       <c r="D298" s="10"/>
       <c r="E298" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F298" s="10"/>
       <c r="G298" s="10"/>
@@ -13409,10 +13453,10 @@
       <c r="C299" s="9"/>
       <c r="D299" s="10"/>
       <c r="E299" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F299" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
@@ -13442,7 +13486,7 @@
       <c r="C300" s="9"/>
       <c r="D300" s="10"/>
       <c r="E300" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
@@ -13473,10 +13517,10 @@
       <c r="C301" s="9"/>
       <c r="D301" s="10"/>
       <c r="E301" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F301" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
@@ -13506,10 +13550,10 @@
       <c r="C302" s="9"/>
       <c r="D302" s="10"/>
       <c r="E302" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F302" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
@@ -13539,10 +13583,10 @@
       <c r="C303" s="9"/>
       <c r="D303" s="10"/>
       <c r="E303" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
@@ -13572,7 +13616,7 @@
       <c r="C304" s="9"/>
       <c r="D304" s="10"/>
       <c r="E304" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F304" s="10"/>
       <c r="G304" s="10"/>
@@ -13603,10 +13647,10 @@
       <c r="C305" s="9"/>
       <c r="D305" s="10"/>
       <c r="E305" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
@@ -13636,7 +13680,7 @@
       <c r="C306" s="9"/>
       <c r="D306" s="10"/>
       <c r="E306" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F306" s="10"/>
       <c r="G306" s="10"/>
@@ -13667,10 +13711,10 @@
       <c r="C307" s="9"/>
       <c r="D307" s="10"/>
       <c r="E307" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
@@ -13728,10 +13772,10 @@
       <c r="B309" s="8"/>
       <c r="C309" s="9"/>
       <c r="D309" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E309" s="68" t="s">
         <v>231</v>
-      </c>
-      <c r="E309" s="68" t="s">
-        <v>232</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="10"/>
@@ -13762,10 +13806,10 @@
       <c r="C310" s="9"/>
       <c r="D310" s="10"/>
       <c r="E310" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G310" s="10"/>
       <c r="H310" s="10"/>
@@ -13795,7 +13839,7 @@
       <c r="C311" s="9"/>
       <c r="D311" s="10"/>
       <c r="E311" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
@@ -13826,10 +13870,10 @@
       <c r="C312" s="9"/>
       <c r="D312" s="10"/>
       <c r="E312" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G312" s="10"/>
       <c r="H312" s="10"/>
@@ -13859,7 +13903,7 @@
       <c r="C313" s="9"/>
       <c r="D313" s="10"/>
       <c r="E313" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F313" s="10"/>
       <c r="G313" s="10"/>
@@ -13890,10 +13934,10 @@
       <c r="C314" s="9"/>
       <c r="D314" s="10"/>
       <c r="E314" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
@@ -13923,7 +13967,7 @@
       <c r="C315" s="9"/>
       <c r="D315" s="10"/>
       <c r="E315" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F315" s="10"/>
       <c r="G315" s="10"/>
@@ -13954,10 +13998,10 @@
       <c r="C316" s="9"/>
       <c r="D316" s="10"/>
       <c r="E316" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
@@ -13987,7 +14031,7 @@
       <c r="C317" s="9"/>
       <c r="D317" s="10"/>
       <c r="E317" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="10"/>
@@ -14018,10 +14062,10 @@
       <c r="C318" s="9"/>
       <c r="D318" s="10"/>
       <c r="E318" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G318" s="10"/>
       <c r="H318" s="10"/>
@@ -14051,10 +14095,10 @@
       <c r="C319" s="9"/>
       <c r="D319" s="10"/>
       <c r="E319" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F319" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G319" s="10"/>
       <c r="H319" s="10"/>
@@ -14084,10 +14128,10 @@
       <c r="C320" s="9"/>
       <c r="D320" s="10"/>
       <c r="E320" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G320" s="10"/>
       <c r="H320" s="10"/>
@@ -14117,7 +14161,7 @@
       <c r="C321" s="9"/>
       <c r="D321" s="10"/>
       <c r="E321" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F321" s="10"/>
       <c r="G321" s="10"/>
@@ -14148,10 +14192,10 @@
       <c r="C322" s="9"/>
       <c r="D322" s="10"/>
       <c r="E322" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F322" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G322" s="10"/>
       <c r="H322" s="10"/>
@@ -14181,7 +14225,7 @@
       <c r="C323" s="9"/>
       <c r="D323" s="10"/>
       <c r="E323" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F323" s="10"/>
       <c r="G323" s="10"/>
@@ -14212,10 +14256,10 @@
       <c r="C324" s="9"/>
       <c r="D324" s="10"/>
       <c r="E324" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G324" s="10"/>
       <c r="H324" s="10"/>
@@ -14245,10 +14289,10 @@
       <c r="C325" s="9"/>
       <c r="D325" s="10"/>
       <c r="E325" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G325" s="10"/>
       <c r="H325" s="10"/>
@@ -14278,10 +14322,10 @@
       <c r="C326" s="9"/>
       <c r="D326" s="10"/>
       <c r="E326" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F326" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G326" s="10"/>
       <c r="H326" s="10"/>
@@ -14339,10 +14383,10 @@
       <c r="B328" s="8"/>
       <c r="C328" s="9"/>
       <c r="D328" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E328" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F328" s="10"/>
       <c r="G328" s="10"/>
@@ -14373,10 +14417,10 @@
       <c r="C329" s="9"/>
       <c r="D329" s="10"/>
       <c r="E329" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F329" s="79" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G329" s="79"/>
       <c r="H329" s="79"/>
@@ -14406,7 +14450,7 @@
       <c r="C330" s="9"/>
       <c r="D330" s="10"/>
       <c r="E330" s="79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F330" s="79"/>
       <c r="G330" s="79"/>
@@ -14437,10 +14481,10 @@
       <c r="C331" s="9"/>
       <c r="D331" s="10"/>
       <c r="E331" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F331" s="79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G331" s="79"/>
       <c r="H331" s="79"/>
@@ -14498,10 +14542,10 @@
       <c r="B333" s="8"/>
       <c r="C333" s="9"/>
       <c r="D333" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E333" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="10"/>
@@ -14532,10 +14576,10 @@
       <c r="C334" s="9"/>
       <c r="D334" s="10"/>
       <c r="E334" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G334" s="10"/>
       <c r="H334" s="10"/>
@@ -14565,10 +14609,10 @@
       <c r="C335" s="9"/>
       <c r="D335" s="10"/>
       <c r="E335" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G335" s="10"/>
       <c r="H335" s="10"/>
@@ -14598,10 +14642,10 @@
       <c r="C336" s="9"/>
       <c r="D336" s="10"/>
       <c r="E336" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G336" s="10"/>
       <c r="H336" s="10"/>
@@ -14631,7 +14675,7 @@
       <c r="C337" s="9"/>
       <c r="D337" s="10"/>
       <c r="E337" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F337" s="10"/>
       <c r="G337" s="10"/>
@@ -14662,10 +14706,10 @@
       <c r="C338" s="9"/>
       <c r="D338" s="10"/>
       <c r="E338" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F338" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G338" s="10"/>
       <c r="H338" s="10"/>
@@ -14695,7 +14739,7 @@
       <c r="C339" s="9"/>
       <c r="D339" s="10"/>
       <c r="E339" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="10"/>
@@ -14726,10 +14770,10 @@
       <c r="C340" s="9"/>
       <c r="D340" s="10"/>
       <c r="E340" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F340" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G340" s="10"/>
       <c r="H340" s="10"/>
@@ -14759,10 +14803,10 @@
       <c r="C341" s="9"/>
       <c r="D341" s="10"/>
       <c r="E341" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G341" s="10"/>
       <c r="H341" s="10"/>
@@ -14792,10 +14836,10 @@
       <c r="C342" s="9"/>
       <c r="D342" s="10"/>
       <c r="E342" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G342" s="10"/>
       <c r="H342" s="10"/>
@@ -14825,10 +14869,10 @@
       <c r="C343" s="9"/>
       <c r="D343" s="10"/>
       <c r="E343" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G343" s="10"/>
       <c r="H343" s="10"/>
@@ -14858,10 +14902,10 @@
       <c r="C344" s="9"/>
       <c r="D344" s="10"/>
       <c r="E344" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F344" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G344" s="10"/>
       <c r="H344" s="10"/>
@@ -14891,7 +14935,7 @@
       <c r="C345" s="9"/>
       <c r="D345" s="10"/>
       <c r="E345" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F345" s="14"/>
       <c r="G345" s="10"/>
@@ -14922,10 +14966,10 @@
       <c r="C346" s="9"/>
       <c r="D346" s="10"/>
       <c r="E346" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F346" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G346" s="10"/>
       <c r="H346" s="10"/>
@@ -14955,7 +14999,7 @@
       <c r="C347" s="9"/>
       <c r="D347" s="10"/>
       <c r="E347" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F347" s="14"/>
       <c r="G347" s="10"/>
@@ -14986,10 +15030,10 @@
       <c r="C348" s="9"/>
       <c r="D348" s="10"/>
       <c r="E348" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F348" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G348" s="10"/>
       <c r="H348" s="10"/>
@@ -15020,7 +15064,7 @@
       <c r="D349" s="10"/>
       <c r="E349" s="53"/>
       <c r="F349" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G349" s="10"/>
       <c r="H349" s="10"/>
@@ -15051,7 +15095,7 @@
       <c r="D350" s="10"/>
       <c r="E350" s="53"/>
       <c r="F350" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G350" s="10"/>
       <c r="H350" s="10"/>
@@ -15137,10 +15181,10 @@
     <row r="353" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B353" s="4"/>
       <c r="C353" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -15200,10 +15244,10 @@
       <c r="B355" s="8"/>
       <c r="C355" s="9"/>
       <c r="D355" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E355" s="68" t="s">
         <v>257</v>
-      </c>
-      <c r="E355" s="68" t="s">
-        <v>258</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="10"/>
@@ -15234,10 +15278,10 @@
       <c r="C356" s="9"/>
       <c r="D356" s="10"/>
       <c r="E356" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F356" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G356" s="10"/>
       <c r="H356" s="10"/>
@@ -15267,7 +15311,7 @@
       <c r="C357" s="9"/>
       <c r="D357" s="10"/>
       <c r="E357" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="10"/>
@@ -15298,10 +15342,10 @@
       <c r="C358" s="9"/>
       <c r="D358" s="10"/>
       <c r="E358" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F358" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G358" s="10"/>
       <c r="H358" s="10"/>
@@ -15331,10 +15375,10 @@
       <c r="C359" s="9"/>
       <c r="D359" s="10"/>
       <c r="E359" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G359" s="10"/>
       <c r="H359" s="10"/>
@@ -15364,10 +15408,10 @@
       <c r="C360" s="9"/>
       <c r="D360" s="10"/>
       <c r="E360" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F360" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G360" s="10"/>
       <c r="H360" s="10"/>
@@ -15397,10 +15441,10 @@
       <c r="C361" s="9"/>
       <c r="D361" s="10"/>
       <c r="E361" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G361" s="10"/>
       <c r="H361" s="10"/>
@@ -15430,10 +15474,10 @@
       <c r="C362" s="9"/>
       <c r="D362" s="10"/>
       <c r="E362" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F362" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G362" s="10"/>
       <c r="H362" s="10"/>
@@ -15463,7 +15507,7 @@
       <c r="C363" s="9"/>
       <c r="D363" s="10"/>
       <c r="E363" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F363" s="10"/>
       <c r="G363" s="10"/>
@@ -15494,10 +15538,10 @@
       <c r="C364" s="9"/>
       <c r="D364" s="10"/>
       <c r="E364" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F364" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G364" s="10"/>
       <c r="H364" s="10"/>
@@ -15555,10 +15599,10 @@
       <c r="B366" s="8"/>
       <c r="C366" s="9"/>
       <c r="D366" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E366" s="68" t="s">
         <v>265</v>
-      </c>
-      <c r="E366" s="68" t="s">
-        <v>266</v>
       </c>
       <c r="F366" s="10"/>
       <c r="G366" s="10"/>
@@ -15589,7 +15633,7 @@
       <c r="C367" s="9"/>
       <c r="D367" s="12"/>
       <c r="E367" s="79" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="10"/>
@@ -15620,7 +15664,7 @@
       <c r="C368" s="9"/>
       <c r="D368" s="12"/>
       <c r="E368" s="80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F368" s="10"/>
       <c r="G368" s="10"/>
@@ -15651,7 +15695,7 @@
       <c r="C369" s="9"/>
       <c r="D369" s="12"/>
       <c r="E369" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F369" s="10"/>
       <c r="G369" s="10"/>
@@ -15711,10 +15755,10 @@
       <c r="C371" s="9"/>
       <c r="D371" s="10"/>
       <c r="E371" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F371" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G371" s="10"/>
       <c r="H371" s="10"/>
@@ -15744,10 +15788,10 @@
       <c r="C372" s="9"/>
       <c r="D372" s="10"/>
       <c r="E372" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G372" s="10"/>
       <c r="H372" s="10"/>
@@ -15777,10 +15821,10 @@
       <c r="C373" s="9"/>
       <c r="D373" s="10"/>
       <c r="E373" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F373" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G373" s="10"/>
       <c r="H373" s="10"/>
@@ -15810,10 +15854,10 @@
       <c r="C374" s="9"/>
       <c r="D374" s="10"/>
       <c r="E374" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G374" s="10"/>
       <c r="H374" s="10"/>
@@ -15843,10 +15887,10 @@
       <c r="C375" s="9"/>
       <c r="D375" s="10"/>
       <c r="E375" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F375" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G375" s="10"/>
       <c r="H375" s="10"/>
@@ -15876,10 +15920,10 @@
       <c r="C376" s="9"/>
       <c r="D376" s="10"/>
       <c r="E376" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G376" s="10"/>
       <c r="H376" s="10"/>
@@ -15909,10 +15953,10 @@
       <c r="C377" s="9"/>
       <c r="D377" s="10"/>
       <c r="E377" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F377" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G377" s="10"/>
       <c r="H377" s="10"/>
@@ -15942,7 +15986,7 @@
       <c r="C378" s="9"/>
       <c r="D378" s="10"/>
       <c r="E378" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F378" s="14"/>
       <c r="G378" s="10"/>
@@ -15973,10 +16017,10 @@
       <c r="C379" s="9"/>
       <c r="D379" s="10"/>
       <c r="E379" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F379" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G379" s="10"/>
       <c r="H379" s="10"/>
@@ -16006,7 +16050,7 @@
       <c r="C380" s="9"/>
       <c r="D380" s="10"/>
       <c r="E380" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F380" s="14"/>
       <c r="G380" s="10"/>
@@ -16037,10 +16081,10 @@
       <c r="C381" s="9"/>
       <c r="D381" s="10"/>
       <c r="E381" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F381" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G381" s="10"/>
       <c r="H381" s="10"/>
@@ -16070,10 +16114,10 @@
       <c r="C382" s="9"/>
       <c r="D382" s="10"/>
       <c r="E382" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G382" s="10"/>
       <c r="H382" s="10"/>
@@ -16103,10 +16147,10 @@
       <c r="C383" s="9"/>
       <c r="D383" s="10"/>
       <c r="E383" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F383" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G383" s="10"/>
       <c r="H383" s="10"/>
@@ -16136,10 +16180,10 @@
       <c r="C384" s="9"/>
       <c r="D384" s="10"/>
       <c r="E384" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G384" s="10"/>
       <c r="H384" s="10"/>
@@ -16169,10 +16213,10 @@
       <c r="C385" s="9"/>
       <c r="D385" s="10"/>
       <c r="E385" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F385" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G385" s="10"/>
       <c r="H385" s="10"/>
@@ -16202,7 +16246,7 @@
       <c r="C386" s="9"/>
       <c r="D386" s="10"/>
       <c r="E386" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F386" s="14"/>
       <c r="G386" s="10"/>
@@ -16233,10 +16277,10 @@
       <c r="C387" s="9"/>
       <c r="D387" s="10"/>
       <c r="E387" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F387" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G387" s="10"/>
       <c r="H387" s="10"/>
@@ -16266,10 +16310,10 @@
       <c r="C388" s="9"/>
       <c r="D388" s="10"/>
       <c r="E388" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G388" s="10"/>
       <c r="H388" s="10"/>
@@ -16299,10 +16343,10 @@
       <c r="C389" s="9"/>
       <c r="D389" s="10"/>
       <c r="E389" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F389" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G389" s="10"/>
       <c r="H389" s="10"/>
@@ -16332,10 +16376,10 @@
       <c r="C390" s="9"/>
       <c r="D390" s="10"/>
       <c r="E390" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G390" s="10"/>
       <c r="H390" s="10"/>
@@ -16365,10 +16409,10 @@
       <c r="C391" s="9"/>
       <c r="D391" s="10"/>
       <c r="E391" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F391" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G391" s="10"/>
       <c r="H391" s="10"/>
@@ -16426,10 +16470,10 @@
       <c r="B393" s="8"/>
       <c r="C393" s="9"/>
       <c r="D393" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E393" s="68" t="s">
         <v>331</v>
-      </c>
-      <c r="E393" s="68" t="s">
-        <v>332</v>
       </c>
       <c r="F393" s="10"/>
       <c r="G393" s="10"/>
@@ -16460,10 +16504,10 @@
       <c r="C394" s="9"/>
       <c r="D394" s="10"/>
       <c r="E394" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F394" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G394" s="10"/>
       <c r="H394" s="10"/>
@@ -16493,10 +16537,10 @@
       <c r="C395" s="9"/>
       <c r="D395" s="10"/>
       <c r="E395" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F395" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G395" s="10"/>
       <c r="H395" s="10"/>
@@ -16526,10 +16570,10 @@
       <c r="C396" s="9"/>
       <c r="D396" s="10"/>
       <c r="E396" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F396" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G396" s="10"/>
       <c r="H396" s="10"/>
@@ -16559,7 +16603,7 @@
       <c r="C397" s="9"/>
       <c r="D397" s="10"/>
       <c r="E397" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F397" s="14"/>
       <c r="G397" s="10"/>
@@ -16590,10 +16634,10 @@
       <c r="C398" s="9"/>
       <c r="D398" s="10"/>
       <c r="E398" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F398" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G398" s="10"/>
       <c r="H398" s="10"/>
@@ -16623,10 +16667,10 @@
       <c r="C399" s="9"/>
       <c r="D399" s="10"/>
       <c r="E399" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G399" s="10"/>
       <c r="H399" s="10"/>
@@ -16656,10 +16700,10 @@
       <c r="C400" s="9"/>
       <c r="D400" s="10"/>
       <c r="E400" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F400" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G400" s="10"/>
       <c r="H400" s="10"/>
@@ -16689,7 +16733,7 @@
       <c r="C401" s="9"/>
       <c r="D401" s="10"/>
       <c r="E401" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F401" s="14"/>
       <c r="G401" s="10"/>

--- a/Training_Git.xlsx
+++ b/Training_Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DocumentExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D9530-9540-4C64-AC6D-F2EFE6F13AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209E7CA8-248A-49B7-91AD-B1FD25F365AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2160" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,24 +801,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -902,6 +884,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1638,9 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC140"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A118" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="T124" sqref="T124"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="15"/>
   <cols>
@@ -1655,93 +1653,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="14.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="46"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="74"/>
     </row>
     <row r="2" spans="2:28" ht="14.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="49"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="77"/>
     </row>
     <row r="3" spans="2:28" ht="14.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="49"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="77"/>
     </row>
     <row r="4" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="4"/>
@@ -2121,10 +2119,10 @@
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="45" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="15"/>
@@ -2154,7 +2152,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="47" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="16" t="s">
@@ -2187,7 +2185,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="47" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="17" t="s">
@@ -3826,7 +3824,7 @@
       <c r="C74" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="66" t="s">
+      <c r="D74" s="60" t="s">
         <v>55</v>
       </c>
       <c r="E74" s="5"/>
@@ -3920,7 +3918,7 @@
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="30"/>
-      <c r="E77" s="50" t="s">
+      <c r="E77" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F77" s="24" t="s">
@@ -4052,7 +4050,7 @@
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="30"/>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="24" t="s">
@@ -4085,7 +4083,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="32"/>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F82" s="24" t="s">
@@ -4118,7 +4116,7 @@
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="30"/>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="24" t="s">
@@ -4215,7 +4213,7 @@
       <c r="D86" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F86" s="8"/>
@@ -4246,10 +4244,10 @@
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="59" t="s">
+      <c r="E87" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="58" t="s">
+      <c r="F87" s="52" t="s">
         <v>40</v>
       </c>
       <c r="G87" s="30"/>
@@ -4282,7 +4280,7 @@
       <c r="E88" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="60" t="s">
+      <c r="F88" s="54" t="s">
         <v>41</v>
       </c>
       <c r="G88" s="30"/>
@@ -4312,30 +4310,30 @@
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="59" t="s">
+      <c r="E89" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="58" t="s">
+      <c r="F89" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="57"/>
-      <c r="O89" s="57"/>
-      <c r="P89" s="57"/>
-      <c r="Q89" s="57"/>
-      <c r="R89" s="57"/>
-      <c r="S89" s="57"/>
-      <c r="T89" s="57"/>
-      <c r="U89" s="57"/>
-      <c r="V89" s="57"/>
-      <c r="W89" s="57"/>
-      <c r="X89" s="57"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="51"/>
+      <c r="X89" s="51"/>
       <c r="Y89" s="30"/>
       <c r="Z89" s="30"/>
       <c r="AA89" s="30"/>
@@ -4345,30 +4343,30 @@
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="61" t="s">
+      <c r="E90" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="60" t="s">
+      <c r="F90" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G90" s="56"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="57"/>
-      <c r="M90" s="57"/>
-      <c r="N90" s="57"/>
-      <c r="O90" s="57"/>
-      <c r="P90" s="57"/>
-      <c r="Q90" s="57"/>
-      <c r="R90" s="57"/>
-      <c r="S90" s="57"/>
-      <c r="T90" s="57"/>
-      <c r="U90" s="57"/>
-      <c r="V90" s="57"/>
-      <c r="W90" s="57"/>
-      <c r="X90" s="57"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
+      <c r="T90" s="51"/>
+      <c r="U90" s="51"/>
+      <c r="V90" s="51"/>
+      <c r="W90" s="51"/>
+      <c r="X90" s="51"/>
       <c r="Y90" s="30"/>
       <c r="Z90" s="30"/>
       <c r="AA90" s="30"/>
@@ -4378,10 +4376,10 @@
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="59" t="s">
+      <c r="E91" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="58" t="s">
+      <c r="F91" s="52" t="s">
         <v>44</v>
       </c>
       <c r="G91" s="30"/>
@@ -4411,10 +4409,10 @@
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="61" t="s">
+      <c r="E92" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="60" t="s">
+      <c r="F92" s="54" t="s">
         <v>45</v>
       </c>
       <c r="G92" s="30"/>
@@ -4503,7 +4501,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
       <c r="E95" s="30"/>
-      <c r="F95" s="55"/>
+      <c r="F95" s="49"/>
       <c r="G95" s="30"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
@@ -4590,7 +4588,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
       <c r="E98" s="30"/>
-      <c r="F98" s="55"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
       <c r="I98" s="30"/>
@@ -4677,7 +4675,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
       <c r="E101" s="30"/>
-      <c r="F101" s="55"/>
+      <c r="F101" s="49"/>
       <c r="G101" s="30"/>
       <c r="H101" s="30"/>
       <c r="I101" s="30"/>
@@ -4764,7 +4762,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
       <c r="E104" s="30"/>
-      <c r="F104" s="55"/>
+      <c r="F104" s="49"/>
       <c r="G104" s="30"/>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
@@ -4851,7 +4849,7 @@
       <c r="C107" s="7"/>
       <c r="D107" s="8"/>
       <c r="E107" s="30"/>
-      <c r="F107" s="55"/>
+      <c r="F107" s="49"/>
       <c r="G107" s="30"/>
       <c r="H107" s="30"/>
       <c r="I107" s="30"/>
@@ -4907,10 +4905,10 @@
     <row r="109" spans="2:28">
       <c r="B109" s="6"/>
       <c r="C109" s="29"/>
-      <c r="D109" s="62" t="s">
+      <c r="D109" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E109" s="54" t="s">
+      <c r="E109" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F109" s="30"/>
@@ -4941,10 +4939,10 @@
       <c r="B110" s="6"/>
       <c r="C110" s="29"/>
       <c r="D110" s="30"/>
-      <c r="E110" s="59" t="s">
+      <c r="E110" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F110" s="58" t="s">
+      <c r="F110" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G110" s="28"/>
@@ -4974,16 +4972,16 @@
       <c r="B111" s="6"/>
       <c r="C111" s="29"/>
       <c r="D111" s="30"/>
-      <c r="E111" s="61" t="s">
+      <c r="E111" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F111" s="65" t="s">
+      <c r="F111" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="58"/>
+      <c r="J111" s="58"/>
       <c r="K111" s="30"/>
       <c r="L111" s="30"/>
       <c r="M111" s="30"/>
@@ -5007,10 +5005,10 @@
       <c r="B112" s="6"/>
       <c r="C112" s="29"/>
       <c r="D112" s="30"/>
-      <c r="E112" s="59" t="s">
+      <c r="E112" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="58" t="s">
+      <c r="F112" s="52" t="s">
         <v>49</v>
       </c>
       <c r="G112" s="28"/>
@@ -5043,13 +5041,13 @@
       <c r="E113" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="65" t="s">
+      <c r="F113" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="58"/>
+      <c r="J113" s="58"/>
       <c r="K113" s="30"/>
       <c r="L113" s="30"/>
       <c r="M113" s="30"/>
@@ -5073,10 +5071,10 @@
       <c r="B114" s="6"/>
       <c r="C114" s="29"/>
       <c r="D114" s="30"/>
-      <c r="E114" s="59" t="s">
+      <c r="E114" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F114" s="58" t="s">
+      <c r="F114" s="52" t="s">
         <v>51</v>
       </c>
       <c r="G114" s="28"/>
@@ -5109,13 +5107,13 @@
       <c r="E115" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="65" t="s">
+      <c r="F115" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G115" s="63"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
       <c r="K115" s="30"/>
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
@@ -5139,10 +5137,10 @@
       <c r="B116" s="6"/>
       <c r="C116" s="29"/>
       <c r="D116" s="30"/>
-      <c r="E116" s="59" t="s">
+      <c r="E116" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F116" s="58" t="s">
+      <c r="F116" s="52" t="s">
         <v>53</v>
       </c>
       <c r="G116" s="28"/>
@@ -5175,18 +5173,18 @@
       <c r="E117" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="65" t="s">
+      <c r="F117" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G117" s="63"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="64"/>
-      <c r="J117" s="64"/>
-      <c r="K117" s="64"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
-      <c r="O117" s="64"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="58"/>
+      <c r="O117" s="58"/>
       <c r="P117" s="30"/>
       <c r="Q117" s="30"/>
       <c r="R117" s="30"/>
@@ -5206,8 +5204,8 @@
       <c r="C118" s="29"/>
       <c r="D118" s="30"/>
       <c r="E118" s="27"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="69"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="63"/>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
       <c r="J118" s="37"/>
@@ -5261,10 +5259,10 @@
     </row>
     <row r="120" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B120" s="4"/>
-      <c r="C120" s="70" t="s">
+      <c r="C120" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D120" s="66" t="s">
+      <c r="D120" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E120" s="5"/>
@@ -5324,10 +5322,10 @@
     <row r="122" spans="2:28">
       <c r="B122" s="6"/>
       <c r="C122" s="29"/>
-      <c r="D122" s="62" t="s">
+      <c r="D122" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E122" s="54" t="s">
+      <c r="E122" s="48" t="s">
         <v>69</v>
       </c>
       <c r="F122" s="30"/>
@@ -5357,8 +5355,8 @@
     <row r="123" spans="2:28">
       <c r="B123" s="6"/>
       <c r="C123" s="29"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="58" t="s">
+      <c r="D123" s="56"/>
+      <c r="E123" s="52" t="s">
         <v>79</v>
       </c>
       <c r="F123" s="30"/>
@@ -5389,7 +5387,7 @@
       <c r="B124" s="6"/>
       <c r="C124" s="29"/>
       <c r="D124" s="36"/>
-      <c r="E124" s="60" t="s">
+      <c r="E124" s="54" t="s">
         <v>62</v>
       </c>
       <c r="F124" s="30"/>
@@ -5405,14 +5403,14 @@
       <c r="P124" s="30"/>
       <c r="Q124" s="30"/>
       <c r="R124" s="36"/>
-      <c r="S124" s="61" t="s">
+      <c r="S124" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T124" s="73" t="s">
+      <c r="T124" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="U124" s="74"/>
-      <c r="V124" s="74"/>
+      <c r="U124" s="68"/>
+      <c r="V124" s="68"/>
       <c r="W124" s="30"/>
       <c r="X124" s="30"/>
       <c r="Y124" s="30"/>
@@ -5424,7 +5422,7 @@
       <c r="B125" s="6"/>
       <c r="C125" s="29"/>
       <c r="D125" s="36"/>
-      <c r="E125" s="60" t="s">
+      <c r="E125" s="54" t="s">
         <v>64</v>
       </c>
       <c r="F125" s="30"/>
@@ -5456,10 +5454,10 @@
       <c r="C126" s="29"/>
       <c r="D126" s="30"/>
       <c r="E126" s="36"/>
-      <c r="F126" s="71" t="s">
+      <c r="F126" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="72" t="s">
+      <c r="G126" s="66" t="s">
         <v>65</v>
       </c>
       <c r="H126" s="30"/>
@@ -5489,10 +5487,10 @@
       <c r="C127" s="29"/>
       <c r="D127" s="30"/>
       <c r="E127" s="36"/>
-      <c r="F127" s="61" t="s">
+      <c r="F127" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="67" t="s">
+      <c r="G127" s="61" t="s">
         <v>66</v>
       </c>
       <c r="H127" s="30"/>
@@ -5522,13 +5520,13 @@
       <c r="C128" s="29"/>
       <c r="D128" s="30"/>
       <c r="E128" s="36"/>
-      <c r="F128" s="61" t="s">
+      <c r="F128" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G128" s="73" t="s">
+      <c r="G128" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="H128" s="73"/>
+      <c r="H128" s="67"/>
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
       <c r="K128" s="30"/>
@@ -5555,10 +5553,10 @@
       <c r="C129" s="29"/>
       <c r="D129" s="30"/>
       <c r="E129" s="36"/>
-      <c r="F129" s="71" t="s">
+      <c r="F129" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="72" t="s">
+      <c r="G129" s="66" t="s">
         <v>68</v>
       </c>
       <c r="H129" s="30"/>
@@ -5588,10 +5586,10 @@
       <c r="C130" s="29"/>
       <c r="D130" s="30"/>
       <c r="E130" s="36"/>
-      <c r="F130" s="61" t="s">
+      <c r="F130" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="67" t="s">
+      <c r="G130" s="61" t="s">
         <v>66</v>
       </c>
       <c r="H130" s="30"/>
@@ -5621,13 +5619,13 @@
       <c r="C131" s="29"/>
       <c r="D131" s="30"/>
       <c r="E131" s="36"/>
-      <c r="F131" s="61" t="s">
+      <c r="F131" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="75" t="s">
+      <c r="G131" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H131" s="74"/>
+      <c r="H131" s="68"/>
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
       <c r="K131" s="30"/>
@@ -5653,11 +5651,11 @@
       <c r="B132" s="6"/>
       <c r="C132" s="29"/>
       <c r="D132" s="30"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="71" t="s">
+      <c r="E132" s="53"/>
+      <c r="F132" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="72" t="s">
+      <c r="G132" s="66" t="s">
         <v>71</v>
       </c>
       <c r="H132" s="30"/>
@@ -5686,11 +5684,11 @@
       <c r="B133" s="6"/>
       <c r="C133" s="29"/>
       <c r="D133" s="30"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="61" t="s">
+      <c r="E133" s="53"/>
+      <c r="F133" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G133" s="67" t="s">
+      <c r="G133" s="61" t="s">
         <v>72</v>
       </c>
       <c r="H133" s="30"/>
@@ -5718,13 +5716,13 @@
     <row r="134" spans="2:28">
       <c r="B134" s="6"/>
       <c r="C134" s="29"/>
-      <c r="D134" s="62" t="s">
+      <c r="D134" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E134" s="54" t="s">
+      <c r="E134" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F134" s="58"/>
+      <c r="F134" s="52"/>
       <c r="G134" s="30"/>
       <c r="H134" s="30"/>
       <c r="I134" s="30"/>
@@ -5752,23 +5750,23 @@
       <c r="B135" s="6"/>
       <c r="C135" s="29"/>
       <c r="D135" s="30"/>
-      <c r="E135" s="73" t="s">
+      <c r="E135" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="74"/>
-      <c r="K135" s="74"/>
-      <c r="L135" s="74"/>
-      <c r="M135" s="74"/>
-      <c r="N135" s="76"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="68"/>
+      <c r="I135" s="68"/>
+      <c r="J135" s="68"/>
+      <c r="K135" s="68"/>
+      <c r="L135" s="68"/>
+      <c r="M135" s="68"/>
+      <c r="N135" s="70"/>
       <c r="O135" s="30"/>
-      <c r="P135" s="61" t="s">
+      <c r="P135" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="Q135" s="67" t="s">
+      <c r="Q135" s="61" t="s">
         <v>75</v>
       </c>
       <c r="R135" s="30"/>
@@ -5787,8 +5785,8 @@
       <c r="B136" s="6"/>
       <c r="C136" s="29"/>
       <c r="D136" s="30"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="62"/>
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
       <c r="I136" s="37"/>
@@ -5798,8 +5796,8 @@
       <c r="M136" s="37"/>
       <c r="N136" s="36"/>
       <c r="O136" s="30"/>
-      <c r="P136" s="61"/>
-      <c r="Q136" s="67"/>
+      <c r="P136" s="55"/>
+      <c r="Q136" s="61"/>
       <c r="R136" s="30"/>
       <c r="S136" s="30"/>
       <c r="T136" s="30"/>
@@ -5816,23 +5814,23 @@
       <c r="B137" s="6"/>
       <c r="C137" s="29"/>
       <c r="D137" s="30"/>
-      <c r="E137" s="73" t="s">
+      <c r="E137" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="74"/>
-      <c r="K137" s="74"/>
-      <c r="L137" s="74"/>
-      <c r="M137" s="74"/>
-      <c r="N137" s="76"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="68"/>
+      <c r="K137" s="68"/>
+      <c r="L137" s="68"/>
+      <c r="M137" s="68"/>
+      <c r="N137" s="70"/>
       <c r="O137" s="30"/>
-      <c r="P137" s="61" t="s">
+      <c r="P137" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="Q137" s="67" t="s">
+      <c r="Q137" s="61" t="s">
         <v>77</v>
       </c>
       <c r="R137" s="30"/>
@@ -5851,8 +5849,8 @@
       <c r="B138" s="6"/>
       <c r="C138" s="29"/>
       <c r="D138" s="30"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="68"/>
+      <c r="E138" s="62"/>
+      <c r="F138" s="62"/>
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
       <c r="I138" s="37"/>
@@ -5862,8 +5860,8 @@
       <c r="M138" s="37"/>
       <c r="N138" s="36"/>
       <c r="O138" s="30"/>
-      <c r="P138" s="61"/>
-      <c r="Q138" s="67"/>
+      <c r="P138" s="55"/>
+      <c r="Q138" s="61"/>
       <c r="R138" s="30"/>
       <c r="S138" s="30"/>
       <c r="T138" s="30"/>
@@ -5880,23 +5878,23 @@
       <c r="B139" s="6"/>
       <c r="C139" s="29"/>
       <c r="D139" s="30"/>
-      <c r="E139" s="73" t="s">
+      <c r="E139" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="F139" s="73"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="74"/>
-      <c r="I139" s="74"/>
-      <c r="J139" s="74"/>
-      <c r="K139" s="74"/>
-      <c r="L139" s="74"/>
-      <c r="M139" s="74"/>
-      <c r="N139" s="76"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="68"/>
+      <c r="I139" s="68"/>
+      <c r="J139" s="68"/>
+      <c r="K139" s="68"/>
+      <c r="L139" s="68"/>
+      <c r="M139" s="68"/>
+      <c r="N139" s="70"/>
       <c r="O139" s="30"/>
-      <c r="P139" s="61" t="s">
+      <c r="P139" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="Q139" s="67" t="s">
+      <c r="Q139" s="61" t="s">
         <v>78</v>
       </c>
       <c r="R139" s="30"/>
@@ -5955,9 +5953,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A48E2B-8799-4E49-8789-1A12BF601F16}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AC124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="15"/>
   <cols>
@@ -5970,100 +5971,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="14.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="46"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="74"/>
     </row>
     <row r="2" spans="2:28" ht="14.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="49"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="77"/>
     </row>
     <row r="3" spans="2:28" ht="14.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="49"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="77"/>
     </row>
     <row r="4" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="4"/>
       <c r="C4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="60" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="5"/>
@@ -6091,7 +6092,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="22"/>
     </row>
-    <row r="5" spans="2:28" s="1" customFormat="1">
+    <row r="5" spans="2:28">
       <c r="B5" s="6"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
@@ -6120,21 +6121,21 @@
       <c r="AA5" s="30"/>
       <c r="AB5" s="35"/>
     </row>
-    <row r="6" spans="2:28" s="1" customFormat="1">
+    <row r="6" spans="2:28">
       <c r="B6" s="6"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="61" t="s">
         <v>58</v>
       </c>
       <c r="L6" s="30"/>
@@ -6155,7 +6156,7 @@
       <c r="AA6" s="30"/>
       <c r="AB6" s="35"/>
     </row>
-    <row r="7" spans="2:28" s="1" customFormat="1">
+    <row r="7" spans="2:28">
       <c r="B7" s="6"/>
       <c r="C7" s="29"/>
       <c r="G7" s="30"/>
@@ -6181,21 +6182,21 @@
       <c r="AA7" s="30"/>
       <c r="AB7" s="35"/>
     </row>
-    <row r="8" spans="2:28" s="1" customFormat="1">
+    <row r="8" spans="2:28">
       <c r="B8" s="6"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="61" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="30"/>
@@ -6216,7 +6217,7 @@
       <c r="AA8" s="30"/>
       <c r="AB8" s="35"/>
     </row>
-    <row r="9" spans="2:28" s="1" customFormat="1">
+    <row r="9" spans="2:28">
       <c r="B9" s="6"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
@@ -6245,7 +6246,7 @@
       <c r="AA9" s="30"/>
       <c r="AB9" s="35"/>
     </row>
-    <row r="10" spans="2:28" s="1" customFormat="1">
+    <row r="10" spans="2:28">
       <c r="B10" s="6"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
@@ -6274,7 +6275,7 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="35"/>
     </row>
-    <row r="11" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="42" t="s">
         <v>5</v>
@@ -6307,7 +6308,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="22"/>
     </row>
-    <row r="12" spans="2:28" s="1" customFormat="1">
+    <row r="12" spans="2:28">
       <c r="B12" s="6"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
@@ -6336,7 +6337,7 @@
       <c r="AA12" s="30"/>
       <c r="AB12" s="35"/>
     </row>
-    <row r="13" spans="2:28" s="1" customFormat="1" ht="15.75">
+    <row r="13" spans="2:28" ht="15.75">
       <c r="B13" s="6"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30" t="s">
@@ -6369,7 +6370,7 @@
       <c r="AA13" s="30"/>
       <c r="AB13" s="35"/>
     </row>
-    <row r="14" spans="2:28" s="1" customFormat="1">
+    <row r="14" spans="2:28">
       <c r="B14" s="6"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -6398,7 +6399,7 @@
       <c r="AA14" s="30"/>
       <c r="AB14" s="35"/>
     </row>
-    <row r="15" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="4"/>
       <c r="C15" s="42" t="s">
         <v>9</v>
@@ -6431,7 +6432,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="22"/>
     </row>
-    <row r="16" spans="2:28" s="1" customFormat="1">
+    <row r="16" spans="2:28">
       <c r="B16" s="6"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
@@ -6460,7 +6461,7 @@
       <c r="AA16" s="30"/>
       <c r="AB16" s="35"/>
     </row>
-    <row r="17" spans="2:28" s="1" customFormat="1">
+    <row r="17" spans="2:28">
       <c r="B17" s="6"/>
       <c r="C17" s="29"/>
       <c r="D17" s="43" t="s">
@@ -6493,7 +6494,7 @@
       <c r="AA17" s="30"/>
       <c r="AB17" s="35"/>
     </row>
-    <row r="18" spans="2:28" s="1" customFormat="1">
+    <row r="18" spans="2:28">
       <c r="B18" s="6"/>
       <c r="C18" s="29"/>
       <c r="D18" s="32"/>
@@ -6524,14 +6525,14 @@
       <c r="AA18" s="30"/>
       <c r="AB18" s="35"/>
     </row>
-    <row r="19" spans="2:28" s="1" customFormat="1">
+    <row r="19" spans="2:28">
       <c r="B19" s="6"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="45" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="15"/>
@@ -6557,11 +6558,11 @@
       <c r="AA19" s="30"/>
       <c r="AB19" s="35"/>
     </row>
-    <row r="20" spans="2:28" s="1" customFormat="1">
+    <row r="20" spans="2:28">
       <c r="B20" s="6"/>
       <c r="C20" s="29"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="47" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="17" t="s">
@@ -6590,11 +6591,11 @@
       <c r="AA20" s="30"/>
       <c r="AB20" s="35"/>
     </row>
-    <row r="21" spans="2:28" s="1" customFormat="1">
+    <row r="21" spans="2:28">
       <c r="B21" s="6"/>
       <c r="C21" s="29"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="47" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -6623,7 +6624,7 @@
       <c r="AA21" s="30"/>
       <c r="AB21" s="35"/>
     </row>
-    <row r="22" spans="2:28" s="1" customFormat="1">
+    <row r="22" spans="2:28">
       <c r="B22" s="6"/>
       <c r="C22" s="29"/>
       <c r="D22" s="30"/>
@@ -6652,7 +6653,7 @@
       <c r="AA22" s="30"/>
       <c r="AB22" s="35"/>
     </row>
-    <row r="23" spans="2:28" s="1" customFormat="1">
+    <row r="23" spans="2:28">
       <c r="B23" s="6"/>
       <c r="C23" s="29"/>
       <c r="D23" s="43" t="s">
@@ -6685,7 +6686,7 @@
       <c r="AA23" s="30"/>
       <c r="AB23" s="35"/>
     </row>
-    <row r="24" spans="2:28" s="1" customFormat="1">
+    <row r="24" spans="2:28">
       <c r="B24" s="6"/>
       <c r="C24" s="29"/>
       <c r="D24" s="18"/>
@@ -6716,7 +6717,7 @@
       <c r="AA24" s="30"/>
       <c r="AB24" s="35"/>
     </row>
-    <row r="25" spans="2:28" s="1" customFormat="1">
+    <row r="25" spans="2:28">
       <c r="B25" s="6"/>
       <c r="C25" s="29"/>
       <c r="D25" s="18"/>
@@ -6745,7 +6746,7 @@
       <c r="AA25" s="30"/>
       <c r="AB25" s="35"/>
     </row>
-    <row r="26" spans="2:28" s="1" customFormat="1">
+    <row r="26" spans="2:28">
       <c r="B26" s="6"/>
       <c r="C26" s="29"/>
       <c r="D26" s="18"/>
@@ -6774,7 +6775,7 @@
       <c r="AA26" s="30"/>
       <c r="AB26" s="35"/>
     </row>
-    <row r="27" spans="2:28" s="1" customFormat="1">
+    <row r="27" spans="2:28">
       <c r="B27" s="6"/>
       <c r="C27" s="29"/>
       <c r="D27" s="18"/>
@@ -6803,7 +6804,7 @@
       <c r="AA27" s="30"/>
       <c r="AB27" s="35"/>
     </row>
-    <row r="28" spans="2:28" s="1" customFormat="1">
+    <row r="28" spans="2:28">
       <c r="B28" s="6"/>
       <c r="C28" s="29"/>
       <c r="D28" s="18"/>
@@ -6832,7 +6833,7 @@
       <c r="AA28" s="30"/>
       <c r="AB28" s="35"/>
     </row>
-    <row r="29" spans="2:28" s="1" customFormat="1">
+    <row r="29" spans="2:28">
       <c r="B29" s="6"/>
       <c r="C29" s="29"/>
       <c r="D29" s="18"/>
@@ -6861,7 +6862,7 @@
       <c r="AA29" s="30"/>
       <c r="AB29" s="35"/>
     </row>
-    <row r="30" spans="2:28" s="1" customFormat="1">
+    <row r="30" spans="2:28">
       <c r="B30" s="6"/>
       <c r="C30" s="29"/>
       <c r="D30" s="18"/>
@@ -6890,7 +6891,7 @@
       <c r="AA30" s="30"/>
       <c r="AB30" s="35"/>
     </row>
-    <row r="31" spans="2:28" s="1" customFormat="1">
+    <row r="31" spans="2:28">
       <c r="B31" s="6"/>
       <c r="C31" s="29"/>
       <c r="D31" s="18"/>
@@ -6919,7 +6920,7 @@
       <c r="AA31" s="30"/>
       <c r="AB31" s="35"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1">
+    <row r="32" spans="2:28">
       <c r="B32" s="6"/>
       <c r="C32" s="29"/>
       <c r="D32" s="18"/>
@@ -6948,7 +6949,7 @@
       <c r="AA32" s="30"/>
       <c r="AB32" s="35"/>
     </row>
-    <row r="33" spans="2:28" s="1" customFormat="1">
+    <row r="33" spans="2:28">
       <c r="B33" s="6"/>
       <c r="C33" s="29"/>
       <c r="D33" s="18"/>
@@ -6977,7 +6978,7 @@
       <c r="AA33" s="30"/>
       <c r="AB33" s="35"/>
     </row>
-    <row r="34" spans="2:28" s="1" customFormat="1">
+    <row r="34" spans="2:28">
       <c r="B34" s="6"/>
       <c r="C34" s="29"/>
       <c r="D34" s="18"/>
@@ -7006,7 +7007,7 @@
       <c r="AA34" s="30"/>
       <c r="AB34" s="35"/>
     </row>
-    <row r="35" spans="2:28" s="1" customFormat="1">
+    <row r="35" spans="2:28">
       <c r="B35" s="6"/>
       <c r="C35" s="29"/>
       <c r="D35" s="18"/>
@@ -7035,7 +7036,7 @@
       <c r="AA35" s="30"/>
       <c r="AB35" s="35"/>
     </row>
-    <row r="36" spans="2:28" s="1" customFormat="1">
+    <row r="36" spans="2:28">
       <c r="B36" s="6"/>
       <c r="C36" s="29"/>
       <c r="D36" s="18"/>
@@ -7064,7 +7065,7 @@
       <c r="AA36" s="30"/>
       <c r="AB36" s="35"/>
     </row>
-    <row r="37" spans="2:28" s="1" customFormat="1">
+    <row r="37" spans="2:28">
       <c r="B37" s="6"/>
       <c r="C37" s="29"/>
       <c r="D37" s="18"/>
@@ -7093,7 +7094,7 @@
       <c r="AA37" s="30"/>
       <c r="AB37" s="35"/>
     </row>
-    <row r="38" spans="2:28" s="1" customFormat="1">
+    <row r="38" spans="2:28">
       <c r="B38" s="6"/>
       <c r="C38" s="29"/>
       <c r="D38" s="20"/>
@@ -7122,7 +7123,7 @@
       <c r="AA38" s="30"/>
       <c r="AB38" s="35"/>
     </row>
-    <row r="39" spans="2:28" s="1" customFormat="1">
+    <row r="39" spans="2:28">
       <c r="B39" s="6"/>
       <c r="C39" s="29"/>
       <c r="D39" s="18"/>
@@ -7153,7 +7154,7 @@
       <c r="AA39" s="30"/>
       <c r="AB39" s="35"/>
     </row>
-    <row r="40" spans="2:28" s="1" customFormat="1">
+    <row r="40" spans="2:28">
       <c r="B40" s="6"/>
       <c r="C40" s="29"/>
       <c r="D40" s="18"/>
@@ -7182,7 +7183,7 @@
       <c r="AA40" s="30"/>
       <c r="AB40" s="35"/>
     </row>
-    <row r="41" spans="2:28" s="1" customFormat="1">
+    <row r="41" spans="2:28">
       <c r="B41" s="6"/>
       <c r="C41" s="29"/>
       <c r="D41" s="18"/>
@@ -7211,7 +7212,7 @@
       <c r="AA41" s="30"/>
       <c r="AB41" s="35"/>
     </row>
-    <row r="42" spans="2:28" s="1" customFormat="1">
+    <row r="42" spans="2:28">
       <c r="B42" s="6"/>
       <c r="C42" s="29"/>
       <c r="D42" s="18"/>
@@ -7240,7 +7241,7 @@
       <c r="AA42" s="30"/>
       <c r="AB42" s="35"/>
     </row>
-    <row r="43" spans="2:28" s="1" customFormat="1">
+    <row r="43" spans="2:28">
       <c r="B43" s="6"/>
       <c r="C43" s="29"/>
       <c r="D43" s="18"/>
@@ -7269,7 +7270,7 @@
       <c r="AA43" s="30"/>
       <c r="AB43" s="35"/>
     </row>
-    <row r="44" spans="2:28" s="1" customFormat="1">
+    <row r="44" spans="2:28">
       <c r="B44" s="6"/>
       <c r="C44" s="29"/>
       <c r="D44" s="18"/>
@@ -7298,7 +7299,7 @@
       <c r="AA44" s="30"/>
       <c r="AB44" s="35"/>
     </row>
-    <row r="45" spans="2:28" s="1" customFormat="1">
+    <row r="45" spans="2:28">
       <c r="B45" s="6"/>
       <c r="C45" s="29"/>
       <c r="D45" s="18"/>
@@ -7327,7 +7328,7 @@
       <c r="AA45" s="30"/>
       <c r="AB45" s="35"/>
     </row>
-    <row r="46" spans="2:28" s="1" customFormat="1">
+    <row r="46" spans="2:28">
       <c r="B46" s="6"/>
       <c r="C46" s="29"/>
       <c r="D46" s="18"/>
@@ -7356,7 +7357,7 @@
       <c r="AA46" s="30"/>
       <c r="AB46" s="35"/>
     </row>
-    <row r="47" spans="2:28" s="1" customFormat="1">
+    <row r="47" spans="2:28">
       <c r="B47" s="6"/>
       <c r="C47" s="29"/>
       <c r="D47" s="18"/>
@@ -7385,7 +7386,7 @@
       <c r="AA47" s="30"/>
       <c r="AB47" s="35"/>
     </row>
-    <row r="48" spans="2:28" s="1" customFormat="1">
+    <row r="48" spans="2:28">
       <c r="B48" s="6"/>
       <c r="C48" s="29"/>
       <c r="D48" s="18"/>
@@ -7414,7 +7415,7 @@
       <c r="AA48" s="30"/>
       <c r="AB48" s="35"/>
     </row>
-    <row r="49" spans="2:28" s="1" customFormat="1">
+    <row r="49" spans="2:28">
       <c r="B49" s="6"/>
       <c r="C49" s="29"/>
       <c r="D49" s="18"/>
@@ -7443,7 +7444,7 @@
       <c r="AA49" s="30"/>
       <c r="AB49" s="35"/>
     </row>
-    <row r="50" spans="2:28" s="1" customFormat="1">
+    <row r="50" spans="2:28">
       <c r="B50" s="6"/>
       <c r="C50" s="29"/>
       <c r="D50" s="18"/>
@@ -7472,7 +7473,7 @@
       <c r="AA50" s="30"/>
       <c r="AB50" s="35"/>
     </row>
-    <row r="51" spans="2:28" s="1" customFormat="1">
+    <row r="51" spans="2:28">
       <c r="B51" s="6"/>
       <c r="C51" s="29"/>
       <c r="D51" s="18"/>
@@ -7501,7 +7502,7 @@
       <c r="AA51" s="30"/>
       <c r="AB51" s="35"/>
     </row>
-    <row r="52" spans="2:28" s="1" customFormat="1">
+    <row r="52" spans="2:28">
       <c r="B52" s="6"/>
       <c r="C52" s="29"/>
       <c r="D52" s="20"/>
@@ -7530,7 +7531,7 @@
       <c r="AA52" s="30"/>
       <c r="AB52" s="35"/>
     </row>
-    <row r="53" spans="2:28" s="1" customFormat="1">
+    <row r="53" spans="2:28">
       <c r="B53" s="6"/>
       <c r="C53" s="29"/>
       <c r="D53" s="18"/>
@@ -7561,7 +7562,7 @@
       <c r="AA53" s="30"/>
       <c r="AB53" s="35"/>
     </row>
-    <row r="54" spans="2:28" s="1" customFormat="1">
+    <row r="54" spans="2:28">
       <c r="B54" s="6"/>
       <c r="C54" s="29"/>
       <c r="D54" s="18"/>
@@ -7590,7 +7591,7 @@
       <c r="AA54" s="30"/>
       <c r="AB54" s="35"/>
     </row>
-    <row r="55" spans="2:28" s="1" customFormat="1">
+    <row r="55" spans="2:28">
       <c r="B55" s="6"/>
       <c r="C55" s="29"/>
       <c r="D55" s="18"/>
@@ -7619,7 +7620,7 @@
       <c r="AA55" s="30"/>
       <c r="AB55" s="35"/>
     </row>
-    <row r="56" spans="2:28" s="1" customFormat="1">
+    <row r="56" spans="2:28">
       <c r="B56" s="6"/>
       <c r="C56" s="29"/>
       <c r="D56" s="18"/>
@@ -7648,7 +7649,7 @@
       <c r="AA56" s="30"/>
       <c r="AB56" s="35"/>
     </row>
-    <row r="57" spans="2:28" s="1" customFormat="1">
+    <row r="57" spans="2:28">
       <c r="B57" s="6"/>
       <c r="C57" s="29"/>
       <c r="D57" s="18"/>
@@ -7677,7 +7678,7 @@
       <c r="AA57" s="30"/>
       <c r="AB57" s="35"/>
     </row>
-    <row r="58" spans="2:28" s="1" customFormat="1">
+    <row r="58" spans="2:28">
       <c r="B58" s="6"/>
       <c r="C58" s="29"/>
       <c r="D58" s="18"/>
@@ -7706,7 +7707,7 @@
       <c r="AA58" s="30"/>
       <c r="AB58" s="35"/>
     </row>
-    <row r="59" spans="2:28" s="1" customFormat="1">
+    <row r="59" spans="2:28">
       <c r="B59" s="6"/>
       <c r="C59" s="29"/>
       <c r="D59" s="18"/>
@@ -7735,7 +7736,7 @@
       <c r="AA59" s="30"/>
       <c r="AB59" s="35"/>
     </row>
-    <row r="60" spans="2:28" s="1" customFormat="1">
+    <row r="60" spans="2:28">
       <c r="B60" s="6"/>
       <c r="C60" s="29"/>
       <c r="D60" s="18"/>
@@ -7764,7 +7765,7 @@
       <c r="AA60" s="30"/>
       <c r="AB60" s="35"/>
     </row>
-    <row r="61" spans="2:28" s="1" customFormat="1">
+    <row r="61" spans="2:28">
       <c r="B61" s="6"/>
       <c r="C61" s="29"/>
       <c r="D61" s="18"/>
@@ -7793,7 +7794,7 @@
       <c r="AA61" s="30"/>
       <c r="AB61" s="35"/>
     </row>
-    <row r="62" spans="2:28" s="1" customFormat="1">
+    <row r="62" spans="2:28">
       <c r="B62" s="6"/>
       <c r="C62" s="29"/>
       <c r="D62" s="18"/>
@@ -7822,7 +7823,7 @@
       <c r="AA62" s="30"/>
       <c r="AB62" s="35"/>
     </row>
-    <row r="63" spans="2:28" s="1" customFormat="1">
+    <row r="63" spans="2:28">
       <c r="B63" s="6"/>
       <c r="C63" s="29"/>
       <c r="D63" s="18"/>
@@ -7851,7 +7852,7 @@
       <c r="AA63" s="30"/>
       <c r="AB63" s="35"/>
     </row>
-    <row r="64" spans="2:28" s="1" customFormat="1">
+    <row r="64" spans="2:28">
       <c r="B64" s="6"/>
       <c r="C64" s="29"/>
       <c r="D64" s="18"/>
@@ -7880,7 +7881,7 @@
       <c r="AA64" s="30"/>
       <c r="AB64" s="35"/>
     </row>
-    <row r="65" spans="2:28" s="1" customFormat="1">
+    <row r="65" spans="2:28">
       <c r="B65" s="6"/>
       <c r="C65" s="29"/>
       <c r="D65" s="18"/>
@@ -7909,7 +7910,7 @@
       <c r="AA65" s="30"/>
       <c r="AB65" s="35"/>
     </row>
-    <row r="66" spans="2:28" s="1" customFormat="1">
+    <row r="66" spans="2:28">
       <c r="B66" s="6"/>
       <c r="C66" s="29"/>
       <c r="D66" s="18"/>
@@ -7938,7 +7939,7 @@
       <c r="AA66" s="30"/>
       <c r="AB66" s="35"/>
     </row>
-    <row r="67" spans="2:28" s="1" customFormat="1">
+    <row r="67" spans="2:28">
       <c r="B67" s="6"/>
       <c r="C67" s="29"/>
       <c r="D67" s="18"/>
@@ -7967,7 +7968,7 @@
       <c r="AA67" s="30"/>
       <c r="AB67" s="35"/>
     </row>
-    <row r="68" spans="2:28" s="1" customFormat="1">
+    <row r="68" spans="2:28">
       <c r="B68" s="6"/>
       <c r="C68" s="29"/>
       <c r="D68" s="18"/>
@@ -7996,7 +7997,7 @@
       <c r="AA68" s="30"/>
       <c r="AB68" s="35"/>
     </row>
-    <row r="69" spans="2:28" s="1" customFormat="1">
+    <row r="69" spans="2:28">
       <c r="B69" s="6"/>
       <c r="C69" s="29"/>
       <c r="D69" s="18"/>
@@ -8025,7 +8026,7 @@
       <c r="AA69" s="30"/>
       <c r="AB69" s="35"/>
     </row>
-    <row r="70" spans="2:28" s="1" customFormat="1">
+    <row r="70" spans="2:28">
       <c r="B70" s="6"/>
       <c r="C70" s="29"/>
       <c r="D70" s="18"/>
@@ -8054,7 +8055,7 @@
       <c r="AA70" s="30"/>
       <c r="AB70" s="35"/>
     </row>
-    <row r="71" spans="2:28" s="1" customFormat="1">
+    <row r="71" spans="2:28">
       <c r="B71" s="6"/>
       <c r="C71" s="29"/>
       <c r="D71" s="18"/>
@@ -8083,7 +8084,7 @@
       <c r="AA71" s="30"/>
       <c r="AB71" s="35"/>
     </row>
-    <row r="72" spans="2:28" s="1" customFormat="1">
+    <row r="72" spans="2:28">
       <c r="B72" s="6"/>
       <c r="C72" s="29"/>
       <c r="D72" s="18"/>
@@ -8112,7 +8113,7 @@
       <c r="AA72" s="30"/>
       <c r="AB72" s="35"/>
     </row>
-    <row r="73" spans="2:28" s="1" customFormat="1">
+    <row r="73" spans="2:28">
       <c r="B73" s="6"/>
       <c r="C73" s="29"/>
       <c r="D73" s="18"/>
@@ -8141,7 +8142,7 @@
       <c r="AA73" s="30"/>
       <c r="AB73" s="35"/>
     </row>
-    <row r="74" spans="2:28" s="1" customFormat="1">
+    <row r="74" spans="2:28">
       <c r="B74" s="6"/>
       <c r="C74" s="29"/>
       <c r="D74" s="20"/>
@@ -8170,7 +8171,7 @@
       <c r="AA74" s="30"/>
       <c r="AB74" s="35"/>
     </row>
-    <row r="75" spans="2:28" s="1" customFormat="1">
+    <row r="75" spans="2:28">
       <c r="B75" s="6"/>
       <c r="C75" s="29"/>
       <c r="D75" s="32"/>
@@ -8199,7 +8200,7 @@
       <c r="AA75" s="30"/>
       <c r="AB75" s="35"/>
     </row>
-    <row r="76" spans="2:28" s="1" customFormat="1">
+    <row r="76" spans="2:28">
       <c r="B76" s="6"/>
       <c r="C76" s="29"/>
       <c r="D76" s="30"/>
@@ -8228,12 +8229,12 @@
       <c r="AA76" s="30"/>
       <c r="AB76" s="35"/>
     </row>
-    <row r="77" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="B77" s="4"/>
       <c r="C77" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="66" t="s">
+      <c r="D77" s="60" t="s">
         <v>55</v>
       </c>
       <c r="E77" s="5"/>
@@ -8261,7 +8262,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="22"/>
     </row>
-    <row r="78" spans="2:28" s="1" customFormat="1">
+    <row r="78" spans="2:28">
       <c r="B78" s="6"/>
       <c r="C78" s="29"/>
       <c r="D78" s="30"/>
@@ -8290,7 +8291,7 @@
       <c r="AA78" s="30"/>
       <c r="AB78" s="35"/>
     </row>
-    <row r="79" spans="2:28" s="1" customFormat="1">
+    <row r="79" spans="2:28">
       <c r="B79" s="6"/>
       <c r="C79" s="29"/>
       <c r="D79" s="43" t="s">
@@ -8323,11 +8324,11 @@
       <c r="AA79" s="30"/>
       <c r="AB79" s="35"/>
     </row>
-    <row r="80" spans="2:28" s="1" customFormat="1">
+    <row r="80" spans="2:28">
       <c r="B80" s="6"/>
       <c r="C80" s="29"/>
       <c r="D80" s="30"/>
-      <c r="E80" s="50" t="s">
+      <c r="E80" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F80" s="24" t="s">
@@ -8356,7 +8357,7 @@
       <c r="AA80" s="30"/>
       <c r="AB80" s="35"/>
     </row>
-    <row r="81" spans="2:28" s="1" customFormat="1">
+    <row r="81" spans="2:28">
       <c r="B81" s="6"/>
       <c r="C81" s="29"/>
       <c r="D81" s="30"/>
@@ -8389,7 +8390,7 @@
       <c r="AA81" s="30"/>
       <c r="AB81" s="35"/>
     </row>
-    <row r="82" spans="2:28" s="1" customFormat="1">
+    <row r="82" spans="2:28">
       <c r="B82" s="6"/>
       <c r="C82" s="29"/>
       <c r="D82" s="30"/>
@@ -8422,7 +8423,7 @@
       <c r="AA82" s="30"/>
       <c r="AB82" s="35"/>
     </row>
-    <row r="83" spans="2:28" s="1" customFormat="1">
+    <row r="83" spans="2:28">
       <c r="B83" s="6"/>
       <c r="C83" s="29"/>
       <c r="D83" s="30"/>
@@ -8455,11 +8456,11 @@
       <c r="AA83" s="30"/>
       <c r="AB83" s="35"/>
     </row>
-    <row r="84" spans="2:28" s="1" customFormat="1">
+    <row r="84" spans="2:28">
       <c r="B84" s="6"/>
       <c r="C84" s="29"/>
       <c r="D84" s="30"/>
-      <c r="E84" s="50" t="s">
+      <c r="E84" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F84" s="24" t="s">
@@ -8488,11 +8489,11 @@
       <c r="AA84" s="30"/>
       <c r="AB84" s="35"/>
     </row>
-    <row r="85" spans="2:28" s="1" customFormat="1">
+    <row r="85" spans="2:28">
       <c r="B85" s="6"/>
       <c r="C85" s="29"/>
       <c r="D85" s="32"/>
-      <c r="E85" s="50" t="s">
+      <c r="E85" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F85" s="24" t="s">
@@ -8521,11 +8522,11 @@
       <c r="AA85" s="30"/>
       <c r="AB85" s="35"/>
     </row>
-    <row r="86" spans="2:28" s="1" customFormat="1">
+    <row r="86" spans="2:28">
       <c r="B86" s="6"/>
       <c r="C86" s="29"/>
       <c r="D86" s="30"/>
-      <c r="E86" s="50" t="s">
+      <c r="E86" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F86" s="24" t="s">
@@ -8554,7 +8555,7 @@
       <c r="AA86" s="30"/>
       <c r="AB86" s="35"/>
     </row>
-    <row r="87" spans="2:28" s="1" customFormat="1">
+    <row r="87" spans="2:28">
       <c r="B87" s="6"/>
       <c r="C87" s="29"/>
       <c r="D87" s="30"/>
@@ -8587,7 +8588,7 @@
       <c r="AA87" s="30"/>
       <c r="AB87" s="35"/>
     </row>
-    <row r="88" spans="2:28" s="1" customFormat="1">
+    <row r="88" spans="2:28">
       <c r="B88" s="6"/>
       <c r="C88" s="29"/>
       <c r="D88" s="30"/>
@@ -8616,13 +8617,13 @@
       <c r="AA88" s="30"/>
       <c r="AB88" s="35"/>
     </row>
-    <row r="89" spans="2:28" s="1" customFormat="1">
+    <row r="89" spans="2:28">
       <c r="B89" s="6"/>
       <c r="C89" s="29"/>
       <c r="D89" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="54" t="s">
+      <c r="E89" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F89" s="30"/>
@@ -8649,14 +8650,14 @@
       <c r="AA89" s="30"/>
       <c r="AB89" s="35"/>
     </row>
-    <row r="90" spans="2:28" s="1" customFormat="1">
+    <row r="90" spans="2:28">
       <c r="B90" s="6"/>
       <c r="C90" s="29"/>
       <c r="D90" s="30"/>
-      <c r="E90" s="59" t="s">
+      <c r="E90" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F90" s="58" t="s">
+      <c r="F90" s="52" t="s">
         <v>40</v>
       </c>
       <c r="G90" s="30"/>
@@ -8682,14 +8683,14 @@
       <c r="AA90" s="30"/>
       <c r="AB90" s="35"/>
     </row>
-    <row r="91" spans="2:28" s="1" customFormat="1">
+    <row r="91" spans="2:28">
       <c r="B91" s="6"/>
       <c r="C91" s="29"/>
       <c r="D91" s="30"/>
       <c r="E91" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="60" t="s">
+      <c r="F91" s="54" t="s">
         <v>41</v>
       </c>
       <c r="G91" s="30"/>
@@ -8715,80 +8716,80 @@
       <c r="AA91" s="30"/>
       <c r="AB91" s="35"/>
     </row>
-    <row r="92" spans="2:28" s="1" customFormat="1">
+    <row r="92" spans="2:28">
       <c r="B92" s="6"/>
       <c r="C92" s="29"/>
       <c r="D92" s="30"/>
-      <c r="E92" s="59" t="s">
+      <c r="E92" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F92" s="58" t="s">
+      <c r="F92" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G92" s="56"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="57"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="57"/>
-      <c r="O92" s="57"/>
-      <c r="P92" s="57"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="57"/>
-      <c r="S92" s="57"/>
-      <c r="T92" s="57"/>
-      <c r="U92" s="57"/>
-      <c r="V92" s="57"/>
-      <c r="W92" s="57"/>
-      <c r="X92" s="57"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="51"/>
+      <c r="U92" s="51"/>
+      <c r="V92" s="51"/>
+      <c r="W92" s="51"/>
+      <c r="X92" s="51"/>
       <c r="Y92" s="30"/>
       <c r="Z92" s="30"/>
       <c r="AA92" s="30"/>
       <c r="AB92" s="35"/>
     </row>
-    <row r="93" spans="2:28" s="1" customFormat="1">
+    <row r="93" spans="2:28">
       <c r="B93" s="6"/>
       <c r="C93" s="29"/>
       <c r="D93" s="30"/>
-      <c r="E93" s="61" t="s">
+      <c r="E93" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="60" t="s">
+      <c r="F93" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G93" s="56"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="57"/>
-      <c r="O93" s="57"/>
-      <c r="P93" s="57"/>
-      <c r="Q93" s="57"/>
-      <c r="R93" s="57"/>
-      <c r="S93" s="57"/>
-      <c r="T93" s="57"/>
-      <c r="U93" s="57"/>
-      <c r="V93" s="57"/>
-      <c r="W93" s="57"/>
-      <c r="X93" s="57"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="51"/>
+      <c r="W93" s="51"/>
+      <c r="X93" s="51"/>
       <c r="Y93" s="30"/>
       <c r="Z93" s="30"/>
       <c r="AA93" s="30"/>
       <c r="AB93" s="35"/>
     </row>
-    <row r="94" spans="2:28" s="1" customFormat="1">
+    <row r="94" spans="2:28">
       <c r="B94" s="6"/>
       <c r="C94" s="29"/>
       <c r="D94" s="30"/>
-      <c r="E94" s="59" t="s">
+      <c r="E94" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="58" t="s">
+      <c r="F94" s="52" t="s">
         <v>44</v>
       </c>
       <c r="G94" s="30"/>
@@ -8814,14 +8815,14 @@
       <c r="AA94" s="30"/>
       <c r="AB94" s="35"/>
     </row>
-    <row r="95" spans="2:28" s="1" customFormat="1">
+    <row r="95" spans="2:28">
       <c r="B95" s="6"/>
       <c r="C95" s="29"/>
       <c r="D95" s="30"/>
-      <c r="E95" s="61" t="s">
+      <c r="E95" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="60" t="s">
+      <c r="F95" s="54" t="s">
         <v>45</v>
       </c>
       <c r="G95" s="30"/>
@@ -8847,7 +8848,7 @@
       <c r="AA95" s="30"/>
       <c r="AB95" s="35"/>
     </row>
-    <row r="96" spans="2:28" s="1" customFormat="1">
+    <row r="96" spans="2:28">
       <c r="B96" s="6"/>
       <c r="C96" s="29"/>
       <c r="D96" s="30"/>
@@ -8876,7 +8877,7 @@
       <c r="AA96" s="30"/>
       <c r="AB96" s="35"/>
     </row>
-    <row r="97" spans="2:28" s="1" customFormat="1">
+    <row r="97" spans="2:28">
       <c r="B97" s="6"/>
       <c r="C97" s="29"/>
       <c r="D97"/>
@@ -8905,12 +8906,12 @@
       <c r="AA97" s="30"/>
       <c r="AB97" s="35"/>
     </row>
-    <row r="98" spans="2:28" s="1" customFormat="1">
+    <row r="98" spans="2:28">
       <c r="B98" s="6"/>
       <c r="C98" s="29"/>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
-      <c r="F98" s="55"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
       <c r="I98" s="30"/>
@@ -8934,7 +8935,7 @@
       <c r="AA98" s="30"/>
       <c r="AB98" s="35"/>
     </row>
-    <row r="99" spans="2:28" s="1" customFormat="1">
+    <row r="99" spans="2:28">
       <c r="B99" s="6"/>
       <c r="C99" s="29"/>
       <c r="D99" s="30"/>
@@ -8963,7 +8964,7 @@
       <c r="AA99" s="30"/>
       <c r="AB99" s="35"/>
     </row>
-    <row r="100" spans="2:28" s="1" customFormat="1">
+    <row r="100" spans="2:28">
       <c r="B100" s="6"/>
       <c r="C100" s="29"/>
       <c r="D100" s="30"/>
@@ -8992,12 +8993,12 @@
       <c r="AA100" s="30"/>
       <c r="AB100" s="35"/>
     </row>
-    <row r="101" spans="2:28" s="1" customFormat="1">
+    <row r="101" spans="2:28">
       <c r="B101" s="6"/>
       <c r="C101" s="29"/>
       <c r="D101" s="30"/>
       <c r="E101" s="30"/>
-      <c r="F101" s="55"/>
+      <c r="F101" s="49"/>
       <c r="G101" s="30"/>
       <c r="H101" s="30"/>
       <c r="I101" s="30"/>
@@ -9021,7 +9022,7 @@
       <c r="AA101" s="30"/>
       <c r="AB101" s="35"/>
     </row>
-    <row r="102" spans="2:28" s="1" customFormat="1">
+    <row r="102" spans="2:28">
       <c r="B102" s="6"/>
       <c r="C102" s="29"/>
       <c r="D102" s="30"/>
@@ -9050,7 +9051,7 @@
       <c r="AA102" s="30"/>
       <c r="AB102" s="35"/>
     </row>
-    <row r="103" spans="2:28" s="1" customFormat="1">
+    <row r="103" spans="2:28">
       <c r="B103" s="6"/>
       <c r="C103" s="29"/>
       <c r="D103" s="30"/>
@@ -9079,12 +9080,12 @@
       <c r="AA103" s="30"/>
       <c r="AB103" s="35"/>
     </row>
-    <row r="104" spans="2:28" s="1" customFormat="1">
+    <row r="104" spans="2:28">
       <c r="B104" s="6"/>
       <c r="C104" s="29"/>
       <c r="D104" s="30"/>
       <c r="E104" s="30"/>
-      <c r="F104" s="55"/>
+      <c r="F104" s="49"/>
       <c r="G104" s="30"/>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
@@ -9108,7 +9109,7 @@
       <c r="AA104" s="30"/>
       <c r="AB104" s="35"/>
     </row>
-    <row r="105" spans="2:28" s="1" customFormat="1">
+    <row r="105" spans="2:28">
       <c r="B105" s="6"/>
       <c r="C105" s="29"/>
       <c r="D105" s="30"/>
@@ -9137,7 +9138,7 @@
       <c r="AA105" s="30"/>
       <c r="AB105" s="35"/>
     </row>
-    <row r="106" spans="2:28" s="1" customFormat="1">
+    <row r="106" spans="2:28">
       <c r="B106" s="6"/>
       <c r="C106" s="29"/>
       <c r="D106" s="30"/>
@@ -9166,12 +9167,12 @@
       <c r="AA106" s="30"/>
       <c r="AB106" s="35"/>
     </row>
-    <row r="107" spans="2:28" s="1" customFormat="1">
+    <row r="107" spans="2:28">
       <c r="B107" s="6"/>
       <c r="C107" s="29"/>
       <c r="D107" s="30"/>
       <c r="E107" s="30"/>
-      <c r="F107" s="55"/>
+      <c r="F107" s="49"/>
       <c r="G107" s="30"/>
       <c r="H107" s="30"/>
       <c r="I107" s="30"/>
@@ -9195,7 +9196,7 @@
       <c r="AA107" s="30"/>
       <c r="AB107" s="35"/>
     </row>
-    <row r="108" spans="2:28" s="1" customFormat="1">
+    <row r="108" spans="2:28">
       <c r="B108" s="6"/>
       <c r="C108" s="29"/>
       <c r="D108" s="30"/>
@@ -9224,7 +9225,7 @@
       <c r="AA108" s="30"/>
       <c r="AB108" s="35"/>
     </row>
-    <row r="109" spans="2:28" s="1" customFormat="1">
+    <row r="109" spans="2:28">
       <c r="B109" s="6"/>
       <c r="C109" s="29"/>
       <c r="D109" s="30"/>
@@ -9253,12 +9254,12 @@
       <c r="AA109" s="30"/>
       <c r="AB109" s="35"/>
     </row>
-    <row r="110" spans="2:28" s="1" customFormat="1">
+    <row r="110" spans="2:28">
       <c r="B110" s="6"/>
       <c r="C110" s="29"/>
       <c r="D110" s="30"/>
       <c r="E110" s="30"/>
-      <c r="F110" s="55"/>
+      <c r="F110" s="49"/>
       <c r="G110" s="30"/>
       <c r="H110" s="30"/>
       <c r="I110" s="30"/>
@@ -9282,7 +9283,7 @@
       <c r="AA110" s="30"/>
       <c r="AB110" s="35"/>
     </row>
-    <row r="111" spans="2:28" s="1" customFormat="1">
+    <row r="111" spans="2:28">
       <c r="B111" s="6"/>
       <c r="C111" s="29"/>
       <c r="D111" s="30"/>
@@ -9311,13 +9312,13 @@
       <c r="AA111" s="30"/>
       <c r="AB111" s="35"/>
     </row>
-    <row r="112" spans="2:28" s="1" customFormat="1">
+    <row r="112" spans="2:28">
       <c r="B112" s="6"/>
       <c r="C112" s="29"/>
-      <c r="D112" s="62" t="s">
+      <c r="D112" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E112" s="54" t="s">
+      <c r="E112" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F112" s="30"/>
@@ -9344,14 +9345,14 @@
       <c r="AA112" s="30"/>
       <c r="AB112" s="35"/>
     </row>
-    <row r="113" spans="2:28" s="1" customFormat="1">
+    <row r="113" spans="2:28">
       <c r="B113" s="6"/>
       <c r="C113" s="29"/>
       <c r="D113" s="30"/>
-      <c r="E113" s="59" t="s">
+      <c r="E113" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F113" s="58" t="s">
+      <c r="F113" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G113" s="28"/>
@@ -9377,20 +9378,20 @@
       <c r="AA113" s="30"/>
       <c r="AB113" s="35"/>
     </row>
-    <row r="114" spans="2:28" s="1" customFormat="1">
+    <row r="114" spans="2:28">
       <c r="B114" s="6"/>
       <c r="C114" s="29"/>
       <c r="D114" s="30"/>
-      <c r="E114" s="61" t="s">
+      <c r="E114" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="65" t="s">
+      <c r="F114" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G114" s="63"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="58"/>
       <c r="K114" s="30"/>
       <c r="L114" s="30"/>
       <c r="M114" s="30"/>
@@ -9410,14 +9411,14 @@
       <c r="AA114" s="30"/>
       <c r="AB114" s="35"/>
     </row>
-    <row r="115" spans="2:28" s="1" customFormat="1">
+    <row r="115" spans="2:28">
       <c r="B115" s="6"/>
       <c r="C115" s="29"/>
       <c r="D115" s="30"/>
-      <c r="E115" s="59" t="s">
+      <c r="E115" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="58" t="s">
+      <c r="F115" s="52" t="s">
         <v>49</v>
       </c>
       <c r="G115" s="28"/>
@@ -9443,20 +9444,20 @@
       <c r="AA115" s="30"/>
       <c r="AB115" s="35"/>
     </row>
-    <row r="116" spans="2:28" s="1" customFormat="1">
+    <row r="116" spans="2:28">
       <c r="B116" s="6"/>
       <c r="C116" s="29"/>
       <c r="D116" s="30"/>
       <c r="E116" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="65" t="s">
+      <c r="F116" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G116" s="63"/>
-      <c r="H116" s="64"/>
-      <c r="I116" s="64"/>
-      <c r="J116" s="64"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
       <c r="K116" s="30"/>
       <c r="L116" s="30"/>
       <c r="M116" s="30"/>
@@ -9476,14 +9477,14 @@
       <c r="AA116" s="30"/>
       <c r="AB116" s="35"/>
     </row>
-    <row r="117" spans="2:28" s="1" customFormat="1">
+    <row r="117" spans="2:28">
       <c r="B117" s="6"/>
       <c r="C117" s="29"/>
       <c r="D117" s="30"/>
-      <c r="E117" s="59" t="s">
+      <c r="E117" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F117" s="58" t="s">
+      <c r="F117" s="52" t="s">
         <v>51</v>
       </c>
       <c r="G117" s="28"/>
@@ -9509,20 +9510,20 @@
       <c r="AA117" s="30"/>
       <c r="AB117" s="35"/>
     </row>
-    <row r="118" spans="2:28" s="1" customFormat="1">
+    <row r="118" spans="2:28">
       <c r="B118" s="6"/>
       <c r="C118" s="29"/>
       <c r="D118" s="30"/>
       <c r="E118" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F118" s="65" t="s">
+      <c r="F118" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="63"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
       <c r="K118" s="30"/>
       <c r="L118" s="30"/>
       <c r="M118" s="30"/>
@@ -9542,14 +9543,14 @@
       <c r="AA118" s="30"/>
       <c r="AB118" s="35"/>
     </row>
-    <row r="119" spans="2:28" s="1" customFormat="1">
+    <row r="119" spans="2:28">
       <c r="B119" s="6"/>
       <c r="C119" s="29"/>
       <c r="D119" s="30"/>
-      <c r="E119" s="59" t="s">
+      <c r="E119" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F119" s="58" t="s">
+      <c r="F119" s="52" t="s">
         <v>53</v>
       </c>
       <c r="G119" s="28"/>
@@ -9575,25 +9576,25 @@
       <c r="AA119" s="30"/>
       <c r="AB119" s="35"/>
     </row>
-    <row r="120" spans="2:28" s="1" customFormat="1">
+    <row r="120" spans="2:28">
       <c r="B120" s="6"/>
       <c r="C120" s="29"/>
       <c r="D120" s="30"/>
       <c r="E120" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="65" t="s">
+      <c r="F120" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G120" s="63"/>
-      <c r="H120" s="64"/>
-      <c r="I120" s="64"/>
-      <c r="J120" s="64"/>
-      <c r="K120" s="64"/>
-      <c r="L120" s="64"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="64"/>
-      <c r="O120" s="64"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="58"/>
+      <c r="J120" s="58"/>
+      <c r="K120" s="58"/>
+      <c r="L120" s="58"/>
+      <c r="M120" s="58"/>
+      <c r="N120" s="58"/>
+      <c r="O120" s="58"/>
       <c r="P120" s="30"/>
       <c r="Q120" s="30"/>
       <c r="R120" s="30"/>
@@ -9608,7 +9609,7 @@
       <c r="AA120" s="30"/>
       <c r="AB120" s="35"/>
     </row>
-    <row r="121" spans="2:28" s="1" customFormat="1">
+    <row r="121" spans="2:28">
       <c r="B121" s="6"/>
       <c r="C121" s="29"/>
       <c r="D121" s="30"/>
@@ -9637,7 +9638,7 @@
       <c r="AA121" s="30"/>
       <c r="AB121" s="35"/>
     </row>
-    <row r="122" spans="2:28" s="1" customFormat="1">
+    <row r="122" spans="2:28">
       <c r="B122" s="6"/>
       <c r="C122" s="29"/>
       <c r="D122" s="30"/>
@@ -9666,7 +9667,7 @@
       <c r="AA122" s="30"/>
       <c r="AB122" s="35"/>
     </row>
-    <row r="123" spans="2:28" s="1" customFormat="1">
+    <row r="123" spans="2:28">
       <c r="B123" s="6"/>
       <c r="C123" s="29"/>
       <c r="D123" s="30"/>
@@ -9695,7 +9696,7 @@
       <c r="AA123" s="30"/>
       <c r="AB123" s="35"/>
     </row>
-    <row r="124" spans="2:28" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="124" spans="2:28" ht="15.75" thickBot="1">
       <c r="B124" s="38"/>
       <c r="C124" s="39"/>
       <c r="D124" s="40"/>

--- a/Training_Git.xlsx
+++ b/Training_Git.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$141</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">COMMAND!$A$1:$AC$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">COMMAND!$A$1:$AC$116</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="183">
   <si>
     <t>HƯỚNG DẪN SỬ DỤNG GIT VÀ GITHUB</t>
   </si>
@@ -517,6 +517,18 @@
     <t>So sánh vùng staged với commit cuối</t>
   </si>
   <si>
+    <t>git diff hash1 hash2</t>
+  </si>
+  <si>
+    <t>So sánh commit có mã hash1 với commit có mã hash2</t>
+  </si>
+  <si>
+    <t>git diff branch1 branch2</t>
+  </si>
+  <si>
+    <t>So sánh khác nhau giữa 2 branch1 với branch2</t>
+  </si>
+  <si>
     <t>git log</t>
   </si>
   <si>
@@ -566,6 +578,99 @@
   </si>
   <si>
     <t>Chuyển nội dung từ vùng staged vào thư mục làm việc hiện tai</t>
+  </si>
+  <si>
+    <t>GIT CLONE</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>Copy một repo từ máy remote về local</t>
+  </si>
+  <si>
+    <t>Copy một repo từ thư mục này sang thư mục khác</t>
+  </si>
+  <si>
+    <t>Copy một repo từ một Url (https) ví dụ github</t>
+  </si>
+  <si>
+    <t>Khi copy bình thường sẽ tự tạo ra một kết nối đến remote repo (origin)</t>
+  </si>
+  <si>
+    <t>git clone path-git</t>
+  </si>
+  <si>
+    <t>copy git-repo ở đường dẫn path-git sang vị trí khác</t>
+  </si>
+  <si>
+    <t>git clone path-git path-des</t>
+  </si>
+  <si>
+    <t>chỉ rõ địa chỉ của thư mục đích</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>GIT CHECKOUT - SWITCH</t>
+  </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>chuyển sang nhánh master</t>
+  </si>
+  <si>
+    <t>git checkout hash index.html</t>
+  </si>
+  <si>
+    <t>phục hồi file index.html về commit mã hash</t>
+  </si>
+  <si>
+    <t>git checkout index.html</t>
+  </si>
+  <si>
+    <t>phục hồi nội dung index.html từ staging (nếu không thì từ commit cuối)</t>
+  </si>
+  <si>
+    <t>git checkout -- *.html</t>
+  </si>
+  <si>
+    <t>phục hồi nội dung tất cá các file .html từ staging (nếu không thì từ commit cuối)</t>
+  </si>
+  <si>
+    <t>git checkout -- .</t>
+  </si>
+  <si>
+    <t>phục hồi tất cả các file từ staging (nếu không thì từ commit cuối)</t>
+  </si>
+  <si>
+    <t>git checkout hash</t>
+  </si>
+  <si>
+    <t>phục hồi tất cả các file về commit có mã hash</t>
+  </si>
+  <si>
+    <t>git switch master</t>
+  </si>
+  <si>
+    <t>git switch -c &lt;branchname&gt; &lt;hash&gt;</t>
+  </si>
+  <si>
+    <t>tạo nhánh mới, kích hoạt nhánh từ một commit có mã hash</t>
+  </si>
+  <si>
+    <t>git switch -c &lt;branchname&gt;</t>
+  </si>
+  <si>
+    <t>tạo nhánh mới từ commit cuối</t>
+  </si>
+  <si>
+    <t>git switch --detach &lt;hash&gt;</t>
+  </si>
+  <si>
+    <t>chuyển về làm việc tại nhánh tạm thời bắt đầu từ commit có mã hash</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1587,6 +1692,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1632,6 +1746,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1642,6 +1774,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2285,7 +2420,7 @@
   <sheetPr/>
   <dimension ref="B1:AB140"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" topLeftCell="A117" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2330,7 +2465,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="35"/>
+      <c r="AB1" s="38"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -2359,7 +2494,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="36"/>
+      <c r="AB2" s="39"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -2388,11 +2523,11 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="36"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="81" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -2421,7 +2556,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="37"/>
+      <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="11"/>
@@ -2450,12 +2585,12 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
-      <c r="AB5" s="38"/>
+      <c r="AB5" s="41"/>
     </row>
     <row r="6" ht="15.75" spans="2:28">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="58" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -2483,7 +2618,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="38"/>
+      <c r="AB6" s="41"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="11"/>
@@ -2512,11 +2647,11 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
-      <c r="AB7" s="38"/>
+      <c r="AB7" s="41"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:28">
       <c r="B8" s="8"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="81" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2545,7 +2680,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="37"/>
+      <c r="AB8" s="40"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="11"/>
@@ -2574,7 +2709,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
-      <c r="AB9" s="38"/>
+      <c r="AB9" s="41"/>
     </row>
     <row r="10" ht="15.75" spans="2:28">
       <c r="B10" s="11"/>
@@ -2607,7 +2742,7 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
-      <c r="AB10" s="38"/>
+      <c r="AB10" s="41"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="11"/>
@@ -2636,11 +2771,11 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
-      <c r="AB11" s="38"/>
+      <c r="AB11" s="41"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:28">
       <c r="B12" s="8"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="81" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2669,7 +2804,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="37"/>
+      <c r="AB12" s="40"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="11"/>
@@ -2698,12 +2833,12 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
-      <c r="AB13" s="38"/>
+      <c r="AB13" s="41"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="82" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -2731,13 +2866,13 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
-      <c r="AB14" s="38"/>
+      <c r="AB14" s="41"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="19"/>
@@ -2762,13 +2897,13 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
-      <c r="AB15" s="38"/>
+      <c r="AB15" s="41"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="60" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="24" t="s">
@@ -2780,7 +2915,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -2795,7 +2930,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
-      <c r="AB16" s="38"/>
+      <c r="AB16" s="41"/>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="11"/>
@@ -2813,7 +2948,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
-      <c r="M17" s="30"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
@@ -2828,7 +2963,7 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
-      <c r="AB17" s="38"/>
+      <c r="AB17" s="41"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="11"/>
@@ -2846,7 +2981,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
-      <c r="M18" s="30"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
@@ -2861,7 +2996,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
-      <c r="AB18" s="38"/>
+      <c r="AB18" s="41"/>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="11"/>
@@ -2890,12 +3025,12 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
-      <c r="AB19" s="38"/>
+      <c r="AB19" s="41"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="82" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -2923,23 +3058,23 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
-      <c r="AB20" s="38"/>
+      <c r="AB20" s="41"/>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
-      <c r="M21" s="30"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
@@ -2954,21 +3089,21 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
-      <c r="AB21" s="38"/>
+      <c r="AB21" s="41"/>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="30"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
@@ -2983,21 +3118,21 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="38"/>
+      <c r="AB22" s="41"/>
     </row>
     <row r="23" spans="2:28">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="30"/>
+      <c r="M23" s="33"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
@@ -3012,21 +3147,21 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="38"/>
+      <c r="AB23" s="41"/>
     </row>
     <row r="24" spans="2:28">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="30"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
@@ -3041,21 +3176,21 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
-      <c r="AB24" s="38"/>
+      <c r="AB24" s="41"/>
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
-      <c r="M25" s="30"/>
+      <c r="M25" s="33"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
@@ -3070,21 +3205,21 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
-      <c r="AB25" s="38"/>
+      <c r="AB25" s="41"/>
     </row>
     <row r="26" spans="2:28">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="30"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
@@ -3099,21 +3234,21 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
-      <c r="AB26" s="38"/>
+      <c r="AB26" s="41"/>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
-      <c r="M27" s="30"/>
+      <c r="M27" s="33"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
@@ -3128,21 +3263,21 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="38"/>
+      <c r="AB27" s="41"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="30"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -3157,21 +3292,21 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
-      <c r="AB28" s="38"/>
+      <c r="AB28" s="41"/>
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
-      <c r="M29" s="30"/>
+      <c r="M29" s="33"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
@@ -3186,21 +3321,21 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="38"/>
+      <c r="AB29" s="41"/>
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
-      <c r="M30" s="30"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
@@ -3215,21 +3350,21 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
-      <c r="AB30" s="38"/>
+      <c r="AB30" s="41"/>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
-      <c r="M31" s="30"/>
+      <c r="M31" s="33"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -3244,21 +3379,21 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
-      <c r="AB31" s="38"/>
+      <c r="AB31" s="41"/>
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
-      <c r="M32" s="30"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -3273,21 +3408,21 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
-      <c r="AB32" s="38"/>
+      <c r="AB32" s="41"/>
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
-      <c r="M33" s="30"/>
+      <c r="M33" s="33"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
@@ -3302,12 +3437,12 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="38"/>
+      <c r="AB33" s="41"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="51"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="25"/>
@@ -3316,7 +3451,7 @@
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="30"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
@@ -3331,12 +3466,12 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AB34" s="38"/>
+      <c r="AB34" s="41"/>
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="54"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="25"/>
@@ -3345,7 +3480,7 @@
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
-      <c r="M35" s="30"/>
+      <c r="M35" s="33"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
@@ -3360,13 +3495,13 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
-      <c r="AB35" s="38"/>
+      <c r="AB35" s="41"/>
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52" t="s">
+      <c r="D36" s="61"/>
+      <c r="E36" s="62" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="13"/>
@@ -3391,12 +3526,12 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
-      <c r="AB36" s="38"/>
+      <c r="AB36" s="41"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="51"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="27"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -3420,12 +3555,12 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
-      <c r="AB37" s="38"/>
+      <c r="AB37" s="41"/>
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="51"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="27"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -3449,12 +3584,12 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
-      <c r="AB38" s="38"/>
+      <c r="AB38" s="41"/>
     </row>
     <row r="39" spans="2:28">
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="51"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="27"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -3478,12 +3613,12 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
-      <c r="AB39" s="38"/>
+      <c r="AB39" s="41"/>
     </row>
     <row r="40" spans="2:28">
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="51"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="27"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -3507,12 +3642,12 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
-      <c r="AB40" s="38"/>
+      <c r="AB40" s="41"/>
     </row>
     <row r="41" spans="2:28">
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="51"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="27"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -3536,12 +3671,12 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
-      <c r="AB41" s="38"/>
+      <c r="AB41" s="41"/>
     </row>
     <row r="42" spans="2:28">
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="51"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="27"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -3565,12 +3700,12 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
-      <c r="AB42" s="38"/>
+      <c r="AB42" s="41"/>
     </row>
     <row r="43" spans="2:28">
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="51"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="27"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -3594,12 +3729,12 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
-      <c r="AB43" s="38"/>
+      <c r="AB43" s="41"/>
     </row>
     <row r="44" spans="2:28">
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="51"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="27"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -3623,12 +3758,12 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
-      <c r="AB44" s="38"/>
+      <c r="AB44" s="41"/>
     </row>
     <row r="45" spans="2:28">
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="51"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="27"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -3652,12 +3787,12 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
-      <c r="AB45" s="38"/>
+      <c r="AB45" s="41"/>
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="51"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="27"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -3681,12 +3816,12 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
-      <c r="AB46" s="38"/>
+      <c r="AB46" s="41"/>
     </row>
     <row r="47" spans="2:28">
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="51"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="27"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -3710,12 +3845,12 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
-      <c r="AB47" s="38"/>
+      <c r="AB47" s="41"/>
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="51"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="27"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -3739,12 +3874,12 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="38"/>
+      <c r="AB48" s="41"/>
     </row>
     <row r="49" spans="2:28">
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="54"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="27"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -3768,13 +3903,13 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
-      <c r="AB49" s="38"/>
+      <c r="AB49" s="41"/>
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52" t="s">
+      <c r="D50" s="61"/>
+      <c r="E50" s="62" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="13"/>
@@ -3799,12 +3934,12 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
-      <c r="AB50" s="38"/>
+      <c r="AB50" s="41"/>
     </row>
     <row r="51" spans="2:28">
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
-      <c r="D51" s="51"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="27"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -3828,12 +3963,12 @@
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
-      <c r="AB51" s="38"/>
+      <c r="AB51" s="41"/>
     </row>
     <row r="52" spans="2:28">
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="51"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="27"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -3857,12 +3992,12 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
-      <c r="AB52" s="38"/>
+      <c r="AB52" s="41"/>
     </row>
     <row r="53" spans="2:28">
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="51"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="27"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -3886,12 +4021,12 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
-      <c r="AB53" s="38"/>
+      <c r="AB53" s="41"/>
     </row>
     <row r="54" spans="2:28">
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="51"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="27"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -3915,12 +4050,12 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
-      <c r="AB54" s="38"/>
+      <c r="AB54" s="41"/>
     </row>
     <row r="55" spans="2:28">
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="51"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="27"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -3944,12 +4079,12 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
-      <c r="AB55" s="38"/>
+      <c r="AB55" s="41"/>
     </row>
     <row r="56" spans="2:28">
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="27"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -3973,12 +4108,12 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
-      <c r="AB56" s="38"/>
+      <c r="AB56" s="41"/>
     </row>
     <row r="57" spans="2:28">
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="51"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="27"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -4002,12 +4137,12 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
-      <c r="AB57" s="38"/>
+      <c r="AB57" s="41"/>
     </row>
     <row r="58" spans="2:28">
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="51"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="27"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -4031,12 +4166,12 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
-      <c r="AB58" s="38"/>
+      <c r="AB58" s="41"/>
     </row>
     <row r="59" spans="2:28">
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="51"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="27"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -4060,12 +4195,12 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
-      <c r="AB59" s="38"/>
+      <c r="AB59" s="41"/>
     </row>
     <row r="60" spans="2:28">
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="51"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="27"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -4089,12 +4224,12 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
-      <c r="AB60" s="38"/>
+      <c r="AB60" s="41"/>
     </row>
     <row r="61" spans="2:28">
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="51"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="27"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -4118,12 +4253,12 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
-      <c r="AB61" s="38"/>
+      <c r="AB61" s="41"/>
     </row>
     <row r="62" spans="2:28">
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="51"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="27"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
@@ -4147,12 +4282,12 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
-      <c r="AB62" s="38"/>
+      <c r="AB62" s="41"/>
     </row>
     <row r="63" spans="2:28">
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="51"/>
+      <c r="D63" s="61"/>
       <c r="E63" s="27"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
@@ -4176,12 +4311,12 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
-      <c r="AB63" s="38"/>
+      <c r="AB63" s="41"/>
     </row>
     <row r="64" spans="2:28">
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="51"/>
+      <c r="D64" s="61"/>
       <c r="E64" s="27"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
@@ -4205,12 +4340,12 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
-      <c r="AB64" s="38"/>
+      <c r="AB64" s="41"/>
     </row>
     <row r="65" spans="2:28">
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="51"/>
+      <c r="D65" s="61"/>
       <c r="E65" s="27"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
@@ -4234,12 +4369,12 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
-      <c r="AB65" s="38"/>
+      <c r="AB65" s="41"/>
     </row>
     <row r="66" spans="2:28">
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="51"/>
+      <c r="D66" s="61"/>
       <c r="E66" s="27"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
@@ -4263,12 +4398,12 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
-      <c r="AB66" s="38"/>
+      <c r="AB66" s="41"/>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="51"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="27"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
@@ -4292,12 +4427,12 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
       <c r="AA67" s="13"/>
-      <c r="AB67" s="38"/>
+      <c r="AB67" s="41"/>
     </row>
     <row r="68" spans="2:28">
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="51"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="27"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
@@ -4321,12 +4456,12 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
-      <c r="AB68" s="38"/>
+      <c r="AB68" s="41"/>
     </row>
     <row r="69" spans="2:28">
       <c r="B69" s="11"/>
       <c r="C69" s="12"/>
-      <c r="D69" s="51"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="27"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
@@ -4350,12 +4485,12 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
       <c r="AA69" s="13"/>
-      <c r="AB69" s="38"/>
+      <c r="AB69" s="41"/>
     </row>
     <row r="70" spans="2:28">
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
-      <c r="D70" s="51"/>
+      <c r="D70" s="61"/>
       <c r="E70" s="27"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
@@ -4379,12 +4514,12 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="13"/>
-      <c r="AB70" s="38"/>
+      <c r="AB70" s="41"/>
     </row>
     <row r="71" spans="2:28">
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="54"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="27"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -4408,7 +4543,7 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
       <c r="AA71" s="13"/>
-      <c r="AB71" s="38"/>
+      <c r="AB71" s="41"/>
     </row>
     <row r="72" spans="2:28">
       <c r="B72" s="11"/>
@@ -4437,7 +4572,7 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="13"/>
-      <c r="AB72" s="38"/>
+      <c r="AB72" s="41"/>
     </row>
     <row r="73" spans="2:28">
       <c r="B73" s="11"/>
@@ -4466,11 +4601,11 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
-      <c r="AB73" s="38"/>
+      <c r="AB73" s="41"/>
     </row>
     <row r="74" ht="20.1" customHeight="1" spans="2:28">
       <c r="B74" s="8"/>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="81" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="10" t="s">
@@ -4499,7 +4634,7 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
-      <c r="AB74" s="37"/>
+      <c r="AB74" s="40"/>
     </row>
     <row r="75" spans="2:28">
       <c r="B75" s="11"/>
@@ -4528,12 +4663,12 @@
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
       <c r="AA75" s="13"/>
-      <c r="AB75" s="38"/>
+      <c r="AB75" s="41"/>
     </row>
     <row r="76" spans="2:28">
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
-      <c r="D76" s="72" t="s">
+      <c r="D76" s="82" t="s">
         <v>26</v>
       </c>
       <c r="E76" s="27" t="s">
@@ -4561,16 +4696,16 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
       <c r="AA76" s="13"/>
-      <c r="AB76" s="38"/>
+      <c r="AB76" s="41"/>
     </row>
     <row r="77" spans="2:28">
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="43" t="s">
         <v>28</v>
       </c>
       <c r="G77" s="13"/>
@@ -4594,13 +4729,13 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
       <c r="AA77" s="13"/>
-      <c r="AB77" s="38"/>
+      <c r="AB77" s="41"/>
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="13" t="s">
@@ -4627,13 +4762,13 @@
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
       <c r="AA78" s="13"/>
-      <c r="AB78" s="38"/>
+      <c r="AB78" s="41"/>
     </row>
     <row r="79" spans="2:28">
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="13" t="s">
@@ -4660,19 +4795,19 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
       <c r="AA79" s="13"/>
-      <c r="AB79" s="38"/>
+      <c r="AB79" s="41"/>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="41" t="s">
+      <c r="E80" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="42"/>
+      <c r="G80" s="45"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -4685,27 +4820,27 @@
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
       <c r="V80" s="13"/>
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
       <c r="AA80" s="13"/>
-      <c r="AB80" s="38"/>
+      <c r="AB80" s="41"/>
     </row>
     <row r="81" spans="2:28">
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="40" t="s">
+      <c r="F81" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G81" s="42"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -4718,27 +4853,27 @@
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
       <c r="V81" s="13"/>
       <c r="W81" s="13"/>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
       <c r="AA81" s="13"/>
-      <c r="AB81" s="38"/>
+      <c r="AB81" s="41"/>
     </row>
     <row r="82" spans="2:28">
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="27"/>
-      <c r="E82" s="39" t="s">
+      <c r="E82" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="40" t="s">
+      <c r="F82" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G82" s="42"/>
+      <c r="G82" s="45"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
@@ -4751,27 +4886,27 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="46"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
       <c r="V82" s="13"/>
       <c r="W82" s="13"/>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
       <c r="AA82" s="13"/>
-      <c r="AB82" s="38"/>
+      <c r="AB82" s="41"/>
     </row>
     <row r="83" spans="2:28">
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="F83" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G83" s="42"/>
+      <c r="G83" s="45"/>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -4784,27 +4919,27 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="46"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
       <c r="V83" s="13"/>
       <c r="W83" s="13"/>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="13"/>
-      <c r="AB83" s="38"/>
+      <c r="AB83" s="41"/>
     </row>
     <row r="84" spans="2:28">
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="42"/>
+      <c r="G84" s="45"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -4825,15 +4960,15 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="13"/>
-      <c r="AB84" s="38"/>
+      <c r="AB84" s="41"/>
     </row>
     <row r="85" spans="2:28">
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="13"/>
-      <c r="G85" s="42"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -4854,15 +4989,15 @@
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
       <c r="AA85" s="13"/>
-      <c r="AB85" s="38"/>
+      <c r="AB85" s="41"/>
     </row>
     <row r="86" spans="2:28">
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="55" t="s">
+      <c r="E86" s="65" t="s">
         <v>37</v>
       </c>
       <c r="F86" s="13"/>
@@ -4887,16 +5022,16 @@
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
       <c r="AA86" s="13"/>
-      <c r="AB86" s="38"/>
+      <c r="AB86" s="41"/>
     </row>
     <row r="87" spans="2:28">
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="13"/>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="57" t="s">
+      <c r="F87" s="67" t="s">
         <v>38</v>
       </c>
       <c r="G87" s="13"/>
@@ -4920,16 +5055,16 @@
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
       <c r="AA87" s="13"/>
-      <c r="AB87" s="38"/>
+      <c r="AB87" s="41"/>
     </row>
     <row r="88" spans="2:28">
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
-      <c r="E88" s="41" t="s">
+      <c r="E88" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="58" t="s">
+      <c r="F88" s="68" t="s">
         <v>39</v>
       </c>
       <c r="G88" s="13"/>
@@ -4953,40 +5088,40 @@
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
       <c r="AA88" s="13"/>
-      <c r="AB88" s="38"/>
+      <c r="AB88" s="41"/>
     </row>
     <row r="89" spans="2:28">
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13"/>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="57" t="s">
+      <c r="F89" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G89" s="59"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="60"/>
-      <c r="P89" s="60"/>
-      <c r="Q89" s="60"/>
-      <c r="R89" s="60"/>
-      <c r="S89" s="60"/>
-      <c r="T89" s="60"/>
-      <c r="U89" s="60"/>
-      <c r="V89" s="60"/>
-      <c r="W89" s="60"/>
-      <c r="X89" s="60"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="70"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
       <c r="AA89" s="13"/>
-      <c r="AB89" s="38"/>
+      <c r="AB89" s="41"/>
     </row>
     <row r="90" spans="2:28">
       <c r="B90" s="11"/>
@@ -4995,40 +5130,40 @@
       <c r="E90" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="58" t="s">
+      <c r="F90" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G90" s="59"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="60"/>
-      <c r="P90" s="60"/>
-      <c r="Q90" s="60"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="60"/>
-      <c r="T90" s="60"/>
-      <c r="U90" s="60"/>
-      <c r="V90" s="60"/>
-      <c r="W90" s="60"/>
-      <c r="X90" s="60"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="70"/>
+      <c r="R90" s="70"/>
+      <c r="S90" s="70"/>
+      <c r="T90" s="70"/>
+      <c r="U90" s="70"/>
+      <c r="V90" s="70"/>
+      <c r="W90" s="70"/>
+      <c r="X90" s="70"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
       <c r="AA90" s="13"/>
-      <c r="AB90" s="38"/>
+      <c r="AB90" s="41"/>
     </row>
     <row r="91" spans="2:28">
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="57" t="s">
+      <c r="F91" s="67" t="s">
         <v>42</v>
       </c>
       <c r="G91" s="13"/>
@@ -5044,15 +5179,15 @@
       <c r="Q91" s="13"/>
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="46"/>
+      <c r="T91" s="55"/>
+      <c r="U91" s="55"/>
       <c r="V91" s="13"/>
       <c r="W91" s="13"/>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
       <c r="AA91" s="13"/>
-      <c r="AB91" s="38"/>
+      <c r="AB91" s="41"/>
     </row>
     <row r="92" spans="2:28">
       <c r="B92" s="11"/>
@@ -5061,7 +5196,7 @@
       <c r="E92" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="58" t="s">
+      <c r="F92" s="68" t="s">
         <v>43</v>
       </c>
       <c r="G92" s="13"/>
@@ -5085,7 +5220,7 @@
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
       <c r="AA92" s="13"/>
-      <c r="AB92" s="38"/>
+      <c r="AB92" s="41"/>
     </row>
     <row r="93" spans="2:28">
       <c r="B93" s="11"/>
@@ -5093,7 +5228,7 @@
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
-      <c r="G93" s="42"/>
+      <c r="G93" s="45"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -5106,15 +5241,15 @@
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="46"/>
+      <c r="T93" s="55"/>
+      <c r="U93" s="55"/>
       <c r="V93" s="13"/>
       <c r="W93" s="13"/>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
       <c r="AA93" s="13"/>
-      <c r="AB93" s="38"/>
+      <c r="AB93" s="41"/>
     </row>
     <row r="94" spans="2:28">
       <c r="B94" s="11"/>
@@ -5135,15 +5270,15 @@
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="46"/>
+      <c r="T94" s="55"/>
+      <c r="U94" s="55"/>
       <c r="V94" s="13"/>
       <c r="W94" s="13"/>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
       <c r="AA94" s="13"/>
-      <c r="AB94" s="38"/>
+      <c r="AB94" s="41"/>
     </row>
     <row r="95" spans="2:28">
       <c r="B95" s="11"/>
@@ -5172,7 +5307,7 @@
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
       <c r="AA95" s="13"/>
-      <c r="AB95" s="38"/>
+      <c r="AB95" s="41"/>
     </row>
     <row r="96" spans="2:28">
       <c r="B96" s="11"/>
@@ -5180,7 +5315,7 @@
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
-      <c r="G96" s="42"/>
+      <c r="G96" s="45"/>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -5193,15 +5328,15 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="46"/>
+      <c r="T96" s="55"/>
+      <c r="U96" s="55"/>
       <c r="V96" s="13"/>
       <c r="W96" s="13"/>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
       <c r="AA96" s="13"/>
-      <c r="AB96" s="38"/>
+      <c r="AB96" s="41"/>
     </row>
     <row r="97" spans="2:28">
       <c r="B97" s="11"/>
@@ -5230,7 +5365,7 @@
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
       <c r="AA97" s="13"/>
-      <c r="AB97" s="38"/>
+      <c r="AB97" s="41"/>
     </row>
     <row r="98" spans="2:28">
       <c r="B98" s="11"/>
@@ -5259,7 +5394,7 @@
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
       <c r="AA98" s="13"/>
-      <c r="AB98" s="38"/>
+      <c r="AB98" s="41"/>
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="11"/>
@@ -5267,7 +5402,7 @@
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
-      <c r="G99" s="42"/>
+      <c r="G99" s="45"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -5280,15 +5415,15 @@
       <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="46"/>
+      <c r="T99" s="55"/>
+      <c r="U99" s="55"/>
       <c r="V99" s="13"/>
       <c r="W99" s="13"/>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
       <c r="AA99" s="13"/>
-      <c r="AB99" s="38"/>
+      <c r="AB99" s="41"/>
     </row>
     <row r="100" spans="2:28">
       <c r="B100" s="11"/>
@@ -5317,7 +5452,7 @@
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
       <c r="AA100" s="13"/>
-      <c r="AB100" s="38"/>
+      <c r="AB100" s="41"/>
     </row>
     <row r="101" spans="2:28">
       <c r="B101" s="11"/>
@@ -5346,7 +5481,7 @@
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
       <c r="AA101" s="13"/>
-      <c r="AB101" s="38"/>
+      <c r="AB101" s="41"/>
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="11"/>
@@ -5354,7 +5489,7 @@
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
-      <c r="G102" s="42"/>
+      <c r="G102" s="45"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -5367,15 +5502,15 @@
       <c r="Q102" s="13"/>
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
-      <c r="T102" s="46"/>
-      <c r="U102" s="46"/>
+      <c r="T102" s="55"/>
+      <c r="U102" s="55"/>
       <c r="V102" s="13"/>
       <c r="W102" s="13"/>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
       <c r="AA102" s="13"/>
-      <c r="AB102" s="38"/>
+      <c r="AB102" s="41"/>
     </row>
     <row r="103" spans="2:28">
       <c r="B103" s="11"/>
@@ -5404,7 +5539,7 @@
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
       <c r="AA103" s="13"/>
-      <c r="AB103" s="38"/>
+      <c r="AB103" s="41"/>
     </row>
     <row r="104" spans="2:28">
       <c r="B104" s="11"/>
@@ -5425,15 +5560,15 @@
       <c r="Q104" s="13"/>
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="46"/>
+      <c r="T104" s="55"/>
+      <c r="U104" s="55"/>
       <c r="V104" s="13"/>
       <c r="W104" s="13"/>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
       <c r="AA104" s="13"/>
-      <c r="AB104" s="38"/>
+      <c r="AB104" s="41"/>
     </row>
     <row r="105" spans="2:28">
       <c r="B105" s="11"/>
@@ -5441,7 +5576,7 @@
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="42"/>
+      <c r="G105" s="45"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
@@ -5454,15 +5589,15 @@
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
-      <c r="T105" s="46"/>
-      <c r="U105" s="46"/>
+      <c r="T105" s="55"/>
+      <c r="U105" s="55"/>
       <c r="V105" s="13"/>
       <c r="W105" s="13"/>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
       <c r="AA105" s="13"/>
-      <c r="AB105" s="38"/>
+      <c r="AB105" s="41"/>
     </row>
     <row r="106" spans="2:28">
       <c r="B106" s="11"/>
@@ -5491,7 +5626,7 @@
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
       <c r="AA106" s="13"/>
-      <c r="AB106" s="38"/>
+      <c r="AB106" s="41"/>
     </row>
     <row r="107" spans="2:28">
       <c r="B107" s="11"/>
@@ -5512,15 +5647,15 @@
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
-      <c r="T107" s="46"/>
-      <c r="U107" s="46"/>
+      <c r="T107" s="55"/>
+      <c r="U107" s="55"/>
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
-      <c r="AB107" s="38"/>
+      <c r="AB107" s="41"/>
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="11"/>
@@ -5528,7 +5663,7 @@
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
-      <c r="G108" s="42"/>
+      <c r="G108" s="45"/>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
@@ -5541,27 +5676,27 @@
       <c r="Q108" s="13"/>
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
-      <c r="T108" s="46"/>
-      <c r="U108" s="46"/>
+      <c r="T108" s="55"/>
+      <c r="U108" s="55"/>
       <c r="V108" s="13"/>
       <c r="W108" s="13"/>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
       <c r="AA108" s="13"/>
-      <c r="AB108" s="38"/>
+      <c r="AB108" s="41"/>
     </row>
     <row r="109" spans="2:28">
       <c r="B109" s="11"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="73" t="s">
+      <c r="D109" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E109" s="55" t="s">
+      <c r="E109" s="65" t="s">
         <v>45</v>
       </c>
       <c r="F109" s="13"/>
-      <c r="G109" s="42"/>
+      <c r="G109" s="45"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
@@ -5574,27 +5709,27 @@
       <c r="Q109" s="13"/>
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
-      <c r="T109" s="46"/>
-      <c r="U109" s="46"/>
+      <c r="T109" s="55"/>
+      <c r="U109" s="55"/>
       <c r="V109" s="13"/>
       <c r="W109" s="13"/>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
       <c r="AA109" s="13"/>
-      <c r="AB109" s="38"/>
+      <c r="AB109" s="41"/>
     </row>
     <row r="110" spans="2:28">
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13"/>
-      <c r="E110" s="56" t="s">
+      <c r="E110" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F110" s="57" t="s">
+      <c r="F110" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="42"/>
+      <c r="G110" s="45"/>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
@@ -5607,15 +5742,15 @@
       <c r="Q110" s="13"/>
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
-      <c r="T110" s="46"/>
-      <c r="U110" s="46"/>
+      <c r="T110" s="55"/>
+      <c r="U110" s="55"/>
       <c r="V110" s="13"/>
       <c r="W110" s="13"/>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
       <c r="AA110" s="13"/>
-      <c r="AB110" s="38"/>
+      <c r="AB110" s="41"/>
     </row>
     <row r="111" spans="2:28">
       <c r="B111" s="11"/>
@@ -5624,13 +5759,13 @@
       <c r="E111" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="61" t="s">
+      <c r="F111" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="63"/>
-      <c r="J111" s="63"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
@@ -5640,27 +5775,27 @@
       <c r="Q111" s="13"/>
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
-      <c r="T111" s="46"/>
-      <c r="U111" s="46"/>
+      <c r="T111" s="55"/>
+      <c r="U111" s="55"/>
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
       <c r="AA111" s="13"/>
-      <c r="AB111" s="38"/>
+      <c r="AB111" s="41"/>
     </row>
     <row r="112" spans="2:28">
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
-      <c r="E112" s="56" t="s">
+      <c r="E112" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="57" t="s">
+      <c r="F112" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G112" s="42"/>
+      <c r="G112" s="45"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
@@ -5673,30 +5808,30 @@
       <c r="Q112" s="13"/>
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
-      <c r="T112" s="46"/>
-      <c r="U112" s="46"/>
+      <c r="T112" s="55"/>
+      <c r="U112" s="55"/>
       <c r="V112" s="13"/>
       <c r="W112" s="13"/>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
       <c r="AA112" s="13"/>
-      <c r="AB112" s="38"/>
+      <c r="AB112" s="41"/>
     </row>
     <row r="113" spans="2:28">
       <c r="B113" s="11"/>
       <c r="C113" s="12"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="41" t="s">
+      <c r="E113" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="61" t="s">
+      <c r="F113" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="63"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
@@ -5706,27 +5841,27 @@
       <c r="Q113" s="13"/>
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
-      <c r="T113" s="46"/>
-      <c r="U113" s="46"/>
+      <c r="T113" s="55"/>
+      <c r="U113" s="55"/>
       <c r="V113" s="13"/>
       <c r="W113" s="13"/>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
       <c r="AA113" s="13"/>
-      <c r="AB113" s="38"/>
+      <c r="AB113" s="41"/>
     </row>
     <row r="114" spans="2:28">
       <c r="B114" s="11"/>
       <c r="C114" s="12"/>
       <c r="D114" s="13"/>
-      <c r="E114" s="56" t="s">
+      <c r="E114" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F114" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G114" s="42"/>
+      <c r="G114" s="45"/>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
@@ -5739,30 +5874,30 @@
       <c r="Q114" s="13"/>
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
-      <c r="T114" s="46"/>
-      <c r="U114" s="46"/>
+      <c r="T114" s="55"/>
+      <c r="U114" s="55"/>
       <c r="V114" s="13"/>
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
       <c r="AA114" s="13"/>
-      <c r="AB114" s="38"/>
+      <c r="AB114" s="41"/>
     </row>
     <row r="115" spans="2:28">
       <c r="B115" s="11"/>
       <c r="C115" s="12"/>
       <c r="D115" s="13"/>
-      <c r="E115" s="41" t="s">
+      <c r="E115" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="61" t="s">
+      <c r="F115" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="G115" s="62"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="63"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="73"/>
+      <c r="I115" s="73"/>
+      <c r="J115" s="73"/>
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
       <c r="M115" s="13"/>
@@ -5772,27 +5907,27 @@
       <c r="Q115" s="13"/>
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
-      <c r="T115" s="46"/>
-      <c r="U115" s="46"/>
+      <c r="T115" s="55"/>
+      <c r="U115" s="55"/>
       <c r="V115" s="13"/>
       <c r="W115" s="13"/>
       <c r="X115" s="13"/>
       <c r="Y115" s="13"/>
       <c r="Z115" s="13"/>
       <c r="AA115" s="13"/>
-      <c r="AB115" s="38"/>
+      <c r="AB115" s="41"/>
     </row>
     <row r="116" spans="2:28">
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="13"/>
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F116" s="57" t="s">
+      <c r="F116" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G116" s="42"/>
+      <c r="G116" s="45"/>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
@@ -5805,77 +5940,77 @@
       <c r="Q116" s="13"/>
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
-      <c r="T116" s="46"/>
-      <c r="U116" s="46"/>
+      <c r="T116" s="55"/>
+      <c r="U116" s="55"/>
       <c r="V116" s="13"/>
       <c r="W116" s="13"/>
       <c r="X116" s="13"/>
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
       <c r="AA116" s="13"/>
-      <c r="AB116" s="38"/>
+      <c r="AB116" s="41"/>
     </row>
     <row r="117" spans="2:28">
       <c r="B117" s="11"/>
       <c r="C117" s="12"/>
       <c r="D117" s="13"/>
-      <c r="E117" s="41" t="s">
+      <c r="E117" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="61" t="s">
+      <c r="F117" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G117" s="62"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="63"/>
-      <c r="J117" s="63"/>
-      <c r="K117" s="63"/>
-      <c r="L117" s="63"/>
-      <c r="M117" s="63"/>
-      <c r="N117" s="63"/>
-      <c r="O117" s="63"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="73"/>
+      <c r="J117" s="73"/>
+      <c r="K117" s="73"/>
+      <c r="L117" s="73"/>
+      <c r="M117" s="73"/>
+      <c r="N117" s="73"/>
+      <c r="O117" s="73"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
-      <c r="T117" s="46"/>
-      <c r="U117" s="46"/>
+      <c r="T117" s="55"/>
+      <c r="U117" s="55"/>
       <c r="V117" s="13"/>
       <c r="W117" s="13"/>
       <c r="X117" s="13"/>
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="13"/>
-      <c r="AB117" s="38"/>
+      <c r="AB117" s="41"/>
     </row>
     <row r="118" spans="2:28">
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="66"/>
-      <c r="L118" s="66"/>
-      <c r="M118" s="66"/>
-      <c r="N118" s="66"/>
-      <c r="O118" s="66"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="75"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="76"/>
+      <c r="J118" s="76"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="76"/>
+      <c r="M118" s="76"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="76"/>
       <c r="P118" s="13"/>
       <c r="Q118" s="13"/>
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
-      <c r="T118" s="46"/>
-      <c r="U118" s="46"/>
+      <c r="T118" s="55"/>
+      <c r="U118" s="55"/>
       <c r="V118" s="13"/>
       <c r="W118" s="13"/>
       <c r="X118" s="13"/>
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="13"/>
-      <c r="AB118" s="38"/>
+      <c r="AB118" s="41"/>
     </row>
     <row r="119" spans="2:28">
       <c r="B119" s="11"/>
@@ -5883,7 +6018,7 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
-      <c r="G119" s="42"/>
+      <c r="G119" s="45"/>
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
@@ -5896,19 +6031,19 @@
       <c r="Q119" s="13"/>
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
-      <c r="T119" s="46"/>
-      <c r="U119" s="46"/>
+      <c r="T119" s="55"/>
+      <c r="U119" s="55"/>
       <c r="V119" s="13"/>
       <c r="W119" s="13"/>
       <c r="X119" s="13"/>
       <c r="Y119" s="13"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="13"/>
-      <c r="AB119" s="38"/>
+      <c r="AB119" s="41"/>
     </row>
     <row r="120" ht="20.1" customHeight="1" spans="2:28">
       <c r="B120" s="8"/>
-      <c r="C120" s="74" t="s">
+      <c r="C120" s="84" t="s">
         <v>54</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -5937,7 +6072,7 @@
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
-      <c r="AB120" s="37"/>
+      <c r="AB120" s="40"/>
     </row>
     <row r="121" spans="2:28">
       <c r="B121" s="11"/>
@@ -5966,15 +6101,15 @@
       <c r="Y121" s="13"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="13"/>
-      <c r="AB121" s="38"/>
+      <c r="AB121" s="41"/>
     </row>
     <row r="122" spans="2:28">
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
-      <c r="D122" s="73" t="s">
+      <c r="D122" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E122" s="55" t="s">
+      <c r="E122" s="65" t="s">
         <v>57</v>
       </c>
       <c r="F122" s="13"/>
@@ -5999,13 +6134,13 @@
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="13"/>
-      <c r="AB122" s="38"/>
+      <c r="AB122" s="41"/>
     </row>
     <row r="123" spans="2:28">
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="57" t="s">
+      <c r="D123" s="65"/>
+      <c r="E123" s="67" t="s">
         <v>58</v>
       </c>
       <c r="F123" s="13"/>
@@ -6030,13 +6165,13 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="13"/>
-      <c r="AB123" s="38"/>
+      <c r="AB123" s="41"/>
     </row>
     <row r="124" spans="2:28">
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="58" t="s">
+      <c r="D124" s="77"/>
+      <c r="E124" s="68" t="s">
         <v>59</v>
       </c>
       <c r="F124" s="13"/>
@@ -6051,7 +6186,7 @@
       <c r="O124" s="13"/>
       <c r="P124" s="13"/>
       <c r="Q124" s="13"/>
-      <c r="R124" s="67"/>
+      <c r="R124" s="77"/>
       <c r="S124" s="23" t="s">
         <v>16</v>
       </c>
@@ -6065,13 +6200,13 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="13"/>
-      <c r="AB124" s="38"/>
+      <c r="AB124" s="41"/>
     </row>
     <row r="125" spans="2:28">
       <c r="B125" s="11"/>
       <c r="C125" s="12"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="58" t="s">
+      <c r="D125" s="77"/>
+      <c r="E125" s="68" t="s">
         <v>61</v>
       </c>
       <c r="F125" s="13"/>
@@ -6096,17 +6231,17 @@
       <c r="Y125" s="13"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="13"/>
-      <c r="AB125" s="38"/>
+      <c r="AB125" s="41"/>
     </row>
     <row r="126" spans="2:28">
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="68" t="s">
+      <c r="E126" s="77"/>
+      <c r="F126" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="69" t="s">
+      <c r="G126" s="79" t="s">
         <v>62</v>
       </c>
       <c r="H126" s="13"/>
@@ -6129,17 +6264,17 @@
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="13"/>
-      <c r="AB126" s="38"/>
+      <c r="AB126" s="41"/>
     </row>
     <row r="127" spans="2:28">
       <c r="B127" s="11"/>
       <c r="C127" s="12"/>
       <c r="D127" s="13"/>
-      <c r="E127" s="67"/>
+      <c r="E127" s="77"/>
       <c r="F127" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="G127" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H127" s="13"/>
@@ -6162,13 +6297,13 @@
       <c r="Y127" s="13"/>
       <c r="Z127" s="13"/>
       <c r="AA127" s="13"/>
-      <c r="AB127" s="38"/>
+      <c r="AB127" s="41"/>
     </row>
     <row r="128" spans="2:28">
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13"/>
-      <c r="E128" s="67"/>
+      <c r="E128" s="77"/>
       <c r="F128" s="23" t="s">
         <v>16</v>
       </c>
@@ -6195,17 +6330,17 @@
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
       <c r="AA128" s="13"/>
-      <c r="AB128" s="38"/>
+      <c r="AB128" s="41"/>
     </row>
     <row r="129" spans="2:28">
       <c r="B129" s="11"/>
       <c r="C129" s="12"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="68" t="s">
+      <c r="E129" s="77"/>
+      <c r="F129" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="69" t="s">
+      <c r="G129" s="79" t="s">
         <v>65</v>
       </c>
       <c r="H129" s="13"/>
@@ -6228,17 +6363,17 @@
       <c r="Y129" s="13"/>
       <c r="Z129" s="13"/>
       <c r="AA129" s="13"/>
-      <c r="AB129" s="38"/>
+      <c r="AB129" s="41"/>
     </row>
     <row r="130" spans="2:28">
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13"/>
-      <c r="E130" s="67"/>
+      <c r="E130" s="77"/>
       <c r="F130" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="28" t="s">
+      <c r="G130" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H130" s="13"/>
@@ -6261,17 +6396,17 @@
       <c r="Y130" s="13"/>
       <c r="Z130" s="13"/>
       <c r="AA130" s="13"/>
-      <c r="AB130" s="38"/>
+      <c r="AB130" s="41"/>
     </row>
     <row r="131" spans="2:28">
       <c r="B131" s="11"/>
       <c r="C131" s="12"/>
       <c r="D131" s="13"/>
-      <c r="E131" s="67"/>
+      <c r="E131" s="77"/>
       <c r="F131" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G131" s="75" t="s">
+      <c r="G131" s="85" t="s">
         <v>66</v>
       </c>
       <c r="H131" s="16"/>
@@ -6294,17 +6429,17 @@
       <c r="Y131" s="13"/>
       <c r="Z131" s="13"/>
       <c r="AA131" s="13"/>
-      <c r="AB131" s="38"/>
+      <c r="AB131" s="41"/>
     </row>
     <row r="132" spans="2:28">
       <c r="B132" s="11"/>
       <c r="C132" s="12"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="68" t="s">
+      <c r="E132" s="66"/>
+      <c r="F132" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="69" t="s">
+      <c r="G132" s="79" t="s">
         <v>67</v>
       </c>
       <c r="H132" s="13"/>
@@ -6327,17 +6462,17 @@
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
       <c r="AA132" s="13"/>
-      <c r="AB132" s="38"/>
+      <c r="AB132" s="41"/>
     </row>
     <row r="133" spans="2:28">
       <c r="B133" s="11"/>
       <c r="C133" s="12"/>
       <c r="D133" s="13"/>
-      <c r="E133" s="56"/>
+      <c r="E133" s="66"/>
       <c r="F133" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G133" s="31" t="s">
         <v>68</v>
       </c>
       <c r="H133" s="13"/>
@@ -6360,18 +6495,18 @@
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
       <c r="AA133" s="13"/>
-      <c r="AB133" s="38"/>
+      <c r="AB133" s="41"/>
     </row>
     <row r="134" spans="2:28">
       <c r="B134" s="11"/>
       <c r="C134" s="12"/>
-      <c r="D134" s="73" t="s">
+      <c r="D134" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E134" s="55" t="s">
+      <c r="E134" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F134" s="57"/>
+      <c r="F134" s="67"/>
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
@@ -6393,7 +6528,7 @@
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
       <c r="AA134" s="13"/>
-      <c r="AB134" s="38"/>
+      <c r="AB134" s="41"/>
     </row>
     <row r="135" spans="2:28">
       <c r="B135" s="11"/>
@@ -6410,12 +6545,12 @@
       <c r="K135" s="16"/>
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
-      <c r="N135" s="70"/>
+      <c r="N135" s="80"/>
       <c r="O135" s="13"/>
       <c r="P135" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="28" t="s">
+      <c r="Q135" s="31" t="s">
         <v>71</v>
       </c>
       <c r="R135" s="13"/>
@@ -6428,25 +6563,25 @@
       <c r="Y135" s="13"/>
       <c r="Z135" s="13"/>
       <c r="AA135" s="13"/>
-      <c r="AB135" s="38"/>
+      <c r="AB135" s="41"/>
     </row>
     <row r="136" spans="2:28">
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
       <c r="D136" s="13"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="66"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="66"/>
-      <c r="M136" s="66"/>
-      <c r="N136" s="67"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
+      <c r="K136" s="76"/>
+      <c r="L136" s="76"/>
+      <c r="M136" s="76"/>
+      <c r="N136" s="77"/>
       <c r="O136" s="13"/>
       <c r="P136" s="23"/>
-      <c r="Q136" s="28"/>
+      <c r="Q136" s="31"/>
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
       <c r="T136" s="13"/>
@@ -6457,7 +6592,7 @@
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
       <c r="AA136" s="13"/>
-      <c r="AB136" s="38"/>
+      <c r="AB136" s="41"/>
     </row>
     <row r="137" spans="2:28">
       <c r="B137" s="11"/>
@@ -6474,12 +6609,12 @@
       <c r="K137" s="16"/>
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
-      <c r="N137" s="70"/>
+      <c r="N137" s="80"/>
       <c r="O137" s="13"/>
       <c r="P137" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q137" s="28" t="s">
+      <c r="Q137" s="31" t="s">
         <v>73</v>
       </c>
       <c r="R137" s="13"/>
@@ -6492,25 +6627,25 @@
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
       <c r="AA137" s="13"/>
-      <c r="AB137" s="38"/>
+      <c r="AB137" s="41"/>
     </row>
     <row r="138" spans="2:28">
       <c r="B138" s="11"/>
       <c r="C138" s="12"/>
       <c r="D138" s="13"/>
-      <c r="E138" s="64"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="66"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="66"/>
-      <c r="L138" s="66"/>
-      <c r="M138" s="66"/>
-      <c r="N138" s="67"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="76"/>
+      <c r="I138" s="76"/>
+      <c r="J138" s="76"/>
+      <c r="K138" s="76"/>
+      <c r="L138" s="76"/>
+      <c r="M138" s="76"/>
+      <c r="N138" s="77"/>
       <c r="O138" s="13"/>
       <c r="P138" s="23"/>
-      <c r="Q138" s="28"/>
+      <c r="Q138" s="31"/>
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
       <c r="T138" s="13"/>
@@ -6521,7 +6656,7 @@
       <c r="Y138" s="13"/>
       <c r="Z138" s="13"/>
       <c r="AA138" s="13"/>
-      <c r="AB138" s="38"/>
+      <c r="AB138" s="41"/>
     </row>
     <row r="139" spans="2:28">
       <c r="B139" s="11"/>
@@ -6538,12 +6673,12 @@
       <c r="K139" s="16"/>
       <c r="L139" s="16"/>
       <c r="M139" s="16"/>
-      <c r="N139" s="70"/>
+      <c r="N139" s="80"/>
       <c r="O139" s="13"/>
       <c r="P139" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q139" s="28" t="s">
+      <c r="Q139" s="31" t="s">
         <v>74</v>
       </c>
       <c r="R139" s="13"/>
@@ -6556,36 +6691,36 @@
       <c r="Y139" s="13"/>
       <c r="Z139" s="13"/>
       <c r="AA139" s="13"/>
-      <c r="AB139" s="38"/>
+      <c r="AB139" s="41"/>
     </row>
     <row r="140" ht="15.75" spans="2:28">
-      <c r="B140" s="43"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
-      <c r="J140" s="45"/>
-      <c r="K140" s="45"/>
-      <c r="L140" s="45"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="45"/>
-      <c r="P140" s="45"/>
-      <c r="Q140" s="45"/>
-      <c r="R140" s="45"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
-      <c r="U140" s="45"/>
-      <c r="V140" s="45"/>
-      <c r="W140" s="45"/>
-      <c r="X140" s="45"/>
-      <c r="Y140" s="45"/>
-      <c r="Z140" s="45"/>
-      <c r="AA140" s="45"/>
-      <c r="AB140" s="47"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="54"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="54"/>
+      <c r="J140" s="54"/>
+      <c r="K140" s="54"/>
+      <c r="L140" s="54"/>
+      <c r="M140" s="54"/>
+      <c r="N140" s="54"/>
+      <c r="O140" s="54"/>
+      <c r="P140" s="54"/>
+      <c r="Q140" s="54"/>
+      <c r="R140" s="54"/>
+      <c r="S140" s="54"/>
+      <c r="T140" s="54"/>
+      <c r="U140" s="54"/>
+      <c r="V140" s="54"/>
+      <c r="W140" s="54"/>
+      <c r="X140" s="54"/>
+      <c r="Y140" s="54"/>
+      <c r="Z140" s="54"/>
+      <c r="AA140" s="54"/>
+      <c r="AB140" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6606,10 +6741,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.599993896298105"/>
   </sheetPr>
-  <dimension ref="B1:AB76"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.57142857142857" defaultRowHeight="15"/>
@@ -6651,7 +6786,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="35"/>
+      <c r="AB1" s="38"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -6680,7 +6815,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="36"/>
+      <c r="AB2" s="39"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -6709,11 +6844,11 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="36"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="81" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -6742,7 +6877,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="37"/>
+      <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="11"/>
@@ -6771,7 +6906,7 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
-      <c r="AB5" s="38"/>
+      <c r="AB5" s="41"/>
     </row>
     <row r="6" ht="15.75" spans="2:28">
       <c r="B6" s="11"/>
@@ -6789,7 +6924,7 @@
       <c r="M6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="31" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="13"/>
@@ -6805,7 +6940,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="38"/>
+      <c r="AB6" s="41"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="11"/>
@@ -6828,7 +6963,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
-      <c r="AB7" s="38"/>
+      <c r="AB7" s="41"/>
     </row>
     <row r="8" ht="15.75" spans="2:28">
       <c r="B8" s="11"/>
@@ -6846,7 +6981,7 @@
       <c r="M8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="31" t="s">
         <v>80</v>
       </c>
       <c r="O8" s="13"/>
@@ -6862,7 +6997,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
-      <c r="AB8" s="38"/>
+      <c r="AB8" s="41"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="11"/>
@@ -6891,7 +7026,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
-      <c r="AB9" s="38"/>
+      <c r="AB9" s="41"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="11"/>
@@ -6920,11 +7055,11 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
-      <c r="AB10" s="38"/>
+      <c r="AB10" s="41"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:28">
       <c r="B11" s="8"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="81" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -6953,7 +7088,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="37"/>
+      <c r="AB11" s="40"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="11"/>
@@ -6982,7 +7117,7 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
-      <c r="AB12" s="38"/>
+      <c r="AB12" s="41"/>
     </row>
     <row r="13" ht="15.75" spans="2:28">
       <c r="B13" s="11"/>
@@ -7001,7 +7136,7 @@
       <c r="M13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="31" t="s">
         <v>83</v>
       </c>
       <c r="O13" s="13"/>
@@ -7017,7 +7152,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
-      <c r="AB13" s="38"/>
+      <c r="AB13" s="41"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="11"/>
@@ -7032,7 +7167,7 @@
       <c r="M14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="31" t="s">
         <v>84</v>
       </c>
       <c r="O14" s="13"/>
@@ -7048,7 +7183,7 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
-      <c r="AB14" s="38"/>
+      <c r="AB14" s="41"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="11"/>
@@ -7063,7 +7198,7 @@
       <c r="M15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="28" t="s">
+      <c r="N15" s="31" t="s">
         <v>85</v>
       </c>
       <c r="O15" s="13"/>
@@ -7079,7 +7214,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
-      <c r="AB15" s="38"/>
+      <c r="AB15" s="41"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="11"/>
@@ -7094,7 +7229,7 @@
       <c r="M16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="31" t="s">
         <v>86</v>
       </c>
       <c r="O16" s="13"/>
@@ -7110,7 +7245,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
-      <c r="AB16" s="38"/>
+      <c r="AB16" s="41"/>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="11"/>
@@ -7125,7 +7260,7 @@
       <c r="M17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="31" t="s">
         <v>87</v>
       </c>
       <c r="O17" s="13"/>
@@ -7141,7 +7276,7 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
-      <c r="AB17" s="38"/>
+      <c r="AB17" s="41"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="11"/>
@@ -7170,11 +7305,11 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
-      <c r="AB18" s="38"/>
+      <c r="AB18" s="41"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:28">
       <c r="B19" s="8"/>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="81" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -7203,7 +7338,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
-      <c r="AB19" s="37"/>
+      <c r="AB19" s="40"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="11"/>
@@ -7232,7 +7367,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
-      <c r="AB20" s="38"/>
+      <c r="AB20" s="41"/>
     </row>
     <row r="21" ht="15.75" spans="2:28">
       <c r="B21" s="11"/>
@@ -7253,7 +7388,7 @@
       <c r="M21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="31" t="s">
         <v>90</v>
       </c>
       <c r="O21" s="19"/>
@@ -7269,12 +7404,12 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
-      <c r="AB21" s="38"/>
+      <c r="AB21" s="41"/>
     </row>
     <row r="22" ht="15.75" spans="2:28">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="23"/>
@@ -7288,7 +7423,7 @@
       <c r="M22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="31" t="s">
         <v>92</v>
       </c>
       <c r="O22" s="25"/>
@@ -7304,7 +7439,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="38"/>
+      <c r="AB22" s="41"/>
     </row>
     <row r="23" ht="15.75" spans="2:28">
       <c r="B23" s="11"/>
@@ -7319,7 +7454,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="O23" s="25"/>
@@ -7335,12 +7470,12 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="38"/>
+      <c r="AB23" s="41"/>
     </row>
     <row r="24" ht="15.75" spans="2:28">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="26"/>
@@ -7351,7 +7486,7 @@
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="30"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
@@ -7366,7 +7501,7 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
-      <c r="AB24" s="38"/>
+      <c r="AB24" s="41"/>
     </row>
     <row r="25" ht="15.75" spans="2:28">
       <c r="B25" s="11"/>
@@ -7381,7 +7516,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="29"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -7399,12 +7534,12 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
-      <c r="AB25" s="38"/>
+      <c r="AB25" s="41"/>
     </row>
     <row r="26" ht="15.75" spans="2:28">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="13"/>
@@ -7430,7 +7565,7 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
-      <c r="AB26" s="38"/>
+      <c r="AB26" s="41"/>
     </row>
     <row r="27" ht="15.75" spans="2:28">
       <c r="B27" s="11"/>
@@ -7445,7 +7580,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="29"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -7463,7 +7598,7 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="38"/>
+      <c r="AB27" s="41"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="11"/>
@@ -7492,7 +7627,7 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
-      <c r="AB28" s="38"/>
+      <c r="AB28" s="41"/>
     </row>
     <row r="29" ht="15.75" spans="2:28">
       <c r="B29" s="11"/>
@@ -7513,7 +7648,7 @@
       <c r="M29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="28" t="s">
+      <c r="N29" s="31" t="s">
         <v>97</v>
       </c>
       <c r="O29" s="13"/>
@@ -7529,12 +7664,12 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="38"/>
+      <c r="AB29" s="41"/>
     </row>
     <row r="30" ht="15.75" spans="2:28">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="13"/>
@@ -7548,7 +7683,7 @@
       <c r="M30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="28" t="s">
+      <c r="N30" s="31" t="s">
         <v>98</v>
       </c>
       <c r="O30" s="13"/>
@@ -7564,12 +7699,12 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
-      <c r="AB30" s="38"/>
+      <c r="AB30" s="41"/>
     </row>
     <row r="31" ht="15.75" spans="2:28">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="27"/>
@@ -7583,7 +7718,7 @@
       <c r="M31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="28" t="s">
+      <c r="N31" s="31" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="13"/>
@@ -7599,12 +7734,12 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
-      <c r="AB31" s="38"/>
+      <c r="AB31" s="41"/>
     </row>
     <row r="32" ht="15.75" spans="2:28">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="27"/>
@@ -7618,7 +7753,7 @@
       <c r="M32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="28" t="s">
+      <c r="N32" s="31" t="s">
         <v>100</v>
       </c>
       <c r="O32" s="13"/>
@@ -7634,7 +7769,7 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
-      <c r="AB32" s="38"/>
+      <c r="AB32" s="41"/>
     </row>
     <row r="33" ht="15.75" spans="2:28">
       <c r="B33" s="11"/>
@@ -7655,7 +7790,7 @@
       <c r="M33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="28" t="s">
+      <c r="N33" s="31" t="s">
         <v>102</v>
       </c>
       <c r="O33" s="13"/>
@@ -7671,7 +7806,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="38"/>
+      <c r="AB33" s="41"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="11"/>
@@ -7688,13 +7823,13 @@
       <c r="M34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="77" t="s">
+      <c r="N34" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="O34" s="32" t="s">
+      <c r="O34" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P34" s="33" t="s">
+      <c r="P34" s="36" t="s">
         <v>104</v>
       </c>
       <c r="Q34" s="13"/>
@@ -7708,7 +7843,7 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AB34" s="38"/>
+      <c r="AB34" s="41"/>
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="11"/>
@@ -7725,13 +7860,13 @@
       <c r="M35" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="31" t="s">
+      <c r="N35" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="O35" s="32" t="s">
+      <c r="O35" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="36" t="s">
         <v>40</v>
       </c>
       <c r="Q35" s="13"/>
@@ -7745,7 +7880,7 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
-      <c r="AB35" s="38"/>
+      <c r="AB35" s="41"/>
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="11"/>
@@ -7762,13 +7897,13 @@
       <c r="M36" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="N36" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="O36" s="32" t="s">
+      <c r="O36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="36" t="s">
         <v>107</v>
       </c>
       <c r="Q36" s="13"/>
@@ -7782,7 +7917,7 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
-      <c r="AB36" s="38"/>
+      <c r="AB36" s="41"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="11"/>
@@ -7799,13 +7934,13 @@
       <c r="M37" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="31" t="s">
+      <c r="N37" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O37" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P37" s="33" t="s">
+      <c r="P37" s="36" t="s">
         <v>109</v>
       </c>
       <c r="Q37" s="13"/>
@@ -7819,7 +7954,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
-      <c r="AB37" s="38"/>
+      <c r="AB37" s="41"/>
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="11"/>
@@ -7836,13 +7971,13 @@
       <c r="M38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="31" t="s">
+      <c r="N38" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="O38" s="32" t="s">
+      <c r="O38" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P38" s="33" t="s">
+      <c r="P38" s="36" t="s">
         <v>111</v>
       </c>
       <c r="Q38" s="13"/>
@@ -7856,7 +7991,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
-      <c r="AB38" s="38"/>
+      <c r="AB38" s="41"/>
     </row>
     <row r="39" spans="2:28">
       <c r="B39" s="11"/>
@@ -7873,13 +8008,13 @@
       <c r="M39" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="31" t="s">
+      <c r="N39" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="O39" s="32" t="s">
+      <c r="O39" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P39" s="33" t="s">
+      <c r="P39" s="36" t="s">
         <v>113</v>
       </c>
       <c r="Q39" s="13"/>
@@ -7893,7 +8028,7 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
-      <c r="AB39" s="38"/>
+      <c r="AB39" s="41"/>
     </row>
     <row r="40" spans="2:28">
       <c r="B40" s="11"/>
@@ -7910,13 +8045,13 @@
       <c r="M40" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="31" t="s">
+      <c r="N40" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="O40" s="32" t="s">
+      <c r="O40" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P40" s="33" t="s">
+      <c r="P40" s="36" t="s">
         <v>115</v>
       </c>
       <c r="Q40" s="13"/>
@@ -7930,7 +8065,7 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
-      <c r="AB40" s="38"/>
+      <c r="AB40" s="41"/>
     </row>
     <row r="41" spans="2:28">
       <c r="B41" s="11"/>
@@ -7945,9 +8080,9 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="23"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="28"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="31"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
@@ -7959,7 +8094,7 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
-      <c r="AB41" s="38"/>
+      <c r="AB41" s="41"/>
     </row>
     <row r="42" ht="15.75" spans="2:28">
       <c r="B42" s="11"/>
@@ -7980,11 +8115,11 @@
       <c r="M42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="28" t="s">
+      <c r="N42" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="O42" s="32"/>
-      <c r="P42" s="28"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
@@ -7996,12 +8131,12 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
-      <c r="AB42" s="38"/>
+      <c r="AB42" s="41"/>
     </row>
     <row r="43" ht="15.75" spans="2:28">
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="27"/>
@@ -8015,7 +8150,7 @@
       <c r="M43" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="28" t="s">
+      <c r="N43" s="31" t="s">
         <v>118</v>
       </c>
       <c r="O43" s="13"/>
@@ -8031,12 +8166,12 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
-      <c r="AB43" s="38"/>
+      <c r="AB43" s="41"/>
     </row>
     <row r="44" ht="15.75" spans="2:28">
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="27"/>
@@ -8050,7 +8185,7 @@
       <c r="M44" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="28" t="s">
+      <c r="N44" s="31" t="s">
         <v>119</v>
       </c>
       <c r="O44" s="13"/>
@@ -8066,7 +8201,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
-      <c r="AB44" s="38"/>
+      <c r="AB44" s="41"/>
     </row>
     <row r="45" ht="15.75" spans="2:28">
       <c r="B45" s="11"/>
@@ -8087,7 +8222,7 @@
       <c r="M45" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="28" t="s">
+      <c r="N45" s="31" t="s">
         <v>121</v>
       </c>
       <c r="O45" s="13"/>
@@ -8103,12 +8238,12 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
-      <c r="AB45" s="38"/>
+      <c r="AB45" s="41"/>
     </row>
     <row r="46" ht="15.75" spans="2:28">
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="27"/>
@@ -8119,7 +8254,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -8133,7 +8268,7 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
-      <c r="AB46" s="38"/>
+      <c r="AB46" s="41"/>
     </row>
     <row r="47" ht="15.75" spans="2:28">
       <c r="B47" s="11"/>
@@ -8154,7 +8289,7 @@
       <c r="M47" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="28" t="s">
+      <c r="N47" s="31" t="s">
         <v>123</v>
       </c>
       <c r="O47" s="13"/>
@@ -8170,7 +8305,7 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
-      <c r="AB47" s="38"/>
+      <c r="AB47" s="41"/>
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="11"/>
@@ -8185,7 +8320,7 @@
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="23"/>
-      <c r="N48" s="28"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
@@ -8199,7 +8334,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="38"/>
+      <c r="AB48" s="41"/>
     </row>
     <row r="49" ht="15.75" spans="2:28">
       <c r="B49" s="11"/>
@@ -8220,7 +8355,7 @@
       <c r="M49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="28" t="s">
+      <c r="N49" s="31" t="s">
         <v>125</v>
       </c>
       <c r="O49" s="13"/>
@@ -8236,7 +8371,7 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
-      <c r="AB49" s="38"/>
+      <c r="AB49" s="41"/>
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="11"/>
@@ -8251,7 +8386,7 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="23"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -8265,7 +8400,7 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
-      <c r="AB50" s="38"/>
+      <c r="AB50" s="41"/>
     </row>
     <row r="51" ht="15.75" spans="2:28">
       <c r="B51" s="11"/>
@@ -8286,7 +8421,7 @@
       <c r="M51" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="28" t="s">
+      <c r="N51" s="31" t="s">
         <v>127</v>
       </c>
       <c r="O51" s="13"/>
@@ -8302,12 +8437,12 @@
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
-      <c r="AB51" s="38"/>
+      <c r="AB51" s="41"/>
     </row>
     <row r="52" ht="15.75" spans="2:28">
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="27"/>
@@ -8321,7 +8456,7 @@
       <c r="M52" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="28" t="s">
+      <c r="N52" s="31" t="s">
         <v>128</v>
       </c>
       <c r="O52" s="13"/>
@@ -8337,7 +8472,7 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
-      <c r="AB52" s="38"/>
+      <c r="AB52" s="41"/>
     </row>
     <row r="53" ht="15.75" spans="2:28">
       <c r="B53" s="11"/>
@@ -8358,7 +8493,7 @@
       <c r="M53" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N53" s="28" t="s">
+      <c r="N53" s="31" t="s">
         <v>130</v>
       </c>
       <c r="O53" s="13"/>
@@ -8374,22 +8509,25 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
-      <c r="AB53" s="38"/>
-    </row>
-    <row r="54" ht="15.75" spans="2:28">
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="AB53" s="41"/>
+    </row>
+    <row r="54" ht="15.75" spans="1:28">
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="23"/>
-      <c r="N54" s="28"/>
+      <c r="N54" s="31"/>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -8403,11 +8541,12 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
-      <c r="AB54" s="38"/>
-    </row>
-    <row r="55" ht="15.75" spans="2:28">
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
+      <c r="AB54" s="41"/>
+    </row>
+    <row r="55" ht="15.75" spans="1:28">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="14" t="s">
         <v>76</v>
       </c>
@@ -8424,7 +8563,7 @@
       <c r="M55" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="28" t="s">
+      <c r="N55" s="31" t="s">
         <v>132</v>
       </c>
       <c r="O55" s="13"/>
@@ -8440,24 +8579,25 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
-      <c r="AB55" s="38"/>
-    </row>
-    <row r="56" ht="15.75" spans="2:28">
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="76" t="s">
+      <c r="AB55" s="41"/>
+    </row>
+    <row r="56" ht="15.75" spans="1:28">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="23"/>
-      <c r="N56" s="28"/>
+      <c r="N56" s="31"/>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
@@ -8471,11 +8611,12 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
-      <c r="AB56" s="38"/>
-    </row>
-    <row r="57" ht="15.75" spans="2:28">
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
+      <c r="AB56" s="41"/>
+    </row>
+    <row r="57" ht="15.75" spans="1:28">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="14" t="s">
         <v>76</v>
       </c>
@@ -8492,7 +8633,7 @@
       <c r="M57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="28" t="s">
+      <c r="N57" s="31" t="s">
         <v>134</v>
       </c>
       <c r="O57" s="13"/>
@@ -8508,22 +8649,22 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
-      <c r="AB57" s="38"/>
-    </row>
-    <row r="58" spans="2:28">
+      <c r="AB57" s="41"/>
+    </row>
+    <row r="58" ht="15.75" spans="2:28">
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="23"/>
-      <c r="N58" s="28"/>
+      <c r="N58" s="31"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
@@ -8537,7 +8678,7 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
-      <c r="AB58" s="38"/>
+      <c r="AB58" s="41"/>
     </row>
     <row r="59" ht="15.75" spans="2:28">
       <c r="B59" s="11"/>
@@ -8558,7 +8699,7 @@
       <c r="M59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="28" t="s">
+      <c r="N59" s="31" t="s">
         <v>136</v>
       </c>
       <c r="O59" s="13"/>
@@ -8574,24 +8715,24 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
-      <c r="AB59" s="38"/>
+      <c r="AB59" s="41"/>
     </row>
     <row r="60" ht="15.75" spans="2:28">
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="23"/>
-      <c r="N60" s="28"/>
+      <c r="N60" s="31"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
@@ -8605,7 +8746,7 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
-      <c r="AB60" s="38"/>
+      <c r="AB60" s="41"/>
     </row>
     <row r="61" ht="15.75" spans="2:28">
       <c r="B61" s="11"/>
@@ -8626,7 +8767,7 @@
       <c r="M61" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="28" t="s">
+      <c r="N61" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O61" s="13"/>
@@ -8642,12 +8783,12 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
-      <c r="AB61" s="38"/>
-    </row>
-    <row r="62" ht="15.75" spans="2:28">
+      <c r="AB61" s="41"/>
+    </row>
+    <row r="62" spans="2:28">
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="17"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -8657,7 +8798,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="23"/>
-      <c r="N62" s="28"/>
+      <c r="N62" s="31"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
@@ -8671,22 +8812,30 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
-      <c r="AB62" s="38"/>
-    </row>
-    <row r="63" spans="2:28">
+      <c r="AB62" s="41"/>
+    </row>
+    <row r="63" ht="15.75" spans="2:28">
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="D63" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
+      <c r="M63" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
@@ -8700,55 +8849,61 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
-      <c r="AB63" s="38"/>
-    </row>
-    <row r="64" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B64" s="8"/>
-      <c r="C64" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="37"/>
-    </row>
-    <row r="65" spans="2:28">
+      <c r="AB63" s="41"/>
+    </row>
+    <row r="64" ht="15.75" spans="2:28">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="41"/>
+    </row>
+    <row r="65" ht="15.75" spans="2:28">
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
+      <c r="D65" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
+      <c r="M65" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
@@ -8762,30 +8917,22 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
-      <c r="AB65" s="38"/>
+      <c r="AB65" s="41"/>
     </row>
     <row r="66" ht="15.75" spans="2:28">
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
-      <c r="M66" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="78" t="s">
-        <v>141</v>
-      </c>
+      <c r="M66" s="23"/>
+      <c r="N66" s="31"/>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>
@@ -8799,26 +8946,22 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
-      <c r="AB66" s="38"/>
+      <c r="AB66" s="41"/>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="40"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
-      <c r="M67" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N67" s="28" t="s">
-        <v>142</v>
-      </c>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="13"/>
@@ -8832,59 +8975,55 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
       <c r="AA67" s="13"/>
-      <c r="AB67" s="38"/>
-    </row>
-    <row r="68" spans="2:28">
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="38"/>
-    </row>
-    <row r="69" ht="15.75" spans="2:28">
+      <c r="AB67" s="41"/>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B68" s="8"/>
+      <c r="C68" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="40"/>
+    </row>
+    <row r="69" spans="2:28">
       <c r="B69" s="11"/>
       <c r="C69" s="12"/>
-      <c r="D69" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
-      <c r="M69" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="28" t="s">
-        <v>141</v>
-      </c>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
@@ -8898,226 +9037,1483 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
       <c r="AA69" s="13"/>
-      <c r="AB69" s="38"/>
-    </row>
-    <row r="70" spans="2:28">
+      <c r="AB69" s="41"/>
+    </row>
+    <row r="70" ht="15.75" spans="2:28">
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
+      <c r="D70" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N70" s="28" t="s">
-        <v>144</v>
+      <c r="N70" s="88" t="s">
+        <v>145</v>
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="13"/>
-      <c r="AB70" s="38"/>
-    </row>
-    <row r="71" spans="2:28">
+      <c r="AB70" s="41"/>
+    </row>
+    <row r="71" ht="15.75" spans="2:28">
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="42"/>
+      <c r="D71" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="42"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="28"/>
+      <c r="M71" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N71" s="31" t="s">
+        <v>146</v>
+      </c>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
       <c r="AA71" s="13"/>
-      <c r="AB71" s="38"/>
+      <c r="AB71" s="41"/>
     </row>
     <row r="72" ht="15.75" spans="2:28">
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
-      <c r="D72" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="D72" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="44"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="28" t="s">
-        <v>146</v>
-      </c>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
       <c r="V72" s="13"/>
       <c r="W72" s="13"/>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="13"/>
-      <c r="AB72" s="38"/>
-    </row>
-    <row r="73" spans="2:28">
+      <c r="AB72" s="41"/>
+    </row>
+    <row r="73" ht="15.75" spans="2:28">
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
+      <c r="D73" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N73" s="28" t="s">
-        <v>147</v>
+      <c r="N73" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
       <c r="V73" s="13"/>
       <c r="W73" s="13"/>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
-      <c r="AB73" s="38"/>
-    </row>
-    <row r="74" spans="2:28">
+      <c r="AB73" s="41"/>
+    </row>
+    <row r="74" ht="15.75" spans="2:28">
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="42"/>
+      <c r="D74" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="44"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="45"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
+      <c r="M74" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="31" t="s">
+        <v>148</v>
+      </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="55"/>
       <c r="V74" s="13"/>
       <c r="W74" s="13"/>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
-      <c r="AB74" s="38"/>
-    </row>
-    <row r="75" spans="2:28">
+      <c r="AB74" s="41"/>
+    </row>
+    <row r="75" ht="15.75" spans="2:28">
       <c r="B75" s="11"/>
       <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="D75" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="44"/>
       <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+      <c r="G75" s="45"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="31"/>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="55"/>
       <c r="V75" s="13"/>
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
       <c r="AA75" s="13"/>
-      <c r="AB75" s="38"/>
+      <c r="AB75" s="41"/>
     </row>
     <row r="76" ht="15.75" spans="2:28">
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
-      <c r="Q76" s="45"/>
-      <c r="R76" s="45"/>
-      <c r="S76" s="45"/>
-      <c r="T76" s="45"/>
-      <c r="U76" s="45"/>
-      <c r="V76" s="45"/>
-      <c r="W76" s="45"/>
-      <c r="X76" s="45"/>
-      <c r="Y76" s="45"/>
-      <c r="Z76" s="45"/>
-      <c r="AA76" s="45"/>
-      <c r="AB76" s="47"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="41"/>
+    </row>
+    <row r="77" spans="2:28">
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="55"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="41"/>
+    </row>
+    <row r="78" spans="2:28">
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="55"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="41"/>
+    </row>
+    <row r="79" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B79" s="8"/>
+      <c r="C79" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="40"/>
+    </row>
+    <row r="80" spans="2:28">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="41"/>
+    </row>
+    <row r="81" ht="15.75" spans="2:28">
+      <c r="B81" s="46"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="48"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="48"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="48"/>
+      <c r="AB81" s="56"/>
+    </row>
+    <row r="82" ht="15.75" spans="2:28">
+      <c r="B82" s="46"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="48"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="48"/>
+      <c r="W82" s="48"/>
+      <c r="X82" s="48"/>
+      <c r="Y82" s="48"/>
+      <c r="Z82" s="48"/>
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="56"/>
+    </row>
+    <row r="83" ht="15.75" spans="2:28">
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O83" s="48"/>
+      <c r="P83" s="48"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="48"/>
+      <c r="T83" s="48"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="48"/>
+      <c r="W83" s="48"/>
+      <c r="X83" s="48"/>
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="48"/>
+      <c r="AB83" s="56"/>
+    </row>
+    <row r="84" ht="15.75" spans="2:28">
+      <c r="B84" s="46"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O84" s="48"/>
+      <c r="P84" s="48"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="48"/>
+      <c r="S84" s="48"/>
+      <c r="T84" s="48"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="48"/>
+      <c r="W84" s="48"/>
+      <c r="X84" s="48"/>
+      <c r="Y84" s="48"/>
+      <c r="Z84" s="48"/>
+      <c r="AA84" s="48"/>
+      <c r="AB84" s="56"/>
+    </row>
+    <row r="85" ht="15.75" spans="2:28">
+      <c r="B85" s="46"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
+      <c r="T85" s="48"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="48"/>
+      <c r="W85" s="48"/>
+      <c r="X85" s="48"/>
+      <c r="Y85" s="48"/>
+      <c r="Z85" s="48"/>
+      <c r="AA85" s="48"/>
+      <c r="AB85" s="56"/>
+    </row>
+    <row r="86" ht="15.75" spans="2:28">
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="48"/>
+      <c r="T86" s="48"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="48"/>
+      <c r="W86" s="48"/>
+      <c r="X86" s="48"/>
+      <c r="Y86" s="48"/>
+      <c r="Z86" s="48"/>
+      <c r="AA86" s="48"/>
+      <c r="AB86" s="56"/>
+    </row>
+    <row r="87" ht="15.75" spans="2:28">
+      <c r="B87" s="46"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N87" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="48"/>
+      <c r="T87" s="48"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="48"/>
+      <c r="W87" s="48"/>
+      <c r="X87" s="48"/>
+      <c r="Y87" s="48"/>
+      <c r="Z87" s="48"/>
+      <c r="AA87" s="48"/>
+      <c r="AB87" s="56"/>
+    </row>
+    <row r="88" spans="2:28">
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="48"/>
+      <c r="W88" s="48"/>
+      <c r="X88" s="48"/>
+      <c r="Y88" s="48"/>
+      <c r="Z88" s="48"/>
+      <c r="AA88" s="48"/>
+      <c r="AB88" s="56"/>
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B89" s="8"/>
+      <c r="C89" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="40"/>
+    </row>
+    <row r="90" spans="2:28">
+      <c r="B90" s="46"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="48"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="48"/>
+      <c r="S90" s="48"/>
+      <c r="T90" s="48"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="48"/>
+      <c r="W90" s="48"/>
+      <c r="X90" s="48"/>
+      <c r="Y90" s="48"/>
+      <c r="Z90" s="48"/>
+      <c r="AA90" s="48"/>
+      <c r="AB90" s="56"/>
+    </row>
+    <row r="91" ht="15.75" spans="2:28">
+      <c r="B91" s="46"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="O91" s="48"/>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="48"/>
+      <c r="Z91" s="48"/>
+      <c r="AA91" s="48"/>
+      <c r="AB91" s="56"/>
+    </row>
+    <row r="92" ht="15.75" spans="2:28">
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="48"/>
+      <c r="P92" s="48"/>
+      <c r="Q92" s="48"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="48"/>
+      <c r="X92" s="48"/>
+      <c r="Y92" s="48"/>
+      <c r="Z92" s="48"/>
+      <c r="AA92" s="48"/>
+      <c r="AB92" s="56"/>
+    </row>
+    <row r="93" ht="15.75" spans="2:28">
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="O93" s="48"/>
+      <c r="P93" s="48"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="48"/>
+      <c r="AA93" s="48"/>
+      <c r="AB93" s="56"/>
+    </row>
+    <row r="94" ht="15.75" spans="2:28">
+      <c r="B94" s="46"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="49"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="48"/>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="48"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="48"/>
+      <c r="Z94" s="48"/>
+      <c r="AA94" s="48"/>
+      <c r="AB94" s="56"/>
+    </row>
+    <row r="95" ht="15.75" spans="2:28">
+      <c r="B95" s="46"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="O95" s="48"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="48"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="48"/>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="56"/>
+    </row>
+    <row r="96" ht="15.75" spans="2:28">
+      <c r="B96" s="46"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="48"/>
+      <c r="N96" s="48"/>
+      <c r="O96" s="48"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="48"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="48"/>
+      <c r="W96" s="48"/>
+      <c r="X96" s="48"/>
+      <c r="Y96" s="48"/>
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="48"/>
+      <c r="AB96" s="56"/>
+    </row>
+    <row r="97" ht="15.75" spans="2:28">
+      <c r="B97" s="46"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="O97" s="48"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="48"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="48"/>
+      <c r="T97" s="48"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="48"/>
+      <c r="W97" s="48"/>
+      <c r="X97" s="48"/>
+      <c r="Y97" s="48"/>
+      <c r="Z97" s="48"/>
+      <c r="AA97" s="48"/>
+      <c r="AB97" s="56"/>
+    </row>
+    <row r="98" ht="15.75" spans="2:28">
+      <c r="B98" s="46"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="49"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="48"/>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="48"/>
+      <c r="R98" s="48"/>
+      <c r="S98" s="48"/>
+      <c r="T98" s="48"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="48"/>
+      <c r="W98" s="48"/>
+      <c r="X98" s="48"/>
+      <c r="Y98" s="48"/>
+      <c r="Z98" s="48"/>
+      <c r="AA98" s="48"/>
+      <c r="AB98" s="56"/>
+    </row>
+    <row r="99" ht="15.75" spans="2:28">
+      <c r="B99" s="46"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N99" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="O99" s="48"/>
+      <c r="P99" s="48"/>
+      <c r="Q99" s="48"/>
+      <c r="R99" s="48"/>
+      <c r="S99" s="48"/>
+      <c r="T99" s="48"/>
+      <c r="U99" s="48"/>
+      <c r="V99" s="48"/>
+      <c r="W99" s="48"/>
+      <c r="X99" s="48"/>
+      <c r="Y99" s="48"/>
+      <c r="Z99" s="48"/>
+      <c r="AA99" s="48"/>
+      <c r="AB99" s="56"/>
+    </row>
+    <row r="100" ht="15.75" spans="2:28">
+      <c r="B100" s="46"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="49"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="48"/>
+      <c r="O100" s="48"/>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="48"/>
+      <c r="R100" s="48"/>
+      <c r="S100" s="48"/>
+      <c r="T100" s="48"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="48"/>
+      <c r="W100" s="48"/>
+      <c r="X100" s="48"/>
+      <c r="Y100" s="48"/>
+      <c r="Z100" s="48"/>
+      <c r="AA100" s="48"/>
+      <c r="AB100" s="56"/>
+    </row>
+    <row r="101" ht="15.75" spans="2:28">
+      <c r="B101" s="46"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="O101" s="48"/>
+      <c r="P101" s="48"/>
+      <c r="Q101" s="48"/>
+      <c r="R101" s="48"/>
+      <c r="S101" s="48"/>
+      <c r="T101" s="48"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="48"/>
+      <c r="W101" s="48"/>
+      <c r="X101" s="48"/>
+      <c r="Y101" s="48"/>
+      <c r="Z101" s="48"/>
+      <c r="AA101" s="48"/>
+      <c r="AB101" s="56"/>
+    </row>
+    <row r="102" spans="2:28">
+      <c r="B102" s="46"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="48"/>
+      <c r="N102" s="48"/>
+      <c r="O102" s="48"/>
+      <c r="P102" s="48"/>
+      <c r="Q102" s="48"/>
+      <c r="R102" s="48"/>
+      <c r="S102" s="48"/>
+      <c r="T102" s="48"/>
+      <c r="U102" s="48"/>
+      <c r="V102" s="48"/>
+      <c r="W102" s="48"/>
+      <c r="X102" s="48"/>
+      <c r="Y102" s="48"/>
+      <c r="Z102" s="48"/>
+      <c r="AA102" s="48"/>
+      <c r="AB102" s="56"/>
+    </row>
+    <row r="103" ht="15.75" spans="2:28">
+      <c r="B103" s="46"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="48"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N103" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="O103" s="48"/>
+      <c r="P103" s="48"/>
+      <c r="Q103" s="48"/>
+      <c r="R103" s="48"/>
+      <c r="S103" s="48"/>
+      <c r="T103" s="48"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="48"/>
+      <c r="W103" s="48"/>
+      <c r="X103" s="48"/>
+      <c r="Y103" s="48"/>
+      <c r="Z103" s="48"/>
+      <c r="AA103" s="48"/>
+      <c r="AB103" s="56"/>
+    </row>
+    <row r="104" ht="15.75" spans="2:28">
+      <c r="B104" s="46"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="49"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="48"/>
+      <c r="N104" s="48"/>
+      <c r="O104" s="48"/>
+      <c r="P104" s="48"/>
+      <c r="Q104" s="48"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="48"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="48"/>
+      <c r="W104" s="48"/>
+      <c r="X104" s="48"/>
+      <c r="Y104" s="48"/>
+      <c r="Z104" s="48"/>
+      <c r="AA104" s="48"/>
+      <c r="AB104" s="56"/>
+    </row>
+    <row r="105" ht="15.75" spans="2:28">
+      <c r="B105" s="46"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N105" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="O105" s="48"/>
+      <c r="P105" s="48"/>
+      <c r="Q105" s="48"/>
+      <c r="R105" s="48"/>
+      <c r="S105" s="48"/>
+      <c r="T105" s="48"/>
+      <c r="U105" s="48"/>
+      <c r="V105" s="48"/>
+      <c r="W105" s="48"/>
+      <c r="X105" s="48"/>
+      <c r="Y105" s="48"/>
+      <c r="Z105" s="48"/>
+      <c r="AA105" s="48"/>
+      <c r="AB105" s="56"/>
+    </row>
+    <row r="106" ht="15.75" spans="2:28">
+      <c r="B106" s="46"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="49"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="48"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="48"/>
+      <c r="N106" s="48"/>
+      <c r="O106" s="48"/>
+      <c r="P106" s="48"/>
+      <c r="Q106" s="48"/>
+      <c r="R106" s="48"/>
+      <c r="S106" s="48"/>
+      <c r="T106" s="48"/>
+      <c r="U106" s="48"/>
+      <c r="V106" s="48"/>
+      <c r="W106" s="48"/>
+      <c r="X106" s="48"/>
+      <c r="Y106" s="48"/>
+      <c r="Z106" s="48"/>
+      <c r="AA106" s="48"/>
+      <c r="AB106" s="56"/>
+    </row>
+    <row r="107" ht="15.75" spans="2:28">
+      <c r="B107" s="46"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N107" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="O107" s="48"/>
+      <c r="P107" s="48"/>
+      <c r="Q107" s="48"/>
+      <c r="R107" s="48"/>
+      <c r="S107" s="48"/>
+      <c r="T107" s="48"/>
+      <c r="U107" s="48"/>
+      <c r="V107" s="48"/>
+      <c r="W107" s="48"/>
+      <c r="X107" s="48"/>
+      <c r="Y107" s="48"/>
+      <c r="Z107" s="48"/>
+      <c r="AA107" s="48"/>
+      <c r="AB107" s="56"/>
+    </row>
+    <row r="108" ht="15.75" spans="2:28">
+      <c r="B108" s="46"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="49"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="48"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="48"/>
+      <c r="Q108" s="48"/>
+      <c r="R108" s="48"/>
+      <c r="S108" s="48"/>
+      <c r="T108" s="48"/>
+      <c r="U108" s="48"/>
+      <c r="V108" s="48"/>
+      <c r="W108" s="48"/>
+      <c r="X108" s="48"/>
+      <c r="Y108" s="48"/>
+      <c r="Z108" s="48"/>
+      <c r="AA108" s="48"/>
+      <c r="AB108" s="56"/>
+    </row>
+    <row r="109" ht="15.75" spans="2:28">
+      <c r="B109" s="46"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N109" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="O109" s="48"/>
+      <c r="P109" s="48"/>
+      <c r="Q109" s="48"/>
+      <c r="R109" s="48"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="48"/>
+      <c r="U109" s="48"/>
+      <c r="V109" s="48"/>
+      <c r="W109" s="48"/>
+      <c r="X109" s="48"/>
+      <c r="Y109" s="48"/>
+      <c r="Z109" s="48"/>
+      <c r="AA109" s="48"/>
+      <c r="AB109" s="56"/>
+    </row>
+    <row r="110" spans="2:28">
+      <c r="B110" s="46"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
+      <c r="Q110" s="48"/>
+      <c r="R110" s="48"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="48"/>
+      <c r="U110" s="48"/>
+      <c r="V110" s="48"/>
+      <c r="W110" s="48"/>
+      <c r="X110" s="48"/>
+      <c r="Y110" s="48"/>
+      <c r="Z110" s="48"/>
+      <c r="AA110" s="48"/>
+      <c r="AB110" s="56"/>
+    </row>
+    <row r="111" ht="15.75" spans="2:28">
+      <c r="B111" s="46"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="48"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N111" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="O111" s="48"/>
+      <c r="P111" s="48"/>
+      <c r="Q111" s="48"/>
+      <c r="R111" s="48"/>
+      <c r="S111" s="48"/>
+      <c r="T111" s="48"/>
+      <c r="U111" s="48"/>
+      <c r="V111" s="48"/>
+      <c r="W111" s="48"/>
+      <c r="X111" s="48"/>
+      <c r="Y111" s="48"/>
+      <c r="Z111" s="48"/>
+      <c r="AA111" s="48"/>
+      <c r="AB111" s="56"/>
+    </row>
+    <row r="112" spans="2:28">
+      <c r="B112" s="46"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="48"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="48"/>
+      <c r="N112" s="48"/>
+      <c r="O112" s="48"/>
+      <c r="P112" s="48"/>
+      <c r="Q112" s="48"/>
+      <c r="R112" s="48"/>
+      <c r="S112" s="48"/>
+      <c r="T112" s="48"/>
+      <c r="U112" s="48"/>
+      <c r="V112" s="48"/>
+      <c r="W112" s="48"/>
+      <c r="X112" s="48"/>
+      <c r="Y112" s="48"/>
+      <c r="Z112" s="48"/>
+      <c r="AA112" s="48"/>
+      <c r="AB112" s="56"/>
+    </row>
+    <row r="113" ht="15.75" spans="2:28">
+      <c r="B113" s="52"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="54"/>
+      <c r="O113" s="54"/>
+      <c r="P113" s="54"/>
+      <c r="Q113" s="54"/>
+      <c r="R113" s="54"/>
+      <c r="S113" s="54"/>
+      <c r="T113" s="54"/>
+      <c r="U113" s="54"/>
+      <c r="V113" s="54"/>
+      <c r="W113" s="54"/>
+      <c r="X113" s="54"/>
+      <c r="Y113" s="54"/>
+      <c r="Z113" s="54"/>
+      <c r="AA113" s="54"/>
+      <c r="AB113" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9127,7 +10523,7 @@
   <pageSetup paperSize="1" scale="66" orientation="portrait"/>
   <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="63" max="28" man="1"/>
+    <brk id="67" max="28" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Training_Git.xlsx
+++ b/Training_Git.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9675" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chung" sheetId="1" r:id="rId1"/>
     <sheet name="COMMAND" sheetId="2" r:id="rId2"/>
+    <sheet name="MERGE" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$141</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">COMMAND!$A$1:$AC$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">MERGE!$A$1:$AC$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="221">
   <si>
     <t>HƯỚNG DẪN SỬ DỤNG GIT VÀ GITHUB</t>
   </si>
@@ -485,7 +487,7 @@
     <t>Thực hiện git add . sau đó đến git commit</t>
   </si>
   <si>
-    <t>git commit -amend -m "&lt;log&gt;"</t>
+    <t>git commit --amend -m "&lt;log&gt;"</t>
   </si>
   <si>
     <t>Thay thế nội dung commit cuối cùng</t>
@@ -696,6 +698,112 @@
   </si>
   <si>
     <t>xóa nhánh có tên &lt;branchname&gt;</t>
+  </si>
+  <si>
+    <t>GIT MERGE</t>
+  </si>
+  <si>
+    <t>Giả sử ta có 2 nhánh beta và alpha có nội dung từng nhánh như sau:</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>0.txt</t>
+  </si>
+  <si>
+    <t>update code</t>
+  </si>
+  <si>
+    <t>1.txt</t>
+  </si>
+  <si>
+    <t>sua doi tren 1.txt</t>
+  </si>
+  <si>
+    <t>update source content on 1.txt</t>
+  </si>
+  <si>
+    <t>2.txt</t>
+  </si>
+  <si>
+    <t>sua doi tren 2.txt</t>
+  </si>
+  <si>
+    <t>4.txt</t>
+  </si>
+  <si>
+    <t>tạo mới</t>
+  </si>
+  <si>
+    <t>3.txt</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>sau khi merge</t>
+  </si>
+  <si>
+    <t>sửa đổi: update code</t>
+  </si>
+  <si>
+    <t>không sửa đổi</t>
+  </si>
+  <si>
+    <t>→ lấy commit beta</t>
+  </si>
+  <si>
+    <t>sửa đổi: sua doi tren 1.txt</t>
+  </si>
+  <si>
+    <t>sửa đổi: update source content on 1.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xung đột</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: không biết lấy commit nhánh nào</t>
+    </r>
+  </si>
+  <si>
+    <t>sửa đổi: sua doi tren 2.txt</t>
+  </si>
+  <si>
+    <t>không có</t>
+  </si>
+  <si>
+    <t>→ lấy commit alpha</t>
+  </si>
+  <si>
+    <t>LỆNH GỘP NHÁNH</t>
+  </si>
+  <si>
+    <t>git checkout beta</t>
+  </si>
+  <si>
+    <t>git merge alpha</t>
+  </si>
+  <si>
+    <t>Gộp nhánh alpha vào nhánh beta (con trỏ đang ở beta)</t>
   </si>
 </sst>
 </file>
@@ -703,12 +811,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +852,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC80808"/>
@@ -751,15 +877,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -779,12 +905,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -828,13 +948,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
@@ -863,9 +976,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,22 +990,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,8 +1012,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,8 +1036,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,54 +1088,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,9 +1104,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,6 +1169,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1068,13 +1193,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,13 +1223,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,30 +1265,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1146,19 +1277,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,72 +1343,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1273,6 +1386,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dashed">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1280,16 +1430,20 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1310,6 +1464,26 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1340,6 +1514,15 @@
       <top/>
       <bottom style="dashed">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,6 +1566,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1400,9 +1592,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,38 +1615,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1462,134 +1636,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1627,169 +1801,193 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1798,19 +1996,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1873,6 +2071,7 @@
       <color rgb="00CCECFF"/>
       <color rgb="00C80808"/>
       <color rgb="00FFFF99"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2403,7 +2602,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="37"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -2432,7 +2631,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="38"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -2461,11 +2660,11 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="38"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="77" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -2494,7 +2693,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="39"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="10"/>
@@ -2523,12 +2722,12 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="40"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" ht="15.75" spans="2:28">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="57" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2556,7 +2755,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="40"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="10"/>
@@ -2585,11 +2784,11 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="40"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:28">
       <c r="B8" s="8"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="77" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2618,7 +2817,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="39"/>
+      <c r="AB8" s="34"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="10"/>
@@ -2647,7 +2846,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="40"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" ht="15.75" spans="2:28">
       <c r="B10" s="10"/>
@@ -2680,7 +2879,7 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="40"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="10"/>
@@ -2709,11 +2908,11 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="40"/>
+      <c r="AB11" s="35"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:28">
       <c r="B12" s="8"/>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2742,7 +2941,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="39"/>
+      <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="10"/>
@@ -2771,15 +2970,15 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="40"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="43" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
@@ -2804,137 +3003,137 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="40"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="50" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="40"/>
+      <c r="AB15" s="35"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="40"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
-      <c r="AB17" s="40"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="40"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="10"/>
@@ -2963,15 +3162,15 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
-      <c r="AB19" s="40"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="12"/>
@@ -2996,450 +3195,450 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="40"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="40"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="40"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" spans="2:28">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="40"/>
+      <c r="AB23" s="35"/>
     </row>
     <row r="24" spans="2:28">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="40"/>
+      <c r="AB24" s="35"/>
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="40"/>
+      <c r="AB25" s="35"/>
     </row>
     <row r="26" spans="2:28">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="40"/>
+      <c r="AB26" s="35"/>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="40"/>
+      <c r="AB27" s="35"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="40"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="40"/>
+      <c r="AB29" s="35"/>
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-      <c r="AB30" s="40"/>
+      <c r="AB30" s="35"/>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="40"/>
+      <c r="AB31" s="35"/>
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="40"/>
+      <c r="AB32" s="35"/>
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AB33" s="40"/>
+      <c r="AB33" s="35"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
-      <c r="AB34" s="40"/>
+      <c r="AB34" s="35"/>
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="40"/>
+      <c r="AB35" s="35"/>
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53" t="s">
+      <c r="D36" s="60"/>
+      <c r="E36" s="61" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="12"/>
@@ -3464,13 +3663,13 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="40"/>
+      <c r="AB36" s="35"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="26"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -3493,13 +3692,13 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="40"/>
+      <c r="AB37" s="35"/>
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -3522,13 +3721,13 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="40"/>
+      <c r="AB38" s="35"/>
     </row>
     <row r="39" spans="2:28">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -3551,13 +3750,13 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
-      <c r="AB39" s="40"/>
+      <c r="AB39" s="35"/>
     </row>
     <row r="40" spans="2:28">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -3580,13 +3779,13 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="40"/>
+      <c r="AB40" s="35"/>
     </row>
     <row r="41" spans="2:28">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -3609,13 +3808,13 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="40"/>
+      <c r="AB41" s="35"/>
     </row>
     <row r="42" spans="2:28">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="26"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -3638,13 +3837,13 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="40"/>
+      <c r="AB42" s="35"/>
     </row>
     <row r="43" spans="2:28">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -3667,13 +3866,13 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="40"/>
+      <c r="AB43" s="35"/>
     </row>
     <row r="44" spans="2:28">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -3696,13 +3895,13 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="40"/>
+      <c r="AB44" s="35"/>
     </row>
     <row r="45" spans="2:28">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="26"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -3725,13 +3924,13 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="40"/>
+      <c r="AB45" s="35"/>
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="26"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3754,13 +3953,13 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="40"/>
+      <c r="AB46" s="35"/>
     </row>
     <row r="47" spans="2:28">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3783,13 +3982,13 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="40"/>
+      <c r="AB47" s="35"/>
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="26"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -3812,13 +4011,13 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="40"/>
+      <c r="AB48" s="35"/>
     </row>
     <row r="49" spans="2:28">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="26"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -3841,13 +4040,13 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="40"/>
+      <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53" t="s">
+      <c r="D50" s="60"/>
+      <c r="E50" s="61" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="12"/>
@@ -3872,13 +4071,13 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
-      <c r="AB50" s="40"/>
+      <c r="AB50" s="35"/>
     </row>
     <row r="51" spans="2:28">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -3901,13 +4100,13 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
-      <c r="AB51" s="40"/>
+      <c r="AB51" s="35"/>
     </row>
     <row r="52" spans="2:28">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="26"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3930,13 +4129,13 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
-      <c r="AB52" s="40"/>
+      <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="2:28">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="26"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3959,13 +4158,13 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
-      <c r="AB53" s="40"/>
+      <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="26"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3988,13 +4187,13 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="40"/>
+      <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28">
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="26"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -4017,13 +4216,13 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
-      <c r="AB55" s="40"/>
+      <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="26"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -4046,13 +4245,13 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
-      <c r="AB56" s="40"/>
+      <c r="AB56" s="35"/>
     </row>
     <row r="57" spans="2:28">
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="26"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -4075,13 +4274,13 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="40"/>
+      <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="26"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -4104,13 +4303,13 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="40"/>
+      <c r="AB58" s="35"/>
     </row>
     <row r="59" spans="2:28">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="26"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="43"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -4133,13 +4332,13 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
-      <c r="AB59" s="40"/>
+      <c r="AB59" s="35"/>
     </row>
     <row r="60" spans="2:28">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="26"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="43"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -4162,13 +4361,13 @@
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
-      <c r="AB60" s="40"/>
+      <c r="AB60" s="35"/>
     </row>
     <row r="61" spans="2:28">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="26"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="43"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -4191,13 +4390,13 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="40"/>
+      <c r="AB61" s="35"/>
     </row>
     <row r="62" spans="2:28">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="26"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -4220,13 +4419,13 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
-      <c r="AB62" s="40"/>
+      <c r="AB62" s="35"/>
     </row>
     <row r="63" spans="2:28">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="26"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -4249,13 +4448,13 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="40"/>
+      <c r="AB63" s="35"/>
     </row>
     <row r="64" spans="2:28">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="26"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -4278,13 +4477,13 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
-      <c r="AB64" s="40"/>
+      <c r="AB64" s="35"/>
     </row>
     <row r="65" spans="2:28">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="26"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -4307,13 +4506,13 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
-      <c r="AB65" s="40"/>
+      <c r="AB65" s="35"/>
     </row>
     <row r="66" spans="2:28">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="26"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="43"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -4336,13 +4535,13 @@
       <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
-      <c r="AB66" s="40"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="26"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="43"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -4365,13 +4564,13 @@
       <c r="Y67" s="12"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
-      <c r="AB67" s="40"/>
+      <c r="AB67" s="35"/>
     </row>
     <row r="68" spans="2:28">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="26"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="43"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -4394,13 +4593,13 @@
       <c r="Y68" s="12"/>
       <c r="Z68" s="12"/>
       <c r="AA68" s="12"/>
-      <c r="AB68" s="40"/>
+      <c r="AB68" s="35"/>
     </row>
     <row r="69" spans="2:28">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="26"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="43"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -4423,13 +4622,13 @@
       <c r="Y69" s="12"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
-      <c r="AB69" s="40"/>
+      <c r="AB69" s="35"/>
     </row>
     <row r="70" spans="2:28">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="26"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -4452,13 +4651,13 @@
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
-      <c r="AB70" s="40"/>
+      <c r="AB70" s="35"/>
     </row>
     <row r="71" spans="2:28">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="26"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -4481,13 +4680,13 @@
       <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
-      <c r="AB71" s="40"/>
+      <c r="AB71" s="35"/>
     </row>
     <row r="72" spans="2:28">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -4510,7 +4709,7 @@
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
-      <c r="AB72" s="40"/>
+      <c r="AB72" s="35"/>
     </row>
     <row r="73" spans="2:28">
       <c r="B73" s="10"/>
@@ -4539,11 +4738,11 @@
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
-      <c r="AB73" s="40"/>
+      <c r="AB73" s="35"/>
     </row>
     <row r="74" ht="20.1" customHeight="1" spans="2:28">
       <c r="B74" s="8"/>
-      <c r="C74" s="69" t="s">
+      <c r="C74" s="77" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -4572,7 +4771,7 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
-      <c r="AB74" s="39"/>
+      <c r="AB74" s="34"/>
     </row>
     <row r="75" spans="2:28">
       <c r="B75" s="10"/>
@@ -4601,15 +4800,15 @@
       <c r="Y75" s="12"/>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
-      <c r="AB75" s="40"/>
+      <c r="AB75" s="35"/>
     </row>
     <row r="76" spans="2:28">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="43" t="s">
         <v>27</v>
       </c>
       <c r="F76" s="12"/>
@@ -4634,16 +4833,16 @@
       <c r="Y76" s="12"/>
       <c r="Z76" s="12"/>
       <c r="AA76" s="12"/>
-      <c r="AB76" s="40"/>
+      <c r="AB76" s="35"/>
     </row>
     <row r="77" spans="2:28">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="42" t="s">
+      <c r="F77" s="54" t="s">
         <v>28</v>
       </c>
       <c r="G77" s="12"/>
@@ -4667,13 +4866,13 @@
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
-      <c r="AB77" s="40"/>
+      <c r="AB77" s="35"/>
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="12" t="s">
@@ -4700,13 +4899,13 @@
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
-      <c r="AB78" s="40"/>
+      <c r="AB78" s="35"/>
     </row>
     <row r="79" spans="2:28">
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="12" t="s">
@@ -4733,19 +4932,19 @@
       <c r="Y79" s="12"/>
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
-      <c r="AB79" s="40"/>
+      <c r="AB79" s="35"/>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="43"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -4758,27 +4957,27 @@
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
-      <c r="AB80" s="40"/>
+      <c r="AB80" s="35"/>
     </row>
     <row r="81" spans="2:28">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="F81" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G81" s="43"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -4791,27 +4990,27 @@
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
-      <c r="T81" s="47"/>
-      <c r="U81" s="47"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
-      <c r="AB81" s="40"/>
+      <c r="AB81" s="35"/>
     </row>
     <row r="82" spans="2:28">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="41" t="s">
+      <c r="D82" s="43"/>
+      <c r="E82" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="42" t="s">
+      <c r="F82" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G82" s="43"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -4824,27 +5023,27 @@
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
-      <c r="AB82" s="40"/>
+      <c r="AB82" s="35"/>
     </row>
     <row r="83" spans="2:28">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="41" t="s">
+      <c r="E83" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="42" t="s">
+      <c r="F83" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -4857,27 +5056,27 @@
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
-      <c r="AB83" s="40"/>
+      <c r="AB83" s="35"/>
     </row>
     <row r="84" spans="2:28">
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -4898,15 +5097,15 @@
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
       <c r="AA84" s="12"/>
-      <c r="AB84" s="40"/>
+      <c r="AB84" s="35"/>
     </row>
     <row r="85" spans="2:28">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="22"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="43"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -4927,15 +5126,15 @@
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
-      <c r="AB85" s="40"/>
+      <c r="AB85" s="35"/>
     </row>
     <row r="86" spans="2:28">
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="70" t="s">
+      <c r="D86" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="43" t="s">
         <v>37</v>
       </c>
       <c r="F86" s="12"/>
@@ -4960,16 +5159,16 @@
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
-      <c r="AB86" s="40"/>
+      <c r="AB86" s="35"/>
     </row>
     <row r="87" spans="2:28">
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="57" t="s">
+      <c r="F87" s="65" t="s">
         <v>38</v>
       </c>
       <c r="G87" s="12"/>
@@ -4993,13 +5192,13 @@
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
-      <c r="AB87" s="40"/>
+      <c r="AB87" s="35"/>
     </row>
     <row r="88" spans="2:28">
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
       <c r="D88" s="12"/>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F88" s="12" t="s">
@@ -5026,82 +5225,82 @@
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
-      <c r="AB88" s="40"/>
+      <c r="AB88" s="35"/>
     </row>
     <row r="89" spans="2:28">
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
       <c r="D89" s="12"/>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="57" t="s">
+      <c r="F89" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="59"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="59"/>
-      <c r="S89" s="59"/>
-      <c r="T89" s="59"/>
-      <c r="U89" s="59"/>
-      <c r="V89" s="59"/>
-      <c r="W89" s="59"/>
-      <c r="X89" s="59"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
+      <c r="N89" s="67"/>
+      <c r="O89" s="67"/>
+      <c r="P89" s="67"/>
+      <c r="Q89" s="67"/>
+      <c r="R89" s="67"/>
+      <c r="S89" s="67"/>
+      <c r="T89" s="67"/>
+      <c r="U89" s="67"/>
+      <c r="V89" s="67"/>
+      <c r="W89" s="67"/>
+      <c r="X89" s="67"/>
       <c r="Y89" s="12"/>
       <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
-      <c r="AB89" s="40"/>
+      <c r="AB89" s="35"/>
     </row>
     <row r="90" spans="2:28">
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
       <c r="D90" s="12"/>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G90" s="58"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
-      <c r="N90" s="59"/>
-      <c r="O90" s="59"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="59"/>
-      <c r="S90" s="59"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="59"/>
-      <c r="V90" s="59"/>
-      <c r="W90" s="59"/>
-      <c r="X90" s="59"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="67"/>
+      <c r="Q90" s="67"/>
+      <c r="R90" s="67"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="67"/>
+      <c r="X90" s="67"/>
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
-      <c r="AB90" s="40"/>
+      <c r="AB90" s="35"/>
     </row>
     <row r="91" spans="2:28">
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="12"/>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="57" t="s">
+      <c r="F91" s="65" t="s">
         <v>42</v>
       </c>
       <c r="G91" s="12"/>
@@ -5117,21 +5316,21 @@
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
-      <c r="AB91" s="40"/>
+      <c r="AB91" s="35"/>
     </row>
     <row r="92" spans="2:28">
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="12" t="s">
@@ -5158,7 +5357,7 @@
       <c r="Y92" s="12"/>
       <c r="Z92" s="12"/>
       <c r="AA92" s="12"/>
-      <c r="AB92" s="40"/>
+      <c r="AB92" s="35"/>
     </row>
     <row r="93" spans="2:28">
       <c r="B93" s="10"/>
@@ -5166,7 +5365,7 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="43"/>
+      <c r="G93" s="55"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -5179,15 +5378,15 @@
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
+      <c r="T93" s="56"/>
+      <c r="U93" s="56"/>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
-      <c r="AB93" s="40"/>
+      <c r="AB93" s="35"/>
     </row>
     <row r="94" spans="2:28">
       <c r="B94" s="10"/>
@@ -5208,15 +5407,15 @@
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
       <c r="Z94" s="12"/>
       <c r="AA94" s="12"/>
-      <c r="AB94" s="40"/>
+      <c r="AB94" s="35"/>
     </row>
     <row r="95" spans="2:28">
       <c r="B95" s="10"/>
@@ -5245,7 +5444,7 @@
       <c r="Y95" s="12"/>
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
-      <c r="AB95" s="40"/>
+      <c r="AB95" s="35"/>
     </row>
     <row r="96" spans="2:28">
       <c r="B96" s="10"/>
@@ -5253,7 +5452,7 @@
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="43"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -5266,15 +5465,15 @@
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
-      <c r="T96" s="47"/>
-      <c r="U96" s="47"/>
+      <c r="T96" s="56"/>
+      <c r="U96" s="56"/>
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
       <c r="Z96" s="12"/>
       <c r="AA96" s="12"/>
-      <c r="AB96" s="40"/>
+      <c r="AB96" s="35"/>
     </row>
     <row r="97" spans="2:28">
       <c r="B97" s="10"/>
@@ -5303,7 +5502,7 @@
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
-      <c r="AB97" s="40"/>
+      <c r="AB97" s="35"/>
     </row>
     <row r="98" spans="2:28">
       <c r="B98" s="10"/>
@@ -5332,7 +5531,7 @@
       <c r="Y98" s="12"/>
       <c r="Z98" s="12"/>
       <c r="AA98" s="12"/>
-      <c r="AB98" s="40"/>
+      <c r="AB98" s="35"/>
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="10"/>
@@ -5340,7 +5539,7 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="43"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -5353,15 +5552,15 @@
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="T99" s="47"/>
-      <c r="U99" s="47"/>
+      <c r="T99" s="56"/>
+      <c r="U99" s="56"/>
       <c r="V99" s="12"/>
       <c r="W99" s="12"/>
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
-      <c r="AB99" s="40"/>
+      <c r="AB99" s="35"/>
     </row>
     <row r="100" spans="2:28">
       <c r="B100" s="10"/>
@@ -5390,7 +5589,7 @@
       <c r="Y100" s="12"/>
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
-      <c r="AB100" s="40"/>
+      <c r="AB100" s="35"/>
     </row>
     <row r="101" spans="2:28">
       <c r="B101" s="10"/>
@@ -5419,7 +5618,7 @@
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
-      <c r="AB101" s="40"/>
+      <c r="AB101" s="35"/>
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="10"/>
@@ -5427,7 +5626,7 @@
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="43"/>
+      <c r="G102" s="55"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
@@ -5440,15 +5639,15 @@
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
-      <c r="T102" s="47"/>
-      <c r="U102" s="47"/>
+      <c r="T102" s="56"/>
+      <c r="U102" s="56"/>
       <c r="V102" s="12"/>
       <c r="W102" s="12"/>
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
-      <c r="AB102" s="40"/>
+      <c r="AB102" s="35"/>
     </row>
     <row r="103" spans="2:28">
       <c r="B103" s="10"/>
@@ -5477,7 +5676,7 @@
       <c r="Y103" s="12"/>
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
-      <c r="AB103" s="40"/>
+      <c r="AB103" s="35"/>
     </row>
     <row r="104" spans="2:28">
       <c r="B104" s="10"/>
@@ -5498,15 +5697,15 @@
       <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
-      <c r="T104" s="47"/>
-      <c r="U104" s="47"/>
+      <c r="T104" s="56"/>
+      <c r="U104" s="56"/>
       <c r="V104" s="12"/>
       <c r="W104" s="12"/>
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
       <c r="Z104" s="12"/>
       <c r="AA104" s="12"/>
-      <c r="AB104" s="40"/>
+      <c r="AB104" s="35"/>
     </row>
     <row r="105" spans="2:28">
       <c r="B105" s="10"/>
@@ -5514,7 +5713,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="43"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
@@ -5527,15 +5726,15 @@
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
-      <c r="T105" s="47"/>
-      <c r="U105" s="47"/>
+      <c r="T105" s="56"/>
+      <c r="U105" s="56"/>
       <c r="V105" s="12"/>
       <c r="W105" s="12"/>
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
-      <c r="AB105" s="40"/>
+      <c r="AB105" s="35"/>
     </row>
     <row r="106" spans="2:28">
       <c r="B106" s="10"/>
@@ -5564,7 +5763,7 @@
       <c r="Y106" s="12"/>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
-      <c r="AB106" s="40"/>
+      <c r="AB106" s="35"/>
     </row>
     <row r="107" spans="2:28">
       <c r="B107" s="10"/>
@@ -5585,15 +5784,15 @@
       <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
-      <c r="T107" s="47"/>
-      <c r="U107" s="47"/>
+      <c r="T107" s="56"/>
+      <c r="U107" s="56"/>
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
       <c r="Z107" s="12"/>
       <c r="AA107" s="12"/>
-      <c r="AB107" s="40"/>
+      <c r="AB107" s="35"/>
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="10"/>
@@ -5601,7 +5800,7 @@
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="43"/>
+      <c r="G108" s="55"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -5614,27 +5813,27 @@
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
-      <c r="T108" s="47"/>
-      <c r="U108" s="47"/>
+      <c r="T108" s="56"/>
+      <c r="U108" s="56"/>
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
       <c r="Z108" s="12"/>
       <c r="AA108" s="12"/>
-      <c r="AB108" s="40"/>
+      <c r="AB108" s="35"/>
     </row>
     <row r="109" spans="2:28">
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="70" t="s">
+      <c r="D109" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="43" t="s">
         <v>45</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="43"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
@@ -5647,27 +5846,27 @@
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
-      <c r="T109" s="47"/>
-      <c r="U109" s="47"/>
+      <c r="T109" s="56"/>
+      <c r="U109" s="56"/>
       <c r="V109" s="12"/>
       <c r="W109" s="12"/>
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
       <c r="Z109" s="12"/>
       <c r="AA109" s="12"/>
-      <c r="AB109" s="40"/>
+      <c r="AB109" s="35"/>
     </row>
     <row r="110" spans="2:28">
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="56" t="s">
+      <c r="E110" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F110" s="57" t="s">
+      <c r="F110" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="43"/>
+      <c r="G110" s="55"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
@@ -5680,30 +5879,30 @@
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
-      <c r="T110" s="47"/>
-      <c r="U110" s="47"/>
+      <c r="T110" s="56"/>
+      <c r="U110" s="56"/>
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
-      <c r="AB110" s="40"/>
+      <c r="AB110" s="35"/>
     </row>
     <row r="111" spans="2:28">
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
       <c r="D111" s="12"/>
-      <c r="E111" s="22" t="s">
+      <c r="E111" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="60" t="s">
+      <c r="F111" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G111" s="61"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
@@ -5713,27 +5912,27 @@
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
-      <c r="T111" s="47"/>
-      <c r="U111" s="47"/>
+      <c r="T111" s="56"/>
+      <c r="U111" s="56"/>
       <c r="V111" s="12"/>
       <c r="W111" s="12"/>
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
       <c r="Z111" s="12"/>
       <c r="AA111" s="12"/>
-      <c r="AB111" s="40"/>
+      <c r="AB111" s="35"/>
     </row>
     <row r="112" spans="2:28">
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="56" t="s">
+      <c r="E112" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="57" t="s">
+      <c r="F112" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G112" s="43"/>
+      <c r="G112" s="55"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
@@ -5746,30 +5945,30 @@
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
-      <c r="T112" s="47"/>
-      <c r="U112" s="47"/>
+      <c r="T112" s="56"/>
+      <c r="U112" s="56"/>
       <c r="V112" s="12"/>
       <c r="W112" s="12"/>
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
       <c r="Z112" s="12"/>
       <c r="AA112" s="12"/>
-      <c r="AB112" s="40"/>
+      <c r="AB112" s="35"/>
     </row>
     <row r="113" spans="2:28">
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="22" t="s">
+      <c r="E113" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="60" t="s">
+      <c r="F113" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G113" s="61"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
@@ -5779,27 +5978,27 @@
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
-      <c r="T113" s="47"/>
-      <c r="U113" s="47"/>
+      <c r="T113" s="56"/>
+      <c r="U113" s="56"/>
       <c r="V113" s="12"/>
       <c r="W113" s="12"/>
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
       <c r="Z113" s="12"/>
       <c r="AA113" s="12"/>
-      <c r="AB113" s="40"/>
+      <c r="AB113" s="35"/>
     </row>
     <row r="114" spans="2:28">
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="56" t="s">
+      <c r="E114" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F114" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="G114" s="43"/>
+      <c r="G114" s="55"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
@@ -5812,30 +6011,30 @@
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
-      <c r="T114" s="47"/>
-      <c r="U114" s="47"/>
+      <c r="T114" s="56"/>
+      <c r="U114" s="56"/>
       <c r="V114" s="12"/>
       <c r="W114" s="12"/>
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
-      <c r="AB114" s="40"/>
+      <c r="AB114" s="35"/>
     </row>
     <row r="115" spans="2:28">
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="22" t="s">
+      <c r="E115" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="60" t="s">
+      <c r="F115" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G115" s="61"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
@@ -5845,27 +6044,27 @@
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
-      <c r="T115" s="47"/>
-      <c r="U115" s="47"/>
+      <c r="T115" s="56"/>
+      <c r="U115" s="56"/>
       <c r="V115" s="12"/>
       <c r="W115" s="12"/>
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
       <c r="Z115" s="12"/>
       <c r="AA115" s="12"/>
-      <c r="AB115" s="40"/>
+      <c r="AB115" s="35"/>
     </row>
     <row r="116" spans="2:28">
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F116" s="57" t="s">
+      <c r="F116" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G116" s="43"/>
+      <c r="G116" s="55"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -5878,77 +6077,77 @@
       <c r="Q116" s="12"/>
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
-      <c r="T116" s="47"/>
-      <c r="U116" s="47"/>
+      <c r="T116" s="56"/>
+      <c r="U116" s="56"/>
       <c r="V116" s="12"/>
       <c r="W116" s="12"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
       <c r="AA116" s="12"/>
-      <c r="AB116" s="40"/>
+      <c r="AB116" s="35"/>
     </row>
     <row r="117" spans="2:28">
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
       <c r="D117" s="12"/>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="60" t="s">
+      <c r="F117" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G117" s="61"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="62"/>
-      <c r="J117" s="62"/>
-      <c r="K117" s="62"/>
-      <c r="L117" s="62"/>
-      <c r="M117" s="62"/>
-      <c r="N117" s="62"/>
-      <c r="O117" s="62"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
+      <c r="K117" s="70"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+      <c r="N117" s="70"/>
+      <c r="O117" s="70"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
+      <c r="T117" s="56"/>
+      <c r="U117" s="56"/>
       <c r="V117" s="12"/>
       <c r="W117" s="12"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
       <c r="Z117" s="12"/>
       <c r="AA117" s="12"/>
-      <c r="AB117" s="40"/>
+      <c r="AB117" s="35"/>
     </row>
     <row r="118" spans="2:28">
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="63"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="13"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="23"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
-      <c r="T118" s="47"/>
-      <c r="U118" s="47"/>
+      <c r="T118" s="56"/>
+      <c r="U118" s="56"/>
       <c r="V118" s="12"/>
       <c r="W118" s="12"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
       <c r="Z118" s="12"/>
       <c r="AA118" s="12"/>
-      <c r="AB118" s="40"/>
+      <c r="AB118" s="35"/>
     </row>
     <row r="119" spans="2:28">
       <c r="B119" s="10"/>
@@ -5956,7 +6155,7 @@
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
-      <c r="G119" s="43"/>
+      <c r="G119" s="55"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
@@ -5969,19 +6168,19 @@
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
+      <c r="T119" s="56"/>
+      <c r="U119" s="56"/>
       <c r="V119" s="12"/>
       <c r="W119" s="12"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
       <c r="Z119" s="12"/>
       <c r="AA119" s="12"/>
-      <c r="AB119" s="40"/>
+      <c r="AB119" s="35"/>
     </row>
     <row r="120" ht="20.1" customHeight="1" spans="2:28">
       <c r="B120" s="8"/>
-      <c r="C120" s="69" t="s">
+      <c r="C120" s="77" t="s">
         <v>54</v>
       </c>
       <c r="D120" s="9" t="s">
@@ -6010,7 +6209,7 @@
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
-      <c r="AB120" s="39"/>
+      <c r="AB120" s="34"/>
     </row>
     <row r="121" spans="2:28">
       <c r="B121" s="10"/>
@@ -6039,15 +6238,15 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
-      <c r="AB121" s="40"/>
+      <c r="AB121" s="35"/>
     </row>
     <row r="122" spans="2:28">
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
-      <c r="D122" s="70" t="s">
+      <c r="D122" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="43" t="s">
         <v>57</v>
       </c>
       <c r="F122" s="12"/>
@@ -6072,13 +6271,13 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="12"/>
       <c r="AA122" s="12"/>
-      <c r="AB122" s="40"/>
+      <c r="AB122" s="35"/>
     </row>
     <row r="123" spans="2:28">
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="57" t="s">
+      <c r="D123" s="43"/>
+      <c r="E123" s="65" t="s">
         <v>58</v>
       </c>
       <c r="F123" s="12"/>
@@ -6103,12 +6302,12 @@
       <c r="Y123" s="12"/>
       <c r="Z123" s="12"/>
       <c r="AA123" s="12"/>
-      <c r="AB123" s="40"/>
+      <c r="AB123" s="35"/>
     </row>
     <row r="124" spans="2:28">
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
-      <c r="D124" s="65"/>
+      <c r="D124" s="73"/>
       <c r="E124" s="12" t="s">
         <v>59</v>
       </c>
@@ -6124,26 +6323,26 @@
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
-      <c r="R124" s="65"/>
-      <c r="S124" s="22" t="s">
+      <c r="R124" s="73"/>
+      <c r="S124" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T124" s="14" t="s">
+      <c r="T124" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="U124" s="15"/>
-      <c r="V124" s="15"/>
+      <c r="U124" s="25"/>
+      <c r="V124" s="25"/>
       <c r="W124" s="12"/>
       <c r="X124" s="12"/>
       <c r="Y124" s="12"/>
       <c r="Z124" s="12"/>
       <c r="AA124" s="12"/>
-      <c r="AB124" s="40"/>
+      <c r="AB124" s="35"/>
     </row>
     <row r="125" spans="2:28">
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
-      <c r="D125" s="65"/>
+      <c r="D125" s="73"/>
       <c r="E125" s="12" t="s">
         <v>61</v>
       </c>
@@ -6169,17 +6368,17 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="12"/>
       <c r="AA125" s="12"/>
-      <c r="AB125" s="40"/>
+      <c r="AB125" s="35"/>
     </row>
     <row r="126" spans="2:28">
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="12"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="66" t="s">
+      <c r="E126" s="73"/>
+      <c r="F126" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="67" t="s">
+      <c r="G126" s="75" t="s">
         <v>62</v>
       </c>
       <c r="H126" s="12"/>
@@ -6202,17 +6401,17 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="12"/>
       <c r="AA126" s="12"/>
-      <c r="AB126" s="40"/>
+      <c r="AB126" s="35"/>
     </row>
     <row r="127" spans="2:28">
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
       <c r="D127" s="12"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="22" t="s">
+      <c r="E127" s="73"/>
+      <c r="F127" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="30" t="s">
+      <c r="G127" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H127" s="12"/>
@@ -6235,20 +6434,20 @@
       <c r="Y127" s="12"/>
       <c r="Z127" s="12"/>
       <c r="AA127" s="12"/>
-      <c r="AB127" s="40"/>
+      <c r="AB127" s="35"/>
     </row>
     <row r="128" spans="2:28">
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
       <c r="D128" s="12"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="22" t="s">
+      <c r="E128" s="73"/>
+      <c r="F128" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G128" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H128" s="14"/>
+      <c r="H128" s="24"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
@@ -6268,17 +6467,17 @@
       <c r="Y128" s="12"/>
       <c r="Z128" s="12"/>
       <c r="AA128" s="12"/>
-      <c r="AB128" s="40"/>
+      <c r="AB128" s="35"/>
     </row>
     <row r="129" spans="2:28">
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
       <c r="D129" s="12"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="66" t="s">
+      <c r="E129" s="73"/>
+      <c r="F129" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="67" t="s">
+      <c r="G129" s="75" t="s">
         <v>65</v>
       </c>
       <c r="H129" s="12"/>
@@ -6301,17 +6500,17 @@
       <c r="Y129" s="12"/>
       <c r="Z129" s="12"/>
       <c r="AA129" s="12"/>
-      <c r="AB129" s="40"/>
+      <c r="AB129" s="35"/>
     </row>
     <row r="130" spans="2:28">
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="22" t="s">
+      <c r="E130" s="73"/>
+      <c r="F130" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="30" t="s">
+      <c r="G130" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H130" s="12"/>
@@ -6334,20 +6533,20 @@
       <c r="Y130" s="12"/>
       <c r="Z130" s="12"/>
       <c r="AA130" s="12"/>
-      <c r="AB130" s="40"/>
+      <c r="AB130" s="35"/>
     </row>
     <row r="131" spans="2:28">
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
       <c r="D131" s="12"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="22" t="s">
+      <c r="E131" s="73"/>
+      <c r="F131" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G131" s="71" t="s">
+      <c r="G131" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="H131" s="15"/>
+      <c r="H131" s="25"/>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
@@ -6367,17 +6566,17 @@
       <c r="Y131" s="12"/>
       <c r="Z131" s="12"/>
       <c r="AA131" s="12"/>
-      <c r="AB131" s="40"/>
+      <c r="AB131" s="35"/>
     </row>
     <row r="132" spans="2:28">
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="12"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="66" t="s">
+      <c r="E132" s="64"/>
+      <c r="F132" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="67" t="s">
+      <c r="G132" s="75" t="s">
         <v>67</v>
       </c>
       <c r="H132" s="12"/>
@@ -6400,17 +6599,17 @@
       <c r="Y132" s="12"/>
       <c r="Z132" s="12"/>
       <c r="AA132" s="12"/>
-      <c r="AB132" s="40"/>
+      <c r="AB132" s="35"/>
     </row>
     <row r="133" spans="2:28">
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
       <c r="D133" s="12"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="22" t="s">
+      <c r="E133" s="64"/>
+      <c r="F133" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G133" s="30" t="s">
+      <c r="G133" s="15" t="s">
         <v>68</v>
       </c>
       <c r="H133" s="12"/>
@@ -6433,18 +6632,18 @@
       <c r="Y133" s="12"/>
       <c r="Z133" s="12"/>
       <c r="AA133" s="12"/>
-      <c r="AB133" s="40"/>
+      <c r="AB133" s="35"/>
     </row>
     <row r="134" spans="2:28">
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
-      <c r="D134" s="70" t="s">
+      <c r="D134" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F134" s="57"/>
+      <c r="F134" s="65"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -6466,29 +6665,29 @@
       <c r="Y134" s="12"/>
       <c r="Z134" s="12"/>
       <c r="AA134" s="12"/>
-      <c r="AB134" s="40"/>
+      <c r="AB134" s="35"/>
     </row>
     <row r="135" spans="2:28">
       <c r="B135" s="10"/>
       <c r="C135" s="11"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F135" s="14"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="68"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="76"/>
       <c r="O135" s="12"/>
-      <c r="P135" s="22" t="s">
+      <c r="P135" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="30" t="s">
+      <c r="Q135" s="15" t="s">
         <v>71</v>
       </c>
       <c r="R135" s="12"/>
@@ -6501,25 +6700,25 @@
       <c r="Y135" s="12"/>
       <c r="Z135" s="12"/>
       <c r="AA135" s="12"/>
-      <c r="AB135" s="40"/>
+      <c r="AB135" s="35"/>
     </row>
     <row r="136" spans="2:28">
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
       <c r="D136" s="12"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="65"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="23"/>
+      <c r="N136" s="73"/>
       <c r="O136" s="12"/>
-      <c r="P136" s="22"/>
-      <c r="Q136" s="30"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="15"/>
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
       <c r="T136" s="12"/>
@@ -6530,29 +6729,29 @@
       <c r="Y136" s="12"/>
       <c r="Z136" s="12"/>
       <c r="AA136" s="12"/>
-      <c r="AB136" s="40"/>
+      <c r="AB136" s="35"/>
     </row>
     <row r="137" spans="2:28">
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
       <c r="D137" s="12"/>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="68"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="76"/>
       <c r="O137" s="12"/>
-      <c r="P137" s="22" t="s">
+      <c r="P137" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q137" s="30" t="s">
+      <c r="Q137" s="15" t="s">
         <v>73</v>
       </c>
       <c r="R137" s="12"/>
@@ -6565,25 +6764,25 @@
       <c r="Y137" s="12"/>
       <c r="Z137" s="12"/>
       <c r="AA137" s="12"/>
-      <c r="AB137" s="40"/>
+      <c r="AB137" s="35"/>
     </row>
     <row r="138" spans="2:28">
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
       <c r="D138" s="12"/>
-      <c r="E138" s="63"/>
-      <c r="F138" s="63"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="65"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
+      <c r="K138" s="23"/>
+      <c r="L138" s="23"/>
+      <c r="M138" s="23"/>
+      <c r="N138" s="73"/>
       <c r="O138" s="12"/>
-      <c r="P138" s="22"/>
-      <c r="Q138" s="30"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="15"/>
       <c r="R138" s="12"/>
       <c r="S138" s="12"/>
       <c r="T138" s="12"/>
@@ -6594,29 +6793,29 @@
       <c r="Y138" s="12"/>
       <c r="Z138" s="12"/>
       <c r="AA138" s="12"/>
-      <c r="AB138" s="40"/>
+      <c r="AB138" s="35"/>
     </row>
     <row r="139" spans="2:28">
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
       <c r="D139" s="12"/>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F139" s="14"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="68"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="76"/>
       <c r="O139" s="12"/>
-      <c r="P139" s="22" t="s">
+      <c r="P139" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q139" s="30" t="s">
+      <c r="Q139" s="15" t="s">
         <v>74</v>
       </c>
       <c r="R139" s="12"/>
@@ -6629,36 +6828,36 @@
       <c r="Y139" s="12"/>
       <c r="Z139" s="12"/>
       <c r="AA139" s="12"/>
-      <c r="AB139" s="40"/>
+      <c r="AB139" s="35"/>
     </row>
     <row r="140" ht="15.75" spans="2:28">
-      <c r="B140" s="44"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
-      <c r="I140" s="46"/>
-      <c r="J140" s="46"/>
-      <c r="K140" s="46"/>
-      <c r="L140" s="46"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="46"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="46"/>
-      <c r="Q140" s="46"/>
-      <c r="R140" s="46"/>
-      <c r="S140" s="46"/>
-      <c r="T140" s="46"/>
-      <c r="U140" s="46"/>
-      <c r="V140" s="46"/>
-      <c r="W140" s="46"/>
-      <c r="X140" s="46"/>
-      <c r="Y140" s="46"/>
-      <c r="Z140" s="46"/>
-      <c r="AA140" s="46"/>
-      <c r="AB140" s="48"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="31"/>
+      <c r="M140" s="31"/>
+      <c r="N140" s="31"/>
+      <c r="O140" s="31"/>
+      <c r="P140" s="31"/>
+      <c r="Q140" s="31"/>
+      <c r="R140" s="31"/>
+      <c r="S140" s="31"/>
+      <c r="T140" s="31"/>
+      <c r="U140" s="31"/>
+      <c r="V140" s="31"/>
+      <c r="W140" s="31"/>
+      <c r="X140" s="31"/>
+      <c r="Y140" s="31"/>
+      <c r="Z140" s="31"/>
+      <c r="AA140" s="31"/>
+      <c r="AB140" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6724,7 +6923,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="37"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -6753,7 +6952,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="38"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -6782,11 +6981,11 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="38"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="77" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -6815,7 +7014,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="39"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="10"/>
@@ -6844,25 +7043,25 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="40"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" ht="15.75" spans="2:28">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="12"/>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="15" t="s">
         <v>77</v>
       </c>
       <c r="O6" s="12"/>
@@ -6878,7 +7077,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="40"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="10"/>
@@ -6901,25 +7100,25 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="40"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" ht="15.75" spans="2:28">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="12"/>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="15" t="s">
         <v>79</v>
       </c>
       <c r="O8" s="12"/>
@@ -6935,7 +7134,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="40"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="10"/>
@@ -6964,7 +7163,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="40"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="10"/>
@@ -6993,11 +7192,11 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="40"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:28">
       <c r="B11" s="8"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="77" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -7026,7 +7225,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="39"/>
+      <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="10"/>
@@ -7055,26 +7254,26 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="40"/>
+      <c r="AB12" s="35"/>
     </row>
     <row r="13" ht="15.75" spans="2:28">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="15" t="s">
         <v>82</v>
       </c>
       <c r="O13" s="12"/>
@@ -7090,22 +7289,22 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="40"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="15" t="s">
         <v>83</v>
       </c>
       <c r="O14" s="12"/>
@@ -7121,22 +7320,22 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="40"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="15" t="s">
         <v>84</v>
       </c>
       <c r="O15" s="12"/>
@@ -7152,7 +7351,7 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="40"/>
+      <c r="AB15" s="35"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="10"/>
@@ -7164,10 +7363,10 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="15" t="s">
         <v>85</v>
       </c>
       <c r="O16" s="12"/>
@@ -7183,7 +7382,7 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="40"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="10"/>
@@ -7195,10 +7394,10 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="15" t="s">
         <v>86</v>
       </c>
       <c r="O17" s="12"/>
@@ -7214,7 +7413,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
-      <c r="AB17" s="40"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="10"/>
@@ -7243,11 +7442,11 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="40"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:28">
       <c r="B19" s="8"/>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -7276,7 +7475,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
-      <c r="AB19" s="39"/>
+      <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="10"/>
@@ -7305,156 +7504,156 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="40"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" ht="15.75" spans="2:28">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="22" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="40"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" ht="15.75" spans="2:28">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="22" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="30" t="s">
+      <c r="N22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="40"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" ht="15.75" spans="2:28">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="40"/>
+      <c r="AB23" s="35"/>
     </row>
     <row r="24" ht="15.75" spans="2:28">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="40"/>
+      <c r="AB24" s="35"/>
     </row>
     <row r="25" ht="15.75" spans="2:28">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="31"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -7472,12 +7671,12 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="40"/>
+      <c r="AB25" s="35"/>
     </row>
     <row r="26" ht="15.75" spans="2:28">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="12"/>
@@ -7503,22 +7702,22 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="40"/>
+      <c r="AB26" s="35"/>
     </row>
     <row r="27" ht="15.75" spans="2:28">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="31"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -7536,7 +7735,7 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="40"/>
+      <c r="AB27" s="35"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="10"/>
@@ -7565,28 +7764,28 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="40"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" ht="15.75" spans="2:28">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="30" t="s">
+      <c r="N29" s="15" t="s">
         <v>96</v>
       </c>
       <c r="O29" s="12"/>
@@ -7602,12 +7801,12 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="40"/>
+      <c r="AB29" s="35"/>
     </row>
     <row r="30" ht="15.75" spans="2:28">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="12"/>
@@ -7618,10 +7817,10 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="30" t="s">
+      <c r="N30" s="15" t="s">
         <v>97</v>
       </c>
       <c r="O30" s="12"/>
@@ -7637,15 +7836,15 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-      <c r="AB30" s="40"/>
+      <c r="AB30" s="35"/>
     </row>
     <row r="31" ht="15.75" spans="2:28">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="26"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -7653,10 +7852,10 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="22" t="s">
+      <c r="M31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="30" t="s">
+      <c r="N31" s="15" t="s">
         <v>98</v>
       </c>
       <c r="O31" s="12"/>
@@ -7672,15 +7871,15 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="40"/>
+      <c r="AB31" s="35"/>
     </row>
     <row r="32" ht="15.75" spans="2:28">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -7688,10 +7887,10 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="30" t="s">
+      <c r="N32" s="15" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="12"/>
@@ -7707,28 +7906,28 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="40"/>
+      <c r="AB32" s="35"/>
     </row>
     <row r="33" ht="15.75" spans="2:28">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="N33" s="15" t="s">
         <v>101</v>
       </c>
       <c r="O33" s="12"/>
@@ -7744,13 +7943,13 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AB33" s="40"/>
+      <c r="AB33" s="35"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -7758,16 +7957,16 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="22" t="s">
+      <c r="M34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="73" t="s">
+      <c r="N34" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="O34" s="34" t="s">
+      <c r="O34" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P34" s="35" t="s">
+      <c r="P34" s="51" t="s">
         <v>103</v>
       </c>
       <c r="Q34" s="12"/>
@@ -7781,13 +7980,13 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
-      <c r="AB34" s="40"/>
+      <c r="AB34" s="35"/>
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -7795,16 +7994,16 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="22" t="s">
+      <c r="M35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="33" t="s">
+      <c r="N35" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="O35" s="34" t="s">
+      <c r="O35" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P35" s="35" t="s">
+      <c r="P35" s="51" t="s">
         <v>40</v>
       </c>
       <c r="Q35" s="12"/>
@@ -7818,13 +8017,13 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="40"/>
+      <c r="AB35" s="35"/>
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -7832,16 +8031,16 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="33" t="s">
+      <c r="N36" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="O36" s="34" t="s">
+      <c r="O36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="35" t="s">
+      <c r="P36" s="51" t="s">
         <v>106</v>
       </c>
       <c r="Q36" s="12"/>
@@ -7855,13 +8054,13 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="40"/>
+      <c r="AB36" s="35"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -7869,16 +8068,16 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="22" t="s">
+      <c r="M37" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="33" t="s">
+      <c r="N37" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="O37" s="34" t="s">
+      <c r="O37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P37" s="35" t="s">
+      <c r="P37" s="51" t="s">
         <v>108</v>
       </c>
       <c r="Q37" s="12"/>
@@ -7892,13 +8091,13 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="40"/>
+      <c r="AB37" s="35"/>
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -7906,16 +8105,16 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="22" t="s">
+      <c r="M38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="33" t="s">
+      <c r="N38" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="O38" s="34" t="s">
+      <c r="O38" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P38" s="35" t="s">
+      <c r="P38" s="51" t="s">
         <v>110</v>
       </c>
       <c r="Q38" s="12"/>
@@ -7929,13 +8128,13 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="40"/>
+      <c r="AB38" s="35"/>
     </row>
     <row r="39" spans="2:28">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -7943,16 +8142,16 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="22" t="s">
+      <c r="M39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="33" t="s">
+      <c r="N39" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="O39" s="34" t="s">
+      <c r="O39" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P39" s="35" t="s">
+      <c r="P39" s="51" t="s">
         <v>112</v>
       </c>
       <c r="Q39" s="12"/>
@@ -7966,13 +8165,13 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
-      <c r="AB39" s="40"/>
+      <c r="AB39" s="35"/>
     </row>
     <row r="40" spans="2:28">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -7980,16 +8179,16 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="33" t="s">
+      <c r="N40" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="O40" s="34" t="s">
+      <c r="O40" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="P40" s="35" t="s">
+      <c r="P40" s="51" t="s">
         <v>114</v>
       </c>
       <c r="Q40" s="12"/>
@@ -8003,13 +8202,13 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="40"/>
+      <c r="AB40" s="35"/>
     </row>
     <row r="41" spans="2:28">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -8017,10 +8216,10 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="30"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="15"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
@@ -8032,32 +8231,32 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="40"/>
+      <c r="AB41" s="35"/>
     </row>
     <row r="42" ht="15.75" spans="2:28">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="22" t="s">
+      <c r="M42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="30" t="s">
+      <c r="N42" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="O42" s="34"/>
-      <c r="P42" s="30"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="15"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
@@ -8069,15 +8268,15 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="40"/>
+      <c r="AB42" s="35"/>
     </row>
     <row r="43" ht="15.75" spans="2:28">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -8085,10 +8284,10 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-      <c r="M43" s="22" t="s">
+      <c r="M43" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="30" t="s">
+      <c r="N43" s="15" t="s">
         <v>117</v>
       </c>
       <c r="O43" s="12"/>
@@ -8104,15 +8303,15 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="40"/>
+      <c r="AB43" s="35"/>
     </row>
     <row r="44" ht="15.75" spans="2:28">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -8120,10 +8319,10 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-      <c r="M44" s="22" t="s">
+      <c r="M44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="30" t="s">
+      <c r="N44" s="15" t="s">
         <v>118</v>
       </c>
       <c r="O44" s="12"/>
@@ -8139,28 +8338,28 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="40"/>
+      <c r="AB44" s="35"/>
     </row>
     <row r="45" ht="15.75" spans="2:28">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
-      <c r="M45" s="22" t="s">
+      <c r="M45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="30" t="s">
+      <c r="N45" s="15" t="s">
         <v>120</v>
       </c>
       <c r="O45" s="12"/>
@@ -8176,15 +8375,15 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="40"/>
+      <c r="AB45" s="35"/>
     </row>
     <row r="46" ht="15.75" spans="2:28">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -8192,7 +8391,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -8206,28 +8405,28 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="40"/>
+      <c r="AB46" s="35"/>
     </row>
     <row r="47" ht="15.75" spans="2:28">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
-      <c r="M47" s="22" t="s">
+      <c r="M47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="30" t="s">
+      <c r="N47" s="15" t="s">
         <v>122</v>
       </c>
       <c r="O47" s="12"/>
@@ -8243,13 +8442,13 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="40"/>
+      <c r="AB47" s="35"/>
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -8257,8 +8456,8 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="30"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
@@ -8272,28 +8471,28 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="40"/>
+      <c r="AB48" s="35"/>
     </row>
     <row r="49" ht="15.75" spans="2:28">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
-      <c r="M49" s="22" t="s">
+      <c r="M49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="30" t="s">
+      <c r="N49" s="15" t="s">
         <v>124</v>
       </c>
       <c r="O49" s="12"/>
@@ -8309,13 +8508,13 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="40"/>
+      <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -8323,8 +8522,8 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="30"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -8338,28 +8537,28 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
-      <c r="AB50" s="40"/>
+      <c r="AB50" s="35"/>
     </row>
     <row r="51" ht="15.75" spans="2:28">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
-      <c r="M51" s="22" t="s">
+      <c r="M51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="30" t="s">
+      <c r="N51" s="15" t="s">
         <v>126</v>
       </c>
       <c r="O51" s="12"/>
@@ -8375,15 +8574,15 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
-      <c r="AB51" s="40"/>
+      <c r="AB51" s="35"/>
     </row>
     <row r="52" ht="15.75" spans="2:28">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="26"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -8391,10 +8590,10 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="22" t="s">
+      <c r="M52" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="30" t="s">
+      <c r="N52" s="15" t="s">
         <v>127</v>
       </c>
       <c r="O52" s="12"/>
@@ -8410,28 +8609,28 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
-      <c r="AB52" s="40"/>
+      <c r="AB52" s="35"/>
     </row>
     <row r="53" ht="15.75" spans="2:28">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
-      <c r="M53" s="22" t="s">
+      <c r="M53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N53" s="30" t="s">
+      <c r="N53" s="15" t="s">
         <v>129</v>
       </c>
       <c r="O53" s="12"/>
@@ -8447,25 +8646,25 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
-      <c r="AB53" s="40"/>
+      <c r="AB53" s="35"/>
     </row>
     <row r="54" ht="15.75" spans="1:28">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="72" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="30"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -8479,29 +8678,29 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="40"/>
+      <c r="AB54" s="35"/>
     </row>
     <row r="55" ht="15.75" spans="1:28">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="13" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="22" t="s">
+      <c r="M55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="30" t="s">
+      <c r="N55" s="15" t="s">
         <v>131</v>
       </c>
       <c r="O55" s="12"/>
@@ -8517,25 +8716,25 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
-      <c r="AB55" s="40"/>
+      <c r="AB55" s="35"/>
     </row>
     <row r="56" ht="15.75" spans="1:28">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="72" t="s">
+      <c r="A56" s="44"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="30"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -8549,29 +8748,29 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
-      <c r="AB56" s="40"/>
+      <c r="AB56" s="35"/>
     </row>
     <row r="57" ht="15.75" spans="1:28">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="13" t="s">
+      <c r="A57" s="44"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="22" t="s">
+      <c r="M57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="30" t="s">
+      <c r="N57" s="15" t="s">
         <v>133</v>
       </c>
       <c r="O57" s="12"/>
@@ -8587,13 +8786,13 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="40"/>
+      <c r="AB57" s="35"/>
     </row>
     <row r="58" ht="15.75" spans="2:28">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8601,8 +8800,8 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="30"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -8616,28 +8815,28 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="40"/>
+      <c r="AB58" s="35"/>
     </row>
     <row r="59" ht="15.75" spans="2:28">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
-      <c r="M59" s="22" t="s">
+      <c r="M59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="30" t="s">
+      <c r="N59" s="15" t="s">
         <v>135</v>
       </c>
       <c r="O59" s="12"/>
@@ -8653,15 +8852,15 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
-      <c r="AB59" s="40"/>
+      <c r="AB59" s="35"/>
     </row>
     <row r="60" ht="15.75" spans="2:28">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="26"/>
+      <c r="E60" s="43"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -8669,8 +8868,8 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="30"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -8684,28 +8883,28 @@
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
-      <c r="AB60" s="40"/>
+      <c r="AB60" s="35"/>
     </row>
     <row r="61" ht="15.75" spans="2:28">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
-      <c r="M61" s="22" t="s">
+      <c r="M61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="30" t="s">
+      <c r="N61" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O61" s="12"/>
@@ -8721,22 +8920,22 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="40"/>
+      <c r="AB61" s="35"/>
     </row>
     <row r="62" spans="2:28">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="30"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -8750,28 +8949,28 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
-      <c r="AB62" s="40"/>
+      <c r="AB62" s="35"/>
     </row>
     <row r="63" ht="15.75" spans="2:28">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
-      <c r="M63" s="22" t="s">
+      <c r="M63" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N63" s="30" t="s">
+      <c r="N63" s="15" t="s">
         <v>139</v>
       </c>
       <c r="O63" s="12"/>
@@ -8787,24 +8986,24 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="40"/>
+      <c r="AB63" s="35"/>
     </row>
     <row r="64" ht="15.75" spans="2:28">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="72" t="s">
+      <c r="D64" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="30"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -8818,28 +9017,28 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
-      <c r="AB64" s="40"/>
+      <c r="AB64" s="35"/>
     </row>
     <row r="65" ht="15.75" spans="2:28">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
-      <c r="M65" s="22" t="s">
+      <c r="M65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N65" s="30" t="s">
+      <c r="N65" s="15" t="s">
         <v>141</v>
       </c>
       <c r="O65" s="12"/>
@@ -8855,22 +9054,22 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
-      <c r="AB65" s="40"/>
+      <c r="AB65" s="35"/>
     </row>
     <row r="66" ht="15.75" spans="2:28">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="30"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -8884,7 +9083,7 @@
       <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
-      <c r="AB66" s="40"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="10"/>
@@ -8913,11 +9112,11 @@
       <c r="Y67" s="12"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
-      <c r="AB67" s="40"/>
+      <c r="AB67" s="35"/>
     </row>
     <row r="68" ht="20.1" customHeight="1" spans="2:28">
       <c r="B68" s="8"/>
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="77" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -8946,7 +9145,7 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
-      <c r="AB68" s="39"/>
+      <c r="AB68" s="34"/>
     </row>
     <row r="69" spans="2:28">
       <c r="B69" s="10"/>
@@ -8975,28 +9174,28 @@
       <c r="Y69" s="12"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
-      <c r="AB69" s="40"/>
+      <c r="AB69" s="35"/>
     </row>
     <row r="70" ht="15.75" spans="2:28">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="22" t="s">
+      <c r="M70" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N70" s="74" t="s">
+      <c r="N70" s="82" t="s">
         <v>144</v>
       </c>
       <c r="O70" s="12"/>
@@ -9012,26 +9211,26 @@
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
-      <c r="AB70" s="40"/>
+      <c r="AB70" s="35"/>
     </row>
     <row r="71" ht="15.75" spans="2:28">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="72" t="s">
+      <c r="D71" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="42"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="54"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
-      <c r="M71" s="22" t="s">
+      <c r="M71" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N71" s="30" t="s">
+      <c r="N71" s="15" t="s">
         <v>145</v>
       </c>
       <c r="O71" s="12"/>
@@ -9047,15 +9246,15 @@
       <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
-      <c r="AB71" s="40"/>
+      <c r="AB71" s="35"/>
     </row>
     <row r="72" ht="15.75" spans="2:28">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E72" s="22"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -9078,28 +9277,28 @@
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
-      <c r="AB72" s="40"/>
+      <c r="AB72" s="35"/>
     </row>
     <row r="73" ht="15.75" spans="2:28">
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
-      <c r="M73" s="22" t="s">
+      <c r="M73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N73" s="30" t="s">
+      <c r="N73" s="15" t="s">
         <v>144</v>
       </c>
       <c r="O73" s="12"/>
@@ -9115,26 +9314,26 @@
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
-      <c r="AB73" s="40"/>
+      <c r="AB73" s="35"/>
     </row>
     <row r="74" ht="15.75" spans="2:28">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
-      <c r="D74" s="72" t="s">
+      <c r="D74" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E74" s="22"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="43"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="22" t="s">
+      <c r="M74" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N74" s="30" t="s">
+      <c r="N74" s="15" t="s">
         <v>147</v>
       </c>
       <c r="O74" s="12"/>
@@ -9142,67 +9341,67 @@
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
-      <c r="T74" s="47"/>
-      <c r="U74" s="47"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
       <c r="Z74" s="12"/>
       <c r="AA74" s="12"/>
-      <c r="AB74" s="40"/>
+      <c r="AB74" s="35"/>
     </row>
     <row r="75" ht="15.75" spans="2:28">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="72" t="s">
+      <c r="D75" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="22"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="43"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="30"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
-      <c r="T75" s="47"/>
-      <c r="U75" s="47"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
-      <c r="AB75" s="40"/>
+      <c r="AB75" s="35"/>
     </row>
     <row r="76" ht="15.75" spans="2:28">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
-      <c r="M76" s="22" t="s">
+      <c r="M76" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N76" s="30" t="s">
+      <c r="N76" s="15" t="s">
         <v>149</v>
       </c>
       <c r="O76" s="12"/>
@@ -9210,32 +9409,32 @@
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
       <c r="V76" s="12"/>
       <c r="W76" s="12"/>
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
       <c r="Z76" s="12"/>
       <c r="AA76" s="12"/>
-      <c r="AB76" s="40"/>
+      <c r="AB76" s="35"/>
     </row>
     <row r="77" spans="2:28">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="22" t="s">
+      <c r="M77" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N77" s="30" t="s">
+      <c r="N77" s="15" t="s">
         <v>150</v>
       </c>
       <c r="O77" s="12"/>
@@ -9243,23 +9442,23 @@
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
-      <c r="T77" s="47"/>
-      <c r="U77" s="47"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
-      <c r="AB77" s="40"/>
+      <c r="AB77" s="35"/>
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="55"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -9272,19 +9471,19 @@
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
-      <c r="T78" s="47"/>
-      <c r="U78" s="47"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
-      <c r="AB78" s="40"/>
+      <c r="AB78" s="35"/>
     </row>
     <row r="79" ht="20.1" customHeight="1" spans="2:28">
       <c r="B79" s="8"/>
-      <c r="C79" s="69" t="s">
+      <c r="C79" s="77" t="s">
         <v>54</v>
       </c>
       <c r="D79" s="9" t="s">
@@ -9313,7 +9512,7 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
-      <c r="AB79" s="39"/>
+      <c r="AB79" s="34"/>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="10"/>
@@ -9342,28 +9541,28 @@
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
-      <c r="AB80" s="40"/>
+      <c r="AB80" s="35"/>
     </row>
     <row r="81" ht="15.75" spans="2:28">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="22" t="s">
+      <c r="M81" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N81" s="30" t="s">
+      <c r="N81" s="15" t="s">
         <v>153</v>
       </c>
       <c r="O81" s="12"/>
@@ -9379,12 +9578,12 @@
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
-      <c r="AB81" s="40"/>
+      <c r="AB81" s="35"/>
     </row>
     <row r="82" ht="15.75" spans="2:28">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="72" t="s">
+      <c r="D82" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E82" s="12"/>
@@ -9395,10 +9594,10 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="22" t="s">
+      <c r="M82" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N82" s="30" t="s">
+      <c r="N82" s="15" t="s">
         <v>154</v>
       </c>
       <c r="O82" s="12"/>
@@ -9414,12 +9613,12 @@
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
-      <c r="AB82" s="40"/>
+      <c r="AB82" s="35"/>
     </row>
     <row r="83" ht="15.75" spans="2:28">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E83" s="12"/>
@@ -9430,10 +9629,10 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
-      <c r="M83" s="22" t="s">
+      <c r="M83" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="30" t="s">
+      <c r="N83" s="15" t="s">
         <v>155</v>
       </c>
       <c r="O83" s="12"/>
@@ -9449,12 +9648,12 @@
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
-      <c r="AB83" s="40"/>
+      <c r="AB83" s="35"/>
     </row>
     <row r="84" ht="15.75" spans="2:28">
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E84" s="12"/>
@@ -9465,10 +9664,10 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
-      <c r="M84" s="22" t="s">
+      <c r="M84" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N84" s="30" t="s">
+      <c r="N84" s="15" t="s">
         <v>156</v>
       </c>
       <c r="O84" s="12"/>
@@ -9484,28 +9683,28 @@
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
       <c r="AA84" s="12"/>
-      <c r="AB84" s="40"/>
+      <c r="AB84" s="35"/>
     </row>
     <row r="85" ht="15.75" spans="2:28">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="22" t="s">
+      <c r="M85" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N85" s="30" t="s">
+      <c r="N85" s="15" t="s">
         <v>158</v>
       </c>
       <c r="O85" s="12"/>
@@ -9521,12 +9720,12 @@
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
-      <c r="AB85" s="40"/>
+      <c r="AB85" s="35"/>
     </row>
     <row r="86" ht="15.75" spans="2:28">
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E86" s="12"/>
@@ -9552,28 +9751,28 @@
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
-      <c r="AB86" s="40"/>
+      <c r="AB86" s="35"/>
     </row>
     <row r="87" ht="15.75" spans="2:28">
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
-      <c r="M87" s="22" t="s">
+      <c r="M87" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N87" s="30" t="s">
+      <c r="N87" s="15" t="s">
         <v>160</v>
       </c>
       <c r="O87" s="12"/>
@@ -9589,7 +9788,7 @@
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
-      <c r="AB87" s="40"/>
+      <c r="AB87" s="35"/>
     </row>
     <row r="88" spans="2:28">
       <c r="B88" s="10"/>
@@ -9618,11 +9817,11 @@
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
-      <c r="AB88" s="40"/>
+      <c r="AB88" s="35"/>
     </row>
     <row r="89" ht="20.1" customHeight="1" spans="2:28">
       <c r="B89" s="8"/>
-      <c r="C89" s="69" t="s">
+      <c r="C89" s="77" t="s">
         <v>161</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -9651,7 +9850,7 @@
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
-      <c r="AB89" s="39"/>
+      <c r="AB89" s="34"/>
     </row>
     <row r="90" spans="2:28">
       <c r="B90" s="10"/>
@@ -9680,28 +9879,28 @@
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
-      <c r="AB90" s="40"/>
+      <c r="AB90" s="35"/>
     </row>
     <row r="91" ht="15.75" spans="2:28">
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="22" t="s">
+      <c r="M91" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="30" t="s">
+      <c r="N91" s="15" t="s">
         <v>164</v>
       </c>
       <c r="O91" s="12"/>
@@ -9717,12 +9916,12 @@
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
-      <c r="AB91" s="40"/>
+      <c r="AB91" s="35"/>
     </row>
     <row r="92" ht="15.75" spans="2:28">
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="72" t="s">
+      <c r="D92" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E92" s="12"/>
@@ -9748,28 +9947,28 @@
       <c r="Y92" s="12"/>
       <c r="Z92" s="12"/>
       <c r="AA92" s="12"/>
-      <c r="AB92" s="40"/>
+      <c r="AB92" s="35"/>
     </row>
     <row r="93" ht="15.75" spans="2:28">
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
-      <c r="M93" s="22" t="s">
+      <c r="M93" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N93" s="30" t="s">
+      <c r="N93" s="15" t="s">
         <v>166</v>
       </c>
       <c r="O93" s="12"/>
@@ -9785,20 +9984,20 @@
       <c r="Y93" s="12"/>
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
-      <c r="AB93" s="40"/>
+      <c r="AB93" s="35"/>
     </row>
     <row r="94" ht="15.75" spans="2:28">
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="72" t="s">
+      <c r="D94" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
@@ -9816,28 +10015,28 @@
       <c r="Y94" s="12"/>
       <c r="Z94" s="12"/>
       <c r="AA94" s="12"/>
-      <c r="AB94" s="40"/>
+      <c r="AB94" s="35"/>
     </row>
     <row r="95" ht="15.75" spans="2:28">
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
-      <c r="M95" s="22" t="s">
+      <c r="M95" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N95" s="30" t="s">
+      <c r="N95" s="15" t="s">
         <v>168</v>
       </c>
       <c r="O95" s="12"/>
@@ -9853,20 +10052,20 @@
       <c r="Y95" s="12"/>
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
-      <c r="AB95" s="40"/>
+      <c r="AB95" s="35"/>
     </row>
     <row r="96" ht="15.75" spans="2:28">
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="72" t="s">
+      <c r="D96" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
@@ -9884,28 +10083,28 @@
       <c r="Y96" s="12"/>
       <c r="Z96" s="12"/>
       <c r="AA96" s="12"/>
-      <c r="AB96" s="40"/>
+      <c r="AB96" s="35"/>
     </row>
     <row r="97" ht="15.75" spans="2:28">
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
-      <c r="M97" s="22" t="s">
+      <c r="M97" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N97" s="30" t="s">
+      <c r="N97" s="15" t="s">
         <v>170</v>
       </c>
       <c r="O97" s="12"/>
@@ -9921,20 +10120,20 @@
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
-      <c r="AB97" s="40"/>
+      <c r="AB97" s="35"/>
     </row>
     <row r="98" ht="15.75" spans="2:28">
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
-      <c r="D98" s="72" t="s">
+      <c r="D98" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
@@ -9952,28 +10151,28 @@
       <c r="Y98" s="12"/>
       <c r="Z98" s="12"/>
       <c r="AA98" s="12"/>
-      <c r="AB98" s="40"/>
+      <c r="AB98" s="35"/>
     </row>
     <row r="99" ht="15.75" spans="2:28">
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
-      <c r="M99" s="22" t="s">
+      <c r="M99" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N99" s="30" t="s">
+      <c r="N99" s="15" t="s">
         <v>172</v>
       </c>
       <c r="O99" s="12"/>
@@ -9989,20 +10188,20 @@
       <c r="Y99" s="12"/>
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
-      <c r="AB99" s="40"/>
+      <c r="AB99" s="35"/>
     </row>
     <row r="100" ht="15.75" spans="2:28">
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="72" t="s">
+      <c r="D100" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
@@ -10020,28 +10219,28 @@
       <c r="Y100" s="12"/>
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
-      <c r="AB100" s="40"/>
+      <c r="AB100" s="35"/>
     </row>
     <row r="101" ht="15.75" spans="2:28">
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
-      <c r="M101" s="22" t="s">
+      <c r="M101" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="30" t="s">
+      <c r="N101" s="15" t="s">
         <v>174</v>
       </c>
       <c r="O101" s="12"/>
@@ -10057,18 +10256,18 @@
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
-      <c r="AB101" s="40"/>
+      <c r="AB101" s="35"/>
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
@@ -10086,28 +10285,28 @@
       <c r="Y102" s="12"/>
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
-      <c r="AB102" s="40"/>
+      <c r="AB102" s="35"/>
     </row>
     <row r="103" ht="15.75" spans="2:28">
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
-      <c r="M103" s="22" t="s">
+      <c r="M103" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N103" s="30" t="s">
+      <c r="N103" s="15" t="s">
         <v>164</v>
       </c>
       <c r="O103" s="12"/>
@@ -10123,20 +10322,20 @@
       <c r="Y103" s="12"/>
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
-      <c r="AB103" s="40"/>
+      <c r="AB103" s="35"/>
     </row>
     <row r="104" ht="15.75" spans="2:28">
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
-      <c r="D104" s="72" t="s">
+      <c r="D104" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
@@ -10154,28 +10353,28 @@
       <c r="Y104" s="12"/>
       <c r="Z104" s="12"/>
       <c r="AA104" s="12"/>
-      <c r="AB104" s="40"/>
+      <c r="AB104" s="35"/>
     </row>
     <row r="105" ht="15.75" spans="2:28">
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
-      <c r="M105" s="22" t="s">
+      <c r="M105" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N105" s="30" t="s">
+      <c r="N105" s="15" t="s">
         <v>177</v>
       </c>
       <c r="O105" s="12"/>
@@ -10191,20 +10390,20 @@
       <c r="Y105" s="12"/>
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
-      <c r="AB105" s="40"/>
+      <c r="AB105" s="35"/>
     </row>
     <row r="106" ht="15.75" spans="2:28">
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
-      <c r="D106" s="72" t="s">
+      <c r="D106" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
@@ -10222,28 +10421,28 @@
       <c r="Y106" s="12"/>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
-      <c r="AB106" s="40"/>
+      <c r="AB106" s="35"/>
     </row>
     <row r="107" ht="15.75" spans="2:28">
       <c r="B107" s="10"/>
       <c r="C107" s="11"/>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
-      <c r="M107" s="22" t="s">
+      <c r="M107" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N107" s="30" t="s">
+      <c r="N107" s="15" t="s">
         <v>179</v>
       </c>
       <c r="O107" s="12"/>
@@ -10259,20 +10458,20 @@
       <c r="Y107" s="12"/>
       <c r="Z107" s="12"/>
       <c r="AA107" s="12"/>
-      <c r="AB107" s="40"/>
+      <c r="AB107" s="35"/>
     </row>
     <row r="108" ht="15.75" spans="2:28">
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
-      <c r="D108" s="72" t="s">
+      <c r="D108" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E108" s="16"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
@@ -10290,28 +10489,28 @@
       <c r="Y108" s="12"/>
       <c r="Z108" s="12"/>
       <c r="AA108" s="12"/>
-      <c r="AB108" s="40"/>
+      <c r="AB108" s="35"/>
     </row>
     <row r="109" ht="15.75" spans="2:28">
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
-      <c r="M109" s="22" t="s">
+      <c r="M109" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N109" s="74" t="s">
+      <c r="N109" s="82" t="s">
         <v>181</v>
       </c>
       <c r="O109" s="12"/>
@@ -10327,18 +10526,18 @@
       <c r="Y109" s="12"/>
       <c r="Z109" s="12"/>
       <c r="AA109" s="12"/>
-      <c r="AB109" s="40"/>
+      <c r="AB109" s="35"/>
     </row>
     <row r="110" spans="2:28">
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
@@ -10356,28 +10555,28 @@
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
-      <c r="AB110" s="40"/>
+      <c r="AB110" s="35"/>
     </row>
     <row r="111" ht="15.75" spans="2:28">
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
-      <c r="M111" s="22" t="s">
+      <c r="M111" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N111" s="30" t="s">
+      <c r="N111" s="15" t="s">
         <v>124</v>
       </c>
       <c r="O111" s="12"/>
@@ -10393,18 +10592,18 @@
       <c r="Y111" s="12"/>
       <c r="Z111" s="12"/>
       <c r="AA111" s="12"/>
-      <c r="AB111" s="40"/>
+      <c r="AB111" s="35"/>
     </row>
     <row r="112" spans="2:28">
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
@@ -10422,11 +10621,11 @@
       <c r="Y112" s="12"/>
       <c r="Z112" s="12"/>
       <c r="AA112" s="12"/>
-      <c r="AB112" s="40"/>
+      <c r="AB112" s="35"/>
     </row>
     <row r="113" ht="20.1" customHeight="1" spans="2:28">
       <c r="B113" s="8"/>
-      <c r="C113" s="69" t="s">
+      <c r="C113" s="77" t="s">
         <v>182</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -10455,18 +10654,18 @@
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
-      <c r="AB113" s="39"/>
+      <c r="AB113" s="34"/>
     </row>
     <row r="114" spans="2:28">
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
@@ -10484,28 +10683,28 @@
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
-      <c r="AB114" s="40"/>
+      <c r="AB114" s="35"/>
     </row>
     <row r="115" ht="15.75" spans="2:28">
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
-      <c r="D115" s="13" t="s">
+      <c r="D115" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
-      <c r="M115" s="22" t="s">
+      <c r="M115" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N115" s="30" t="s">
+      <c r="N115" s="15" t="s">
         <v>185</v>
       </c>
       <c r="O115" s="12"/>
@@ -10521,18 +10720,18 @@
       <c r="Y115" s="12"/>
       <c r="Z115" s="12"/>
       <c r="AA115" s="12"/>
-      <c r="AB115" s="40"/>
+      <c r="AB115" s="35"/>
     </row>
     <row r="116" spans="2:28">
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
@@ -10550,28 +10749,28 @@
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
       <c r="AA116" s="12"/>
-      <c r="AB116" s="40"/>
+      <c r="AB116" s="35"/>
     </row>
     <row r="117" ht="15.75" spans="2:28">
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
-      <c r="M117" s="22" t="s">
+      <c r="M117" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N117" s="30" t="s">
+      <c r="N117" s="15" t="s">
         <v>187</v>
       </c>
       <c r="O117" s="12"/>
@@ -10587,18 +10786,18 @@
       <c r="Y117" s="12"/>
       <c r="Z117" s="12"/>
       <c r="AA117" s="12"/>
-      <c r="AB117" s="40"/>
+      <c r="AB117" s="35"/>
     </row>
     <row r="118" spans="2:28">
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
@@ -10616,28 +10815,28 @@
       <c r="Y118" s="12"/>
       <c r="Z118" s="12"/>
       <c r="AA118" s="12"/>
-      <c r="AB118" s="40"/>
+      <c r="AB118" s="35"/>
     </row>
     <row r="119" ht="15.75" spans="2:28">
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
-      <c r="M119" s="22" t="s">
+      <c r="M119" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N119" s="30" t="s">
+      <c r="N119" s="15" t="s">
         <v>189</v>
       </c>
       <c r="O119" s="12"/>
@@ -10653,18 +10852,18 @@
       <c r="Y119" s="12"/>
       <c r="Z119" s="12"/>
       <c r="AA119" s="12"/>
-      <c r="AB119" s="40"/>
+      <c r="AB119" s="35"/>
     </row>
     <row r="120" spans="2:28">
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
@@ -10682,28 +10881,28 @@
       <c r="Y120" s="12"/>
       <c r="Z120" s="12"/>
       <c r="AA120" s="12"/>
-      <c r="AB120" s="40"/>
+      <c r="AB120" s="35"/>
     </row>
     <row r="121" ht="15.75" spans="2:28">
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
-      <c r="M121" s="22" t="s">
+      <c r="M121" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N121" s="30" t="s">
+      <c r="N121" s="15" t="s">
         <v>191</v>
       </c>
       <c r="O121" s="12"/>
@@ -10719,18 +10918,18 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
-      <c r="AB121" s="40"/>
+      <c r="AB121" s="35"/>
     </row>
     <row r="122" spans="2:28">
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
@@ -10748,36 +10947,36 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="12"/>
       <c r="AA122" s="12"/>
-      <c r="AB122" s="40"/>
-    </row>
-    <row r="123" spans="2:28">
-      <c r="B123" s="44"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
-      <c r="L123" s="46"/>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="46"/>
-      <c r="Q123" s="46"/>
-      <c r="R123" s="46"/>
-      <c r="S123" s="46"/>
-      <c r="T123" s="46"/>
-      <c r="U123" s="46"/>
-      <c r="V123" s="46"/>
-      <c r="W123" s="46"/>
-      <c r="X123" s="46"/>
-      <c r="Y123" s="46"/>
-      <c r="Z123" s="46"/>
-      <c r="AA123" s="46"/>
-      <c r="AB123" s="48"/>
+      <c r="AB122" s="35"/>
+    </row>
+    <row r="123" ht="15.75" spans="2:28">
+      <c r="B123" s="29"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="31"/>
+      <c r="M123" s="31"/>
+      <c r="N123" s="31"/>
+      <c r="O123" s="31"/>
+      <c r="P123" s="31"/>
+      <c r="Q123" s="31"/>
+      <c r="R123" s="31"/>
+      <c r="S123" s="31"/>
+      <c r="T123" s="31"/>
+      <c r="U123" s="31"/>
+      <c r="V123" s="31"/>
+      <c r="W123" s="31"/>
+      <c r="X123" s="31"/>
+      <c r="Y123" s="31"/>
+      <c r="Z123" s="31"/>
+      <c r="AA123" s="31"/>
+      <c r="AB123" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10790,4 +10989,985 @@
     <brk id="67" max="28" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="4" tint="0.599993896298105"/>
+  </sheetPr>
+  <dimension ref="B1:AB28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.57142857142857" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.57142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.57142857142857" style="2"/>
+    <col min="4" max="28" width="4.57142857142857" style="1"/>
+    <col min="29" max="29" width="2.57142857142857" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.57142857142857" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="32"/>
+    </row>
+    <row r="2" spans="2:28">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="33"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="33"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B4" s="8"/>
+      <c r="C4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="34"/>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="35"/>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="35"/>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="35"/>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="35"/>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="35"/>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="35"/>
+    </row>
+    <row r="13" ht="15.75" spans="2:28">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="35"/>
+    </row>
+    <row r="14" ht="15.75" spans="2:28">
+      <c r="B14" s="10"/>
+      <c r="C14" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="35"/>
+    </row>
+    <row r="15" ht="15.75" spans="2:28">
+      <c r="B15" s="10"/>
+      <c r="C15" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" ht="15.75" spans="2:28">
+      <c r="B16" s="10"/>
+      <c r="C16" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="35"/>
+    </row>
+    <row r="17" ht="15.75" spans="2:28">
+      <c r="B17" s="10"/>
+      <c r="C17" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="35"/>
+    </row>
+    <row r="18" ht="15.75" spans="2:28">
+      <c r="B18" s="10"/>
+      <c r="C18" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="35"/>
+    </row>
+    <row r="19" ht="15.75" spans="2:28">
+      <c r="B19" s="10"/>
+      <c r="C19" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="35"/>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="35"/>
+    </row>
+    <row r="21" spans="2:28">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="35"/>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B22" s="8"/>
+      <c r="C22" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="34"/>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="35"/>
+    </row>
+    <row r="24" ht="15.75" spans="2:28">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="35"/>
+    </row>
+    <row r="25" ht="15.75" spans="2:28">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" ht="15.75" spans="2:28">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="35"/>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" ht="15.75" spans="2:28">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AA14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AA15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AA16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AA17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AA18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AA19"/>
+    <mergeCell ref="B1:AB3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="66" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Training_Git.xlsx
+++ b/Training_Git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="18468" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Chung" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="268">
   <si>
     <t>HƯỚNG DẪN SỬ DỤNG GIT VÀ GITHUB</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Cấu hình email</t>
+  </si>
+  <si>
+    <t>git config --list</t>
   </si>
   <si>
     <t>Hiển thị các thông số đã được thiết lập</t>
@@ -906,6 +909,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Tạo ra 2 file id_rsa (</t>
     </r>
     <r>
@@ -998,10 +1007,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -1176,13 +1185,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1191,23 +1193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,9 +1208,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,6 +1246,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1260,6 +1269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1268,23 +1284,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,16 +1306,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,7 +1334,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1364,25 +1373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,7 +1391,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,7 +1517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,25 +1535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,109 +1547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,6 +1743,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1771,30 +1783,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1811,11 +1799,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1828,16 +1814,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1852,28 +1849,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,101 +1879,101 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2062,19 +2059,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,27 +2081,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2137,10 +2107,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,9 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2242,7 +2209,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2254,7 +2221,7 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2367,8 +2334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="4271010"/>
-          <a:ext cx="3011170" cy="2532380"/>
+          <a:off x="1431290" y="4023360"/>
+          <a:ext cx="3091180" cy="2425700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2409,8 +2376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="7261860"/>
-          <a:ext cx="3002915" cy="2105660"/>
+          <a:off x="1431290" y="6869430"/>
+          <a:ext cx="3082925" cy="1938020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2433,8 +2400,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2451,8 +2418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="10071735"/>
-          <a:ext cx="2984500" cy="3468370"/>
+          <a:off x="1431290" y="9473565"/>
+          <a:ext cx="3064510" cy="3194050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2500,8 +2467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="18051780"/>
-          <a:ext cx="4848225" cy="2672080"/>
+          <a:off x="1602740" y="16882110"/>
+          <a:ext cx="4990465" cy="2466340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2553,8 +2520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="781050" y="4949190"/>
-          <a:ext cx="5317490" cy="2987675"/>
+          <a:off x="803910" y="4632960"/>
+          <a:ext cx="5468620" cy="2854325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2587,8 +2554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2011045" y="6854190"/>
-          <a:ext cx="2504440" cy="400050"/>
+          <a:off x="2069465" y="6452235"/>
+          <a:ext cx="2575560" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2663,8 +2630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889000" y="7556500"/>
-          <a:ext cx="782955" cy="242570"/>
+          <a:off x="911860" y="7116445"/>
+          <a:ext cx="800735" cy="233045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2995,20 +2962,20 @@
   <sheetPr/>
   <dimension ref="B1:AB140"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.57142857142857" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.57407407407407" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.57142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.57142857142857" style="2"/>
-    <col min="4" max="5" width="4.57142857142857" style="1"/>
-    <col min="6" max="7" width="4.57142857142857" style="1" customWidth="1"/>
-    <col min="8" max="28" width="4.57142857142857" style="1"/>
-    <col min="29" max="29" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.57142857142857" style="3"/>
+    <col min="1" max="1" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.57407407407407" style="2"/>
+    <col min="4" max="5" width="4.57407407407407" style="1"/>
+    <col min="6" max="7" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="8" max="28" width="4.57407407407407" style="1"/>
+    <col min="29" max="29" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.57407407407407" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -3040,7 +3007,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -3069,7 +3036,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="35"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -3098,11 +3065,11 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="35"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -3131,7 +3098,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="36"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="10"/>
@@ -3160,9 +3127,9 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="37"/>
-    </row>
-    <row r="6" ht="15.75" spans="2:28">
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" ht="15" spans="2:28">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="16" t="s">
@@ -3193,7 +3160,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="37"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="10"/>
@@ -3222,11 +3189,11 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="37"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:28">
       <c r="B8" s="8"/>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -3255,7 +3222,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="36"/>
+      <c r="AB8" s="34"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="10"/>
@@ -3284,9 +3251,9 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="37"/>
-    </row>
-    <row r="10" ht="15.75" spans="2:28">
+      <c r="AB9" s="35"/>
+    </row>
+    <row r="10" ht="15" spans="2:28">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
@@ -3317,7 +3284,7 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="37"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="10"/>
@@ -3346,11 +3313,11 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="37"/>
+      <c r="AB11" s="35"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:28">
       <c r="B12" s="8"/>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="80" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3379,7 +3346,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="36"/>
+      <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="10"/>
@@ -3408,12 +3375,12 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="37"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="81" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -3441,13 +3408,13 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="37"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="61" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="22"/>
@@ -3472,29 +3439,29 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="37"/>
-    </row>
-    <row r="16" spans="2:28">
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" ht="14.4" spans="2:28">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -3505,29 +3472,29 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="37"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -3538,29 +3505,29 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
-      <c r="AB17" s="37"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
@@ -3571,7 +3538,7 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="37"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="10"/>
@@ -3600,12 +3567,12 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
-      <c r="AB19" s="37"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -3633,27 +3600,27 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="37"/>
-    </row>
-    <row r="21" spans="2:28">
+      <c r="AB20" s="35"/>
+    </row>
+    <row r="21" ht="14.4" spans="2:28">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -3664,25 +3631,25 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="37"/>
-    </row>
-    <row r="22" spans="2:28">
+      <c r="AB21" s="35"/>
+    </row>
+    <row r="22" ht="14.4" spans="2:28">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3693,25 +3660,25 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="37"/>
-    </row>
-    <row r="23" spans="2:28">
+      <c r="AB22" s="35"/>
+    </row>
+    <row r="23" ht="14.4" spans="2:28">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -3722,25 +3689,25 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="37"/>
-    </row>
-    <row r="24" spans="2:28">
+      <c r="AB23" s="35"/>
+    </row>
+    <row r="24" ht="14.4" spans="2:28">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3751,25 +3718,25 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="37"/>
-    </row>
-    <row r="25" spans="2:28">
+      <c r="AB24" s="35"/>
+    </row>
+    <row r="25" ht="14.4" spans="2:28">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -3780,25 +3747,25 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="37"/>
-    </row>
-    <row r="26" spans="2:28">
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" ht="14.4" spans="2:28">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3809,25 +3776,25 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="37"/>
-    </row>
-    <row r="27" spans="2:28">
+      <c r="AB26" s="35"/>
+    </row>
+    <row r="27" ht="14.4" spans="2:28">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -3838,25 +3805,25 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="37"/>
-    </row>
-    <row r="28" spans="2:28">
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" ht="14.4" spans="2:28">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3867,25 +3834,25 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="37"/>
-    </row>
-    <row r="29" spans="2:28">
+      <c r="AB28" s="35"/>
+    </row>
+    <row r="29" ht="14.4" spans="2:28">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3896,25 +3863,25 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="37"/>
-    </row>
-    <row r="30" spans="2:28">
+      <c r="AB29" s="35"/>
+    </row>
+    <row r="30" ht="14.4" spans="2:28">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3925,25 +3892,25 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-      <c r="AB30" s="37"/>
-    </row>
-    <row r="31" spans="2:28">
+      <c r="AB30" s="35"/>
+    </row>
+    <row r="31" ht="14.4" spans="2:28">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
@@ -3954,25 +3921,25 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="37"/>
-    </row>
-    <row r="32" spans="2:28">
+      <c r="AB31" s="35"/>
+    </row>
+    <row r="32" ht="14.4" spans="2:28">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
@@ -3983,25 +3950,25 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="37"/>
-    </row>
-    <row r="33" spans="2:28">
+      <c r="AB32" s="35"/>
+    </row>
+    <row r="33" ht="14.4" spans="2:28">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
@@ -4012,25 +3979,25 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AB33" s="37"/>
+      <c r="AB33" s="35"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="73"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
@@ -4041,25 +4008,25 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
-      <c r="AB34" s="37"/>
+      <c r="AB34" s="35"/>
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="76"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
@@ -4070,13 +4037,13 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="37"/>
-    </row>
-    <row r="36" spans="2:28">
+      <c r="AB35" s="35"/>
+    </row>
+    <row r="36" ht="14.4" spans="2:28">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74" t="s">
+      <c r="D36" s="63"/>
+      <c r="E36" s="64" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="12"/>
@@ -4101,12 +4068,12 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="37"/>
+      <c r="AB36" s="35"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="73"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="13"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -4130,12 +4097,12 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="37"/>
+      <c r="AB37" s="35"/>
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="73"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="13"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -4159,12 +4126,12 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="37"/>
+      <c r="AB38" s="35"/>
     </row>
     <row r="39" spans="2:28">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="73"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="13"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -4188,12 +4155,12 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
-      <c r="AB39" s="37"/>
+      <c r="AB39" s="35"/>
     </row>
     <row r="40" spans="2:28">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="73"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="13"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -4217,12 +4184,12 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="37"/>
+      <c r="AB40" s="35"/>
     </row>
     <row r="41" spans="2:28">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="73"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="13"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -4246,12 +4213,12 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="37"/>
+      <c r="AB41" s="35"/>
     </row>
     <row r="42" spans="2:28">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="73"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="13"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -4275,12 +4242,12 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="37"/>
+      <c r="AB42" s="35"/>
     </row>
     <row r="43" spans="2:28">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="73"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="13"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -4304,12 +4271,12 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="37"/>
+      <c r="AB43" s="35"/>
     </row>
     <row r="44" spans="2:28">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="13"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -4333,12 +4300,12 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="37"/>
+      <c r="AB44" s="35"/>
     </row>
     <row r="45" spans="2:28">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="73"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="13"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -4362,12 +4329,12 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="37"/>
+      <c r="AB45" s="35"/>
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="73"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="13"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -4391,12 +4358,12 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="37"/>
+      <c r="AB46" s="35"/>
     </row>
     <row r="47" spans="2:28">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="73"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="13"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -4420,12 +4387,12 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="37"/>
+      <c r="AB47" s="35"/>
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="73"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="13"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -4449,12 +4416,12 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="37"/>
+      <c r="AB48" s="35"/>
     </row>
     <row r="49" spans="2:28">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="76"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="13"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -4478,13 +4445,13 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="37"/>
-    </row>
-    <row r="50" spans="2:28">
+      <c r="AB49" s="35"/>
+    </row>
+    <row r="50" ht="14.4" spans="2:28">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="74" t="s">
+      <c r="D50" s="63"/>
+      <c r="E50" s="64" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="12"/>
@@ -4509,12 +4476,12 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
-      <c r="AB50" s="37"/>
+      <c r="AB50" s="35"/>
     </row>
     <row r="51" spans="2:28">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="73"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="13"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -4538,12 +4505,12 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
-      <c r="AB51" s="37"/>
+      <c r="AB51" s="35"/>
     </row>
     <row r="52" spans="2:28">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="73"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="13"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -4567,12 +4534,12 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
-      <c r="AB52" s="37"/>
+      <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="2:28">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="73"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="13"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -4596,12 +4563,12 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
-      <c r="AB53" s="37"/>
+      <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="2:28">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="73"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="13"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -4625,12 +4592,12 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="37"/>
+      <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="2:28">
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="73"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="13"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -4654,12 +4621,12 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
-      <c r="AB55" s="37"/>
+      <c r="AB55" s="35"/>
     </row>
     <row r="56" spans="2:28">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="73"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="13"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -4683,12 +4650,12 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
-      <c r="AB56" s="37"/>
+      <c r="AB56" s="35"/>
     </row>
     <row r="57" spans="2:28">
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="73"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="13"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -4712,12 +4679,12 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="37"/>
+      <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="2:28">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="73"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="13"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -4741,12 +4708,12 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="37"/>
+      <c r="AB58" s="35"/>
     </row>
     <row r="59" spans="2:28">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="73"/>
+      <c r="D59" s="63"/>
       <c r="E59" s="13"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -4770,12 +4737,12 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
-      <c r="AB59" s="37"/>
+      <c r="AB59" s="35"/>
     </row>
     <row r="60" spans="2:28">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="73"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="13"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -4799,12 +4766,12 @@
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
-      <c r="AB60" s="37"/>
+      <c r="AB60" s="35"/>
     </row>
     <row r="61" spans="2:28">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="73"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="13"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -4828,12 +4795,12 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="37"/>
+      <c r="AB61" s="35"/>
     </row>
     <row r="62" spans="2:28">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="73"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="13"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -4857,12 +4824,12 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
-      <c r="AB62" s="37"/>
+      <c r="AB62" s="35"/>
     </row>
     <row r="63" spans="2:28">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="73"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="13"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -4886,12 +4853,12 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="37"/>
+      <c r="AB63" s="35"/>
     </row>
     <row r="64" spans="2:28">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="73"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="13"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
@@ -4915,12 +4882,12 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
-      <c r="AB64" s="37"/>
+      <c r="AB64" s="35"/>
     </row>
     <row r="65" spans="2:28">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="73"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="13"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
@@ -4944,12 +4911,12 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
-      <c r="AB65" s="37"/>
+      <c r="AB65" s="35"/>
     </row>
     <row r="66" spans="2:28">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="73"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="13"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -4973,12 +4940,12 @@
       <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
-      <c r="AB66" s="37"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="73"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="13"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -5002,12 +4969,12 @@
       <c r="Y67" s="12"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
-      <c r="AB67" s="37"/>
+      <c r="AB67" s="35"/>
     </row>
     <row r="68" spans="2:28">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="73"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="13"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
@@ -5031,12 +4998,12 @@
       <c r="Y68" s="12"/>
       <c r="Z68" s="12"/>
       <c r="AA68" s="12"/>
-      <c r="AB68" s="37"/>
+      <c r="AB68" s="35"/>
     </row>
     <row r="69" spans="2:28">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="73"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="13"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -5060,12 +5027,12 @@
       <c r="Y69" s="12"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
-      <c r="AB69" s="37"/>
+      <c r="AB69" s="35"/>
     </row>
     <row r="70" spans="2:28">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="73"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="13"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -5089,12 +5056,12 @@
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
-      <c r="AB70" s="37"/>
+      <c r="AB70" s="35"/>
     </row>
     <row r="71" spans="2:28">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="76"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="13"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -5118,7 +5085,7 @@
       <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
-      <c r="AB71" s="37"/>
+      <c r="AB71" s="35"/>
     </row>
     <row r="72" spans="2:28">
       <c r="B72" s="10"/>
@@ -5147,7 +5114,7 @@
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
-      <c r="AB72" s="37"/>
+      <c r="AB72" s="35"/>
     </row>
     <row r="73" spans="2:28">
       <c r="B73" s="10"/>
@@ -5176,11 +5143,11 @@
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
-      <c r="AB73" s="37"/>
+      <c r="AB73" s="35"/>
     </row>
     <row r="74" ht="20.1" customHeight="1" spans="2:28">
       <c r="B74" s="8"/>
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -5209,7 +5176,7 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
-      <c r="AB74" s="36"/>
+      <c r="AB74" s="34"/>
     </row>
     <row r="75" spans="2:28">
       <c r="B75" s="10"/>
@@ -5238,12 +5205,12 @@
       <c r="Y75" s="12"/>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
-      <c r="AB75" s="37"/>
+      <c r="AB75" s="35"/>
     </row>
     <row r="76" spans="2:28">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="81" t="s">
         <v>26</v>
       </c>
       <c r="E76" s="13" t="s">
@@ -5271,13 +5238,13 @@
       <c r="Y76" s="12"/>
       <c r="Z76" s="12"/>
       <c r="AA76" s="12"/>
-      <c r="AB76" s="37"/>
-    </row>
-    <row r="77" spans="2:28">
+      <c r="AB76" s="35"/>
+    </row>
+    <row r="77" ht="14.4" spans="2:28">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="68" t="s">
+      <c r="E77" s="58" t="s">
         <v>3</v>
       </c>
       <c r="F77" s="15" t="s">
@@ -5304,7 +5271,7 @@
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
-      <c r="AB77" s="37"/>
+      <c r="AB77" s="35"/>
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="10"/>
@@ -5337,7 +5304,7 @@
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
-      <c r="AB78" s="37"/>
+      <c r="AB78" s="35"/>
     </row>
     <row r="79" spans="2:28">
       <c r="B79" s="10"/>
@@ -5370,7 +5337,7 @@
       <c r="Y79" s="12"/>
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
-      <c r="AB79" s="37"/>
+      <c r="AB79" s="35"/>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="10"/>
@@ -5382,7 +5349,7 @@
       <c r="F80" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="69"/>
+      <c r="G80" s="59"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -5395,27 +5362,27 @@
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
-      <c r="T80" s="70"/>
-      <c r="U80" s="70"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="60"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
-      <c r="AB80" s="37"/>
-    </row>
-    <row r="81" spans="2:28">
+      <c r="AB80" s="35"/>
+    </row>
+    <row r="81" ht="14.4" spans="2:28">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="68" t="s">
+      <c r="E81" s="58" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G81" s="69"/>
+      <c r="G81" s="59"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -5428,27 +5395,27 @@
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
-      <c r="T81" s="70"/>
-      <c r="U81" s="70"/>
+      <c r="T81" s="60"/>
+      <c r="U81" s="60"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
-      <c r="AB81" s="37"/>
-    </row>
-    <row r="82" spans="2:28">
+      <c r="AB81" s="35"/>
+    </row>
+    <row r="82" ht="14.4" spans="2:28">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="68" t="s">
+      <c r="E82" s="58" t="s">
         <v>3</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G82" s="69"/>
+      <c r="G82" s="59"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -5461,27 +5428,27 @@
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
-      <c r="T82" s="70"/>
-      <c r="U82" s="70"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="60"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
-      <c r="AB82" s="37"/>
-    </row>
-    <row r="83" spans="2:28">
+      <c r="AB82" s="35"/>
+    </row>
+    <row r="83" ht="14.4" spans="2:28">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="68" t="s">
+      <c r="E83" s="58" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G83" s="69"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -5494,15 +5461,15 @@
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
-      <c r="T83" s="70"/>
-      <c r="U83" s="70"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
-      <c r="AB83" s="37"/>
+      <c r="AB83" s="35"/>
     </row>
     <row r="84" spans="2:28">
       <c r="B84" s="10"/>
@@ -5514,7 +5481,7 @@
       <c r="F84" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="69"/>
+      <c r="G84" s="59"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -5535,7 +5502,7 @@
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
       <c r="AA84" s="12"/>
-      <c r="AB84" s="37"/>
+      <c r="AB84" s="35"/>
     </row>
     <row r="85" spans="2:28">
       <c r="B85" s="10"/>
@@ -5543,7 +5510,7 @@
       <c r="D85" s="12"/>
       <c r="E85" s="17"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="69"/>
+      <c r="G85" s="59"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -5564,12 +5531,12 @@
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
-      <c r="AB85" s="37"/>
+      <c r="AB85" s="35"/>
     </row>
     <row r="86" spans="2:28">
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="91" t="s">
+      <c r="D86" s="81" t="s">
         <v>36</v>
       </c>
       <c r="E86" s="13" t="s">
@@ -5597,16 +5564,16 @@
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
-      <c r="AB86" s="37"/>
-    </row>
-    <row r="87" spans="2:28">
+      <c r="AB86" s="35"/>
+    </row>
+    <row r="87" ht="14.4" spans="2:28">
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="77" t="s">
+      <c r="E87" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="78" t="s">
+      <c r="F87" s="68" t="s">
         <v>38</v>
       </c>
       <c r="G87" s="12"/>
@@ -5630,7 +5597,7 @@
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
-      <c r="AB87" s="37"/>
+      <c r="AB87" s="35"/>
     </row>
     <row r="88" spans="2:28">
       <c r="B88" s="10"/>
@@ -5663,40 +5630,40 @@
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
-      <c r="AB88" s="37"/>
-    </row>
-    <row r="89" spans="2:28">
+      <c r="AB88" s="35"/>
+    </row>
+    <row r="89" ht="14.4" spans="2:28">
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
       <c r="D89" s="12"/>
-      <c r="E89" s="77" t="s">
+      <c r="E89" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="78" t="s">
+      <c r="F89" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G89" s="79"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="80"/>
-      <c r="L89" s="80"/>
-      <c r="M89" s="80"/>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="80"/>
-      <c r="Q89" s="80"/>
-      <c r="R89" s="80"/>
-      <c r="S89" s="80"/>
-      <c r="T89" s="80"/>
-      <c r="U89" s="80"/>
-      <c r="V89" s="80"/>
-      <c r="W89" s="80"/>
-      <c r="X89" s="80"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="70"/>
       <c r="Y89" s="12"/>
       <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
-      <c r="AB89" s="37"/>
+      <c r="AB89" s="35"/>
     </row>
     <row r="90" spans="2:28">
       <c r="B90" s="10"/>
@@ -5708,37 +5675,37 @@
       <c r="F90" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G90" s="79"/>
-      <c r="H90" s="80"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="80"/>
-      <c r="K90" s="80"/>
-      <c r="L90" s="80"/>
-      <c r="M90" s="80"/>
-      <c r="N90" s="80"/>
-      <c r="O90" s="80"/>
-      <c r="P90" s="80"/>
-      <c r="Q90" s="80"/>
-      <c r="R90" s="80"/>
-      <c r="S90" s="80"/>
-      <c r="T90" s="80"/>
-      <c r="U90" s="80"/>
-      <c r="V90" s="80"/>
-      <c r="W90" s="80"/>
-      <c r="X90" s="80"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="70"/>
+      <c r="R90" s="70"/>
+      <c r="S90" s="70"/>
+      <c r="T90" s="70"/>
+      <c r="U90" s="70"/>
+      <c r="V90" s="70"/>
+      <c r="W90" s="70"/>
+      <c r="X90" s="70"/>
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
-      <c r="AB90" s="37"/>
-    </row>
-    <row r="91" spans="2:28">
+      <c r="AB90" s="35"/>
+    </row>
+    <row r="91" ht="14.4" spans="2:28">
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="12"/>
-      <c r="E91" s="77" t="s">
+      <c r="E91" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="78" t="s">
+      <c r="F91" s="68" t="s">
         <v>42</v>
       </c>
       <c r="G91" s="12"/>
@@ -5754,15 +5721,15 @@
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
-      <c r="T91" s="70"/>
-      <c r="U91" s="70"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
-      <c r="AB91" s="37"/>
+      <c r="AB91" s="35"/>
     </row>
     <row r="92" spans="2:28">
       <c r="B92" s="10"/>
@@ -5795,7 +5762,7 @@
       <c r="Y92" s="12"/>
       <c r="Z92" s="12"/>
       <c r="AA92" s="12"/>
-      <c r="AB92" s="37"/>
+      <c r="AB92" s="35"/>
     </row>
     <row r="93" spans="2:28">
       <c r="B93" s="10"/>
@@ -5803,7 +5770,7 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="69"/>
+      <c r="G93" s="59"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -5816,17 +5783,17 @@
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
-      <c r="T93" s="70"/>
-      <c r="U93" s="70"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="60"/>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
-      <c r="AB93" s="37"/>
-    </row>
-    <row r="94" spans="2:28">
+      <c r="AB93" s="35"/>
+    </row>
+    <row r="94" ht="14.4" spans="2:28">
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
       <c r="D94"/>
@@ -5845,15 +5812,15 @@
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
-      <c r="T94" s="70"/>
-      <c r="U94" s="70"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="60"/>
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
       <c r="Z94" s="12"/>
       <c r="AA94" s="12"/>
-      <c r="AB94" s="37"/>
+      <c r="AB94" s="35"/>
     </row>
     <row r="95" spans="2:28">
       <c r="B95" s="10"/>
@@ -5882,7 +5849,7 @@
       <c r="Y95" s="12"/>
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
-      <c r="AB95" s="37"/>
+      <c r="AB95" s="35"/>
     </row>
     <row r="96" spans="2:28">
       <c r="B96" s="10"/>
@@ -5890,7 +5857,7 @@
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="69"/>
+      <c r="G96" s="59"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -5903,15 +5870,15 @@
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
-      <c r="T96" s="70"/>
-      <c r="U96" s="70"/>
+      <c r="T96" s="60"/>
+      <c r="U96" s="60"/>
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
       <c r="Z96" s="12"/>
       <c r="AA96" s="12"/>
-      <c r="AB96" s="37"/>
+      <c r="AB96" s="35"/>
     </row>
     <row r="97" spans="2:28">
       <c r="B97" s="10"/>
@@ -5940,7 +5907,7 @@
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
-      <c r="AB97" s="37"/>
+      <c r="AB97" s="35"/>
     </row>
     <row r="98" spans="2:28">
       <c r="B98" s="10"/>
@@ -5969,7 +5936,7 @@
       <c r="Y98" s="12"/>
       <c r="Z98" s="12"/>
       <c r="AA98" s="12"/>
-      <c r="AB98" s="37"/>
+      <c r="AB98" s="35"/>
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="10"/>
@@ -5977,7 +5944,7 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="69"/>
+      <c r="G99" s="59"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -5990,15 +5957,15 @@
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="T99" s="70"/>
-      <c r="U99" s="70"/>
+      <c r="T99" s="60"/>
+      <c r="U99" s="60"/>
       <c r="V99" s="12"/>
       <c r="W99" s="12"/>
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
-      <c r="AB99" s="37"/>
+      <c r="AB99" s="35"/>
     </row>
     <row r="100" spans="2:28">
       <c r="B100" s="10"/>
@@ -6027,7 +5994,7 @@
       <c r="Y100" s="12"/>
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
-      <c r="AB100" s="37"/>
+      <c r="AB100" s="35"/>
     </row>
     <row r="101" spans="2:28">
       <c r="B101" s="10"/>
@@ -6056,7 +6023,7 @@
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
-      <c r="AB101" s="37"/>
+      <c r="AB101" s="35"/>
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="10"/>
@@ -6064,7 +6031,7 @@
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="69"/>
+      <c r="G102" s="59"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
@@ -6077,15 +6044,15 @@
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
-      <c r="T102" s="70"/>
-      <c r="U102" s="70"/>
+      <c r="T102" s="60"/>
+      <c r="U102" s="60"/>
       <c r="V102" s="12"/>
       <c r="W102" s="12"/>
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
-      <c r="AB102" s="37"/>
+      <c r="AB102" s="35"/>
     </row>
     <row r="103" spans="2:28">
       <c r="B103" s="10"/>
@@ -6114,7 +6081,7 @@
       <c r="Y103" s="12"/>
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
-      <c r="AB103" s="37"/>
+      <c r="AB103" s="35"/>
     </row>
     <row r="104" spans="2:28">
       <c r="B104" s="10"/>
@@ -6135,15 +6102,15 @@
       <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
-      <c r="T104" s="70"/>
-      <c r="U104" s="70"/>
+      <c r="T104" s="60"/>
+      <c r="U104" s="60"/>
       <c r="V104" s="12"/>
       <c r="W104" s="12"/>
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
       <c r="Z104" s="12"/>
       <c r="AA104" s="12"/>
-      <c r="AB104" s="37"/>
+      <c r="AB104" s="35"/>
     </row>
     <row r="105" spans="2:28">
       <c r="B105" s="10"/>
@@ -6151,7 +6118,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="69"/>
+      <c r="G105" s="59"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
@@ -6164,15 +6131,15 @@
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
-      <c r="T105" s="70"/>
-      <c r="U105" s="70"/>
+      <c r="T105" s="60"/>
+      <c r="U105" s="60"/>
       <c r="V105" s="12"/>
       <c r="W105" s="12"/>
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
-      <c r="AB105" s="37"/>
+      <c r="AB105" s="35"/>
     </row>
     <row r="106" spans="2:28">
       <c r="B106" s="10"/>
@@ -6201,7 +6168,7 @@
       <c r="Y106" s="12"/>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
-      <c r="AB106" s="37"/>
+      <c r="AB106" s="35"/>
     </row>
     <row r="107" spans="2:28">
       <c r="B107" s="10"/>
@@ -6222,15 +6189,15 @@
       <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
-      <c r="T107" s="70"/>
-      <c r="U107" s="70"/>
+      <c r="T107" s="60"/>
+      <c r="U107" s="60"/>
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
       <c r="Z107" s="12"/>
       <c r="AA107" s="12"/>
-      <c r="AB107" s="37"/>
+      <c r="AB107" s="35"/>
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="10"/>
@@ -6238,7 +6205,7 @@
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="69"/>
+      <c r="G108" s="59"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -6251,27 +6218,27 @@
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
-      <c r="T108" s="70"/>
-      <c r="U108" s="70"/>
+      <c r="T108" s="60"/>
+      <c r="U108" s="60"/>
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
       <c r="Z108" s="12"/>
       <c r="AA108" s="12"/>
-      <c r="AB108" s="37"/>
+      <c r="AB108" s="35"/>
     </row>
     <row r="109" spans="2:28">
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="91" t="s">
+      <c r="D109" s="81" t="s">
         <v>44</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="69"/>
+      <c r="G109" s="59"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
@@ -6284,27 +6251,27 @@
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
-      <c r="T109" s="70"/>
-      <c r="U109" s="70"/>
+      <c r="T109" s="60"/>
+      <c r="U109" s="60"/>
       <c r="V109" s="12"/>
       <c r="W109" s="12"/>
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
       <c r="Z109" s="12"/>
       <c r="AA109" s="12"/>
-      <c r="AB109" s="37"/>
-    </row>
-    <row r="110" spans="2:28">
+      <c r="AB109" s="35"/>
+    </row>
+    <row r="110" ht="14.4" spans="2:28">
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="77" t="s">
+      <c r="E110" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F110" s="78" t="s">
+      <c r="F110" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="69"/>
+      <c r="G110" s="59"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
@@ -6317,15 +6284,15 @@
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
-      <c r="T110" s="70"/>
-      <c r="U110" s="70"/>
+      <c r="T110" s="60"/>
+      <c r="U110" s="60"/>
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
-      <c r="AB110" s="37"/>
+      <c r="AB110" s="35"/>
     </row>
     <row r="111" spans="2:28">
       <c r="B111" s="10"/>
@@ -6334,13 +6301,13 @@
       <c r="E111" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="81" t="s">
+      <c r="F111" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G111" s="82"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
@@ -6350,27 +6317,27 @@
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
-      <c r="T111" s="70"/>
-      <c r="U111" s="70"/>
+      <c r="T111" s="60"/>
+      <c r="U111" s="60"/>
       <c r="V111" s="12"/>
       <c r="W111" s="12"/>
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
       <c r="Z111" s="12"/>
       <c r="AA111" s="12"/>
-      <c r="AB111" s="37"/>
-    </row>
-    <row r="112" spans="2:28">
+      <c r="AB111" s="35"/>
+    </row>
+    <row r="112" ht="14.4" spans="2:28">
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="77" t="s">
+      <c r="E112" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="78" t="s">
+      <c r="F112" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G112" s="69"/>
+      <c r="G112" s="59"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
@@ -6383,15 +6350,15 @@
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
-      <c r="T112" s="70"/>
-      <c r="U112" s="70"/>
+      <c r="T112" s="60"/>
+      <c r="U112" s="60"/>
       <c r="V112" s="12"/>
       <c r="W112" s="12"/>
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
       <c r="Z112" s="12"/>
       <c r="AA112" s="12"/>
-      <c r="AB112" s="37"/>
+      <c r="AB112" s="35"/>
     </row>
     <row r="113" spans="2:28">
       <c r="B113" s="10"/>
@@ -6400,13 +6367,13 @@
       <c r="E113" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="81" t="s">
+      <c r="F113" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G113" s="82"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
@@ -6416,27 +6383,27 @@
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
-      <c r="T113" s="70"/>
-      <c r="U113" s="70"/>
+      <c r="T113" s="60"/>
+      <c r="U113" s="60"/>
       <c r="V113" s="12"/>
       <c r="W113" s="12"/>
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
       <c r="Z113" s="12"/>
       <c r="AA113" s="12"/>
-      <c r="AB113" s="37"/>
-    </row>
-    <row r="114" spans="2:28">
+      <c r="AB113" s="35"/>
+    </row>
+    <row r="114" ht="14.4" spans="2:28">
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="77" t="s">
+      <c r="E114" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F114" s="78" t="s">
+      <c r="F114" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G114" s="69"/>
+      <c r="G114" s="59"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
@@ -6449,15 +6416,15 @@
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
-      <c r="T114" s="70"/>
-      <c r="U114" s="70"/>
+      <c r="T114" s="60"/>
+      <c r="U114" s="60"/>
       <c r="V114" s="12"/>
       <c r="W114" s="12"/>
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
-      <c r="AB114" s="37"/>
+      <c r="AB114" s="35"/>
     </row>
     <row r="115" spans="2:28">
       <c r="B115" s="10"/>
@@ -6466,13 +6433,13 @@
       <c r="E115" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="81" t="s">
+      <c r="F115" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="G115" s="82"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="73"/>
+      <c r="I115" s="73"/>
+      <c r="J115" s="73"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
@@ -6482,27 +6449,27 @@
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
-      <c r="T115" s="70"/>
-      <c r="U115" s="70"/>
+      <c r="T115" s="60"/>
+      <c r="U115" s="60"/>
       <c r="V115" s="12"/>
       <c r="W115" s="12"/>
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
       <c r="Z115" s="12"/>
       <c r="AA115" s="12"/>
-      <c r="AB115" s="37"/>
-    </row>
-    <row r="116" spans="2:28">
+      <c r="AB115" s="35"/>
+    </row>
+    <row r="116" ht="14.4" spans="2:28">
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="77" t="s">
+      <c r="E116" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F116" s="78" t="s">
+      <c r="F116" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="G116" s="69"/>
+      <c r="G116" s="59"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -6515,15 +6482,15 @@
       <c r="Q116" s="12"/>
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
-      <c r="T116" s="70"/>
-      <c r="U116" s="70"/>
+      <c r="T116" s="60"/>
+      <c r="U116" s="60"/>
       <c r="V116" s="12"/>
       <c r="W116" s="12"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
       <c r="AA116" s="12"/>
-      <c r="AB116" s="37"/>
+      <c r="AB116" s="35"/>
     </row>
     <row r="117" spans="2:28">
       <c r="B117" s="10"/>
@@ -6532,39 +6499,39 @@
       <c r="E117" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="81" t="s">
+      <c r="F117" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G117" s="82"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="73"/>
+      <c r="J117" s="73"/>
+      <c r="K117" s="73"/>
+      <c r="L117" s="73"/>
+      <c r="M117" s="73"/>
+      <c r="N117" s="73"/>
+      <c r="O117" s="73"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
-      <c r="T117" s="70"/>
-      <c r="U117" s="70"/>
+      <c r="T117" s="60"/>
+      <c r="U117" s="60"/>
       <c r="V117" s="12"/>
       <c r="W117" s="12"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
       <c r="Z117" s="12"/>
       <c r="AA117" s="12"/>
-      <c r="AB117" s="37"/>
+      <c r="AB117" s="35"/>
     </row>
     <row r="118" spans="2:28">
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="12"/>
       <c r="E118" s="17"/>
-      <c r="F118" s="84"/>
-      <c r="G118" s="85"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="75"/>
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
@@ -6577,15 +6544,15 @@
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
-      <c r="T118" s="70"/>
-      <c r="U118" s="70"/>
+      <c r="T118" s="60"/>
+      <c r="U118" s="60"/>
       <c r="V118" s="12"/>
       <c r="W118" s="12"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
       <c r="Z118" s="12"/>
       <c r="AA118" s="12"/>
-      <c r="AB118" s="37"/>
+      <c r="AB118" s="35"/>
     </row>
     <row r="119" spans="2:28">
       <c r="B119" s="10"/>
@@ -6593,7 +6560,7 @@
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
-      <c r="G119" s="69"/>
+      <c r="G119" s="59"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
@@ -6606,19 +6573,19 @@
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
-      <c r="T119" s="70"/>
-      <c r="U119" s="70"/>
+      <c r="T119" s="60"/>
+      <c r="U119" s="60"/>
       <c r="V119" s="12"/>
       <c r="W119" s="12"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
       <c r="Z119" s="12"/>
       <c r="AA119" s="12"/>
-      <c r="AB119" s="37"/>
+      <c r="AB119" s="35"/>
     </row>
     <row r="120" ht="20.1" customHeight="1" spans="2:28">
       <c r="B120" s="8"/>
-      <c r="C120" s="90" t="s">
+      <c r="C120" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D120" s="9" t="s">
@@ -6647,7 +6614,7 @@
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
-      <c r="AB120" s="36"/>
+      <c r="AB120" s="34"/>
     </row>
     <row r="121" spans="2:28">
       <c r="B121" s="10"/>
@@ -6676,12 +6643,12 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
-      <c r="AB121" s="37"/>
+      <c r="AB121" s="35"/>
     </row>
     <row r="122" spans="2:28">
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
-      <c r="D122" s="91" t="s">
+      <c r="D122" s="81" t="s">
         <v>56</v>
       </c>
       <c r="E122" s="13" t="s">
@@ -6709,13 +6676,13 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="12"/>
       <c r="AA122" s="12"/>
-      <c r="AB122" s="37"/>
+      <c r="AB122" s="35"/>
     </row>
     <row r="123" spans="2:28">
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
       <c r="D123" s="13"/>
-      <c r="E123" s="78" t="s">
+      <c r="E123" s="68" t="s">
         <v>58</v>
       </c>
       <c r="F123" s="12"/>
@@ -6740,12 +6707,12 @@
       <c r="Y123" s="12"/>
       <c r="Z123" s="12"/>
       <c r="AA123" s="12"/>
-      <c r="AB123" s="37"/>
+      <c r="AB123" s="35"/>
     </row>
     <row r="124" spans="2:28">
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
-      <c r="D124" s="86"/>
+      <c r="D124" s="76"/>
       <c r="E124" s="12" t="s">
         <v>59</v>
       </c>
@@ -6761,26 +6728,26 @@
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
-      <c r="R124" s="86"/>
+      <c r="R124" s="76"/>
       <c r="S124" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="T124" s="54" t="s">
+      <c r="T124" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="U124" s="55"/>
-      <c r="V124" s="55"/>
+      <c r="U124" s="46"/>
+      <c r="V124" s="46"/>
       <c r="W124" s="12"/>
       <c r="X124" s="12"/>
       <c r="Y124" s="12"/>
       <c r="Z124" s="12"/>
       <c r="AA124" s="12"/>
-      <c r="AB124" s="37"/>
+      <c r="AB124" s="35"/>
     </row>
     <row r="125" spans="2:28">
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
-      <c r="D125" s="86"/>
+      <c r="D125" s="76"/>
       <c r="E125" s="12" t="s">
         <v>61</v>
       </c>
@@ -6806,17 +6773,17 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="12"/>
       <c r="AA125" s="12"/>
-      <c r="AB125" s="37"/>
-    </row>
-    <row r="126" spans="2:28">
+      <c r="AB125" s="35"/>
+    </row>
+    <row r="126" ht="14.4" spans="2:28">
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="12"/>
-      <c r="E126" s="86"/>
-      <c r="F126" s="87" t="s">
+      <c r="E126" s="76"/>
+      <c r="F126" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="88" t="s">
+      <c r="G126" s="78" t="s">
         <v>62</v>
       </c>
       <c r="H126" s="12"/>
@@ -6839,17 +6806,17 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="12"/>
       <c r="AA126" s="12"/>
-      <c r="AB126" s="37"/>
+      <c r="AB126" s="35"/>
     </row>
     <row r="127" spans="2:28">
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
       <c r="D127" s="12"/>
-      <c r="E127" s="86"/>
+      <c r="E127" s="76"/>
       <c r="F127" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="31" t="s">
+      <c r="G127" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H127" s="12"/>
@@ -6872,20 +6839,20 @@
       <c r="Y127" s="12"/>
       <c r="Z127" s="12"/>
       <c r="AA127" s="12"/>
-      <c r="AB127" s="37"/>
+      <c r="AB127" s="35"/>
     </row>
     <row r="128" spans="2:28">
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
       <c r="D128" s="12"/>
-      <c r="E128" s="86"/>
+      <c r="E128" s="76"/>
       <c r="F128" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G128" s="54" t="s">
+      <c r="G128" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H128" s="54"/>
+      <c r="H128" s="45"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
@@ -6905,17 +6872,17 @@
       <c r="Y128" s="12"/>
       <c r="Z128" s="12"/>
       <c r="AA128" s="12"/>
-      <c r="AB128" s="37"/>
-    </row>
-    <row r="129" spans="2:28">
+      <c r="AB128" s="35"/>
+    </row>
+    <row r="129" ht="14.4" spans="2:28">
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
       <c r="D129" s="12"/>
-      <c r="E129" s="86"/>
-      <c r="F129" s="87" t="s">
+      <c r="E129" s="76"/>
+      <c r="F129" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="88" t="s">
+      <c r="G129" s="78" t="s">
         <v>65</v>
       </c>
       <c r="H129" s="12"/>
@@ -6938,17 +6905,17 @@
       <c r="Y129" s="12"/>
       <c r="Z129" s="12"/>
       <c r="AA129" s="12"/>
-      <c r="AB129" s="37"/>
+      <c r="AB129" s="35"/>
     </row>
     <row r="130" spans="2:28">
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="86"/>
+      <c r="E130" s="76"/>
       <c r="F130" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="31" t="s">
+      <c r="G130" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H130" s="12"/>
@@ -6971,20 +6938,20 @@
       <c r="Y130" s="12"/>
       <c r="Z130" s="12"/>
       <c r="AA130" s="12"/>
-      <c r="AB130" s="37"/>
+      <c r="AB130" s="35"/>
     </row>
     <row r="131" spans="2:28">
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
       <c r="D131" s="12"/>
-      <c r="E131" s="86"/>
+      <c r="E131" s="76"/>
       <c r="F131" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G131" s="93" t="s">
+      <c r="G131" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="H131" s="55"/>
+      <c r="H131" s="46"/>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
@@ -7004,17 +6971,17 @@
       <c r="Y131" s="12"/>
       <c r="Z131" s="12"/>
       <c r="AA131" s="12"/>
-      <c r="AB131" s="37"/>
-    </row>
-    <row r="132" spans="2:28">
+      <c r="AB131" s="35"/>
+    </row>
+    <row r="132" ht="14.4" spans="2:28">
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="12"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="87" t="s">
+      <c r="E132" s="67"/>
+      <c r="F132" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="88" t="s">
+      <c r="G132" s="78" t="s">
         <v>67</v>
       </c>
       <c r="H132" s="12"/>
@@ -7037,17 +7004,17 @@
       <c r="Y132" s="12"/>
       <c r="Z132" s="12"/>
       <c r="AA132" s="12"/>
-      <c r="AB132" s="37"/>
-    </row>
-    <row r="133" spans="2:28">
+      <c r="AB132" s="35"/>
+    </row>
+    <row r="133" ht="14.4" spans="2:28">
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
       <c r="D133" s="12"/>
-      <c r="E133" s="77"/>
+      <c r="E133" s="67"/>
       <c r="F133" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G133" s="31" t="s">
+      <c r="G133" s="30" t="s">
         <v>68</v>
       </c>
       <c r="H133" s="12"/>
@@ -7070,18 +7037,18 @@
       <c r="Y133" s="12"/>
       <c r="Z133" s="12"/>
       <c r="AA133" s="12"/>
-      <c r="AB133" s="37"/>
+      <c r="AB133" s="35"/>
     </row>
     <row r="134" spans="2:28">
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
-      <c r="D134" s="91" t="s">
+      <c r="D134" s="81" t="s">
         <v>56</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F134" s="78"/>
+      <c r="F134" s="68"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -7103,29 +7070,29 @@
       <c r="Y134" s="12"/>
       <c r="Z134" s="12"/>
       <c r="AA134" s="12"/>
-      <c r="AB134" s="37"/>
+      <c r="AB134" s="35"/>
     </row>
     <row r="135" spans="2:28">
       <c r="B135" s="10"/>
       <c r="C135" s="11"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="54" t="s">
+      <c r="E135" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F135" s="54"/>
-      <c r="G135" s="55"/>
-      <c r="H135" s="55"/>
-      <c r="I135" s="55"/>
-      <c r="J135" s="55"/>
-      <c r="K135" s="55"/>
-      <c r="L135" s="55"/>
-      <c r="M135" s="55"/>
-      <c r="N135" s="89"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="46"/>
+      <c r="K135" s="46"/>
+      <c r="L135" s="46"/>
+      <c r="M135" s="46"/>
+      <c r="N135" s="79"/>
       <c r="O135" s="12"/>
       <c r="P135" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="31" t="s">
+      <c r="Q135" s="30" t="s">
         <v>71</v>
       </c>
       <c r="R135" s="12"/>
@@ -7138,14 +7105,14 @@
       <c r="Y135" s="12"/>
       <c r="Z135" s="12"/>
       <c r="AA135" s="12"/>
-      <c r="AB135" s="37"/>
+      <c r="AB135" s="35"/>
     </row>
     <row r="136" spans="2:28">
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
       <c r="D136" s="12"/>
-      <c r="E136" s="84"/>
-      <c r="F136" s="84"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
@@ -7153,10 +7120,10 @@
       <c r="K136" s="18"/>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
-      <c r="N136" s="86"/>
+      <c r="N136" s="76"/>
       <c r="O136" s="12"/>
       <c r="P136" s="17"/>
-      <c r="Q136" s="31"/>
+      <c r="Q136" s="30"/>
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
       <c r="T136" s="12"/>
@@ -7167,29 +7134,29 @@
       <c r="Y136" s="12"/>
       <c r="Z136" s="12"/>
       <c r="AA136" s="12"/>
-      <c r="AB136" s="37"/>
+      <c r="AB136" s="35"/>
     </row>
     <row r="137" spans="2:28">
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
       <c r="D137" s="12"/>
-      <c r="E137" s="54" t="s">
+      <c r="E137" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F137" s="54"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="55"/>
-      <c r="K137" s="55"/>
-      <c r="L137" s="55"/>
-      <c r="M137" s="55"/>
-      <c r="N137" s="89"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="46"/>
+      <c r="K137" s="46"/>
+      <c r="L137" s="46"/>
+      <c r="M137" s="46"/>
+      <c r="N137" s="79"/>
       <c r="O137" s="12"/>
       <c r="P137" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q137" s="31" t="s">
+      <c r="Q137" s="30" t="s">
         <v>73</v>
       </c>
       <c r="R137" s="12"/>
@@ -7202,14 +7169,14 @@
       <c r="Y137" s="12"/>
       <c r="Z137" s="12"/>
       <c r="AA137" s="12"/>
-      <c r="AB137" s="37"/>
+      <c r="AB137" s="35"/>
     </row>
     <row r="138" spans="2:28">
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
       <c r="D138" s="12"/>
-      <c r="E138" s="84"/>
-      <c r="F138" s="84"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
@@ -7217,10 +7184,10 @@
       <c r="K138" s="18"/>
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
-      <c r="N138" s="86"/>
+      <c r="N138" s="76"/>
       <c r="O138" s="12"/>
       <c r="P138" s="17"/>
-      <c r="Q138" s="31"/>
+      <c r="Q138" s="30"/>
       <c r="R138" s="12"/>
       <c r="S138" s="12"/>
       <c r="T138" s="12"/>
@@ -7231,30 +7198,30 @@
       <c r="Y138" s="12"/>
       <c r="Z138" s="12"/>
       <c r="AA138" s="12"/>
-      <c r="AB138" s="37"/>
+      <c r="AB138" s="35"/>
     </row>
     <row r="139" spans="2:28">
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
       <c r="D139" s="12"/>
-      <c r="E139" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F139" s="54"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="55"/>
-      <c r="I139" s="55"/>
-      <c r="J139" s="55"/>
-      <c r="K139" s="55"/>
-      <c r="L139" s="55"/>
-      <c r="M139" s="55"/>
-      <c r="N139" s="89"/>
+      <c r="E139" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F139" s="45"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="46"/>
+      <c r="J139" s="46"/>
+      <c r="K139" s="46"/>
+      <c r="L139" s="46"/>
+      <c r="M139" s="46"/>
+      <c r="N139" s="79"/>
       <c r="O139" s="12"/>
       <c r="P139" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q139" s="31" t="s">
-        <v>74</v>
+      <c r="Q139" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="R139" s="12"/>
       <c r="S139" s="12"/>
@@ -7266,9 +7233,9 @@
       <c r="Y139" s="12"/>
       <c r="Z139" s="12"/>
       <c r="AA139" s="12"/>
-      <c r="AB139" s="37"/>
-    </row>
-    <row r="140" ht="15.75" spans="2:28">
+      <c r="AB139" s="35"/>
+    </row>
+    <row r="140" ht="14.55" spans="2:28">
       <c r="B140" s="26"/>
       <c r="C140" s="27"/>
       <c r="D140" s="28"/>
@@ -7295,7 +7262,7 @@
       <c r="Y140" s="28"/>
       <c r="Z140" s="28"/>
       <c r="AA140" s="28"/>
-      <c r="AB140" s="38"/>
+      <c r="AB140" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7318,18 +7285,18 @@
   </sheetPr>
   <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.57142857142857" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.57407407407407" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.57142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.57142857142857" style="2"/>
-    <col min="4" max="28" width="4.57142857142857" style="1"/>
-    <col min="29" max="29" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.57142857142857" style="3"/>
+    <col min="1" max="1" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.57407407407407" style="2"/>
+    <col min="4" max="28" width="4.57407407407407" style="1"/>
+    <col min="29" max="29" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.57407407407407" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -7361,7 +7328,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -7390,7 +7357,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="35"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -7419,15 +7386,15 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="35"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -7452,7 +7419,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="36"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="10"/>
@@ -7481,26 +7448,26 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="37"/>
-    </row>
-    <row r="6" ht="15.75" spans="2:28">
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" ht="15" spans="2:28">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="E6" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="12"/>
       <c r="M6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="31" t="s">
-        <v>77</v>
+      <c r="N6" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -7515,7 +7482,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="37"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="10"/>
@@ -7538,26 +7505,26 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="37"/>
-    </row>
-    <row r="8" ht="15.75" spans="2:28">
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" ht="15" spans="2:28">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="E8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="12"/>
       <c r="M8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="31" t="s">
-        <v>79</v>
+      <c r="N8" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -7572,7 +7539,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="37"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="10"/>
@@ -7601,7 +7568,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="37"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="10"/>
@@ -7630,15 +7597,15 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="37"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:28">
       <c r="B11" s="8"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="80" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -7663,7 +7630,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="36"/>
+      <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="10"/>
@@ -7692,27 +7659,27 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="37"/>
-    </row>
-    <row r="13" ht="15.75" spans="2:28">
+      <c r="AB12" s="35"/>
+    </row>
+    <row r="13" ht="15" spans="2:28">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="E13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="31" t="s">
-        <v>82</v>
+      <c r="N13" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -7727,7 +7694,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="37"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="10"/>
@@ -7742,8 +7709,8 @@
       <c r="M14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="31" t="s">
-        <v>83</v>
+      <c r="N14" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -7758,7 +7725,7 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="37"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="10"/>
@@ -7773,8 +7740,8 @@
       <c r="M15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="31" t="s">
-        <v>84</v>
+      <c r="N15" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -7789,7 +7756,7 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="37"/>
+      <c r="AB15" s="35"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="10"/>
@@ -7804,8 +7771,8 @@
       <c r="M16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="31" t="s">
-        <v>85</v>
+      <c r="N16" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -7820,7 +7787,7 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="37"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="10"/>
@@ -7835,8 +7802,8 @@
       <c r="M17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="31" t="s">
-        <v>86</v>
+      <c r="N17" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -7851,7 +7818,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
-      <c r="AB17" s="37"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="10"/>
@@ -7880,15 +7847,15 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="37"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:28">
       <c r="B19" s="8"/>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="80" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -7913,7 +7880,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
-      <c r="AB19" s="36"/>
+      <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="10"/>
@@ -7942,16 +7909,16 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="37"/>
-    </row>
-    <row r="21" ht="15.75" spans="2:28">
+      <c r="AB20" s="35"/>
+    </row>
+    <row r="21" ht="15" spans="2:28">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -7963,8 +7930,8 @@
       <c r="M21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>89</v>
+      <c r="N21" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
@@ -7979,31 +7946,31 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="37"/>
-    </row>
-    <row r="22" ht="15.75" spans="2:28">
+      <c r="AB21" s="35"/>
+    </row>
+    <row r="22" ht="15" spans="2:28">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="94" t="s">
-        <v>90</v>
+      <c r="D22" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
+      <c r="N22" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -8014,27 +7981,27 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="37"/>
-    </row>
-    <row r="23" ht="15.75" spans="2:28">
+      <c r="AB22" s="35"/>
+    </row>
+    <row r="23" ht="15" spans="2:28">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -8045,27 +8012,27 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="37"/>
-    </row>
-    <row r="24" ht="15.75" spans="2:28">
+      <c r="AB23" s="35"/>
+    </row>
+    <row r="24" ht="15" spans="2:28">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="58"/>
+      <c r="D24" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="49"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -8076,22 +8043,22 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="37"/>
-    </row>
-    <row r="25" ht="15.75" spans="2:28">
+      <c r="AB24" s="35"/>
+    </row>
+    <row r="25" ht="15" spans="2:28">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
-      <c r="J25" s="62"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -8109,13 +8076,13 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="37"/>
-    </row>
-    <row r="26" ht="15.75" spans="2:28">
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" ht="15" spans="2:28">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="94" t="s">
-        <v>90</v>
+      <c r="D26" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -8140,22 +8107,22 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="37"/>
-    </row>
-    <row r="27" ht="15.75" spans="2:28">
+      <c r="AB26" s="35"/>
+    </row>
+    <row r="27" ht="15" spans="2:28">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="62"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -8173,7 +8140,7 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="37"/>
+      <c r="AB27" s="35"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="10"/>
@@ -8202,16 +8169,16 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="37"/>
-    </row>
-    <row r="29" ht="15.75" spans="2:28">
+      <c r="AB28" s="35"/>
+    </row>
+    <row r="29" ht="15" spans="2:28">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -8223,8 +8190,8 @@
       <c r="M29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="31" t="s">
-        <v>96</v>
+      <c r="N29" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -8239,13 +8206,13 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="37"/>
-    </row>
-    <row r="30" ht="15.75" spans="2:28">
+      <c r="AB29" s="35"/>
+    </row>
+    <row r="30" ht="15" spans="2:28">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="94" t="s">
-        <v>90</v>
+      <c r="D30" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -8258,8 +8225,8 @@
       <c r="M30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="31" t="s">
-        <v>97</v>
+      <c r="N30" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -8274,13 +8241,13 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-      <c r="AB30" s="37"/>
-    </row>
-    <row r="31" ht="15.75" spans="2:28">
+      <c r="AB30" s="35"/>
+    </row>
+    <row r="31" ht="15" spans="2:28">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="94" t="s">
-        <v>90</v>
+      <c r="D31" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="12"/>
@@ -8293,8 +8260,8 @@
       <c r="M31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="31" t="s">
-        <v>98</v>
+      <c r="N31" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -8309,13 +8276,13 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="37"/>
-    </row>
-    <row r="32" ht="15.75" spans="2:28">
+      <c r="AB31" s="35"/>
+    </row>
+    <row r="32" ht="15" spans="2:28">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="94" t="s">
-        <v>90</v>
+      <c r="D32" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="12"/>
@@ -8328,8 +8295,8 @@
       <c r="M32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="31" t="s">
-        <v>99</v>
+      <c r="N32" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -8344,16 +8311,16 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="37"/>
-    </row>
-    <row r="33" ht="15.75" spans="2:28">
+      <c r="AB32" s="35"/>
+    </row>
+    <row r="33" ht="15" spans="2:28">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -8365,8 +8332,8 @@
       <c r="M33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="31" t="s">
-        <v>101</v>
+      <c r="N33" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -8381,7 +8348,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AB33" s="37"/>
+      <c r="AB33" s="35"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="10"/>
@@ -8398,14 +8365,14 @@
       <c r="M34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="O34" s="65" t="s">
+      <c r="N34" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P34" s="66" t="s">
-        <v>103</v>
+      <c r="P34" s="56" t="s">
+        <v>104</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
@@ -8418,7 +8385,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
-      <c r="AB34" s="37"/>
+      <c r="AB34" s="35"/>
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="10"/>
@@ -8435,13 +8402,13 @@
       <c r="M35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="O35" s="65" t="s">
+      <c r="N35" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P35" s="66" t="s">
+      <c r="P35" s="56" t="s">
         <v>40</v>
       </c>
       <c r="Q35" s="12"/>
@@ -8455,7 +8422,7 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="37"/>
+      <c r="AB35" s="35"/>
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="10"/>
@@ -8472,14 +8439,14 @@
       <c r="M36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="O36" s="65" t="s">
+      <c r="N36" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="O36" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="66" t="s">
-        <v>106</v>
+      <c r="P36" s="56" t="s">
+        <v>107</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
@@ -8492,7 +8459,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="37"/>
+      <c r="AB36" s="35"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="10"/>
@@ -8509,14 +8476,14 @@
       <c r="M37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="O37" s="65" t="s">
+      <c r="N37" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P37" s="66" t="s">
-        <v>108</v>
+      <c r="P37" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
@@ -8529,7 +8496,7 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="37"/>
+      <c r="AB37" s="35"/>
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="10"/>
@@ -8546,14 +8513,14 @@
       <c r="M38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="O38" s="65" t="s">
+      <c r="N38" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="O38" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P38" s="66" t="s">
-        <v>110</v>
+      <c r="P38" s="56" t="s">
+        <v>111</v>
       </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
@@ -8566,7 +8533,7 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="37"/>
+      <c r="AB38" s="35"/>
     </row>
     <row r="39" spans="2:28">
       <c r="B39" s="10"/>
@@ -8583,14 +8550,14 @@
       <c r="M39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="O39" s="65" t="s">
+      <c r="N39" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="O39" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P39" s="66" t="s">
-        <v>112</v>
+      <c r="P39" s="56" t="s">
+        <v>113</v>
       </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
@@ -8603,7 +8570,7 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
-      <c r="AB39" s="37"/>
+      <c r="AB39" s="35"/>
     </row>
     <row r="40" spans="2:28">
       <c r="B40" s="10"/>
@@ -8620,14 +8587,14 @@
       <c r="M40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="O40" s="65" t="s">
+      <c r="N40" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="O40" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P40" s="66" t="s">
-        <v>114</v>
+      <c r="P40" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
@@ -8640,7 +8607,7 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="37"/>
+      <c r="AB40" s="35"/>
     </row>
     <row r="41" spans="2:28">
       <c r="B41" s="10"/>
@@ -8655,9 +8622,9 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="31"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="30"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
@@ -8669,16 +8636,16 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="37"/>
-    </row>
-    <row r="42" ht="15.75" spans="2:28">
+      <c r="AB41" s="35"/>
+    </row>
+    <row r="42" ht="15" spans="2:28">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
@@ -8690,11 +8657,11 @@
       <c r="M42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="O42" s="65"/>
-      <c r="P42" s="31"/>
+      <c r="N42" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O42" s="55"/>
+      <c r="P42" s="30"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
@@ -8706,13 +8673,13 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="37"/>
-    </row>
-    <row r="43" ht="15.75" spans="2:28">
+      <c r="AB42" s="35"/>
+    </row>
+    <row r="43" ht="15" spans="2:28">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="94" t="s">
-        <v>90</v>
+      <c r="D43" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="12"/>
@@ -8725,8 +8692,8 @@
       <c r="M43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="31" t="s">
-        <v>117</v>
+      <c r="N43" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
@@ -8741,13 +8708,13 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="37"/>
-    </row>
-    <row r="44" ht="15.75" spans="2:28">
+      <c r="AB43" s="35"/>
+    </row>
+    <row r="44" ht="15" spans="2:28">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="94" t="s">
-        <v>90</v>
+      <c r="D44" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="12"/>
@@ -8760,8 +8727,8 @@
       <c r="M44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="31" t="s">
-        <v>118</v>
+      <c r="N44" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -8776,16 +8743,16 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="37"/>
-    </row>
-    <row r="45" ht="15.75" spans="2:28">
+      <c r="AB44" s="35"/>
+    </row>
+    <row r="45" ht="15" spans="2:28">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
@@ -8797,8 +8764,8 @@
       <c r="M45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="31" t="s">
-        <v>120</v>
+      <c r="N45" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
@@ -8813,13 +8780,13 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="37"/>
-    </row>
-    <row r="46" ht="15.75" spans="2:28">
+      <c r="AB45" s="35"/>
+    </row>
+    <row r="46" ht="15" spans="2:28">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="94" t="s">
-        <v>90</v>
+      <c r="D46" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="12"/>
@@ -8829,7 +8796,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
-      <c r="N46" s="31"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -8843,16 +8810,16 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="37"/>
-    </row>
-    <row r="47" ht="15.75" spans="2:28">
+      <c r="AB46" s="35"/>
+    </row>
+    <row r="47" ht="15" spans="2:28">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
@@ -8864,8 +8831,8 @@
       <c r="M47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="31" t="s">
-        <v>122</v>
+      <c r="N47" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
@@ -8880,7 +8847,7 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="37"/>
+      <c r="AB47" s="35"/>
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="10"/>
@@ -8895,7 +8862,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="17"/>
-      <c r="N48" s="31"/>
+      <c r="N48" s="30"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
@@ -8909,16 +8876,16 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="37"/>
-    </row>
-    <row r="49" ht="15.75" spans="2:28">
+      <c r="AB48" s="35"/>
+    </row>
+    <row r="49" ht="15" spans="2:28">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
@@ -8930,8 +8897,8 @@
       <c r="M49" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="31" t="s">
-        <v>124</v>
+      <c r="N49" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
@@ -8946,7 +8913,7 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="37"/>
+      <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="10"/>
@@ -8961,7 +8928,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -8975,16 +8942,16 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
-      <c r="AB50" s="37"/>
-    </row>
-    <row r="51" ht="15.75" spans="2:28">
+      <c r="AB50" s="35"/>
+    </row>
+    <row r="51" ht="15" spans="2:28">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
@@ -8996,8 +8963,8 @@
       <c r="M51" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="31" t="s">
-        <v>126</v>
+      <c r="N51" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
@@ -9012,13 +8979,13 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
-      <c r="AB51" s="37"/>
-    </row>
-    <row r="52" ht="15.75" spans="2:28">
+      <c r="AB51" s="35"/>
+    </row>
+    <row r="52" ht="15" spans="2:28">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="94" t="s">
-        <v>90</v>
+      <c r="D52" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="12"/>
@@ -9031,8 +8998,8 @@
       <c r="M52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="31" t="s">
-        <v>127</v>
+      <c r="N52" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
@@ -9047,16 +9014,16 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
-      <c r="AB52" s="37"/>
-    </row>
-    <row r="53" ht="15.75" spans="2:28">
+      <c r="AB52" s="35"/>
+    </row>
+    <row r="53" ht="15" spans="2:28">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
@@ -9068,8 +9035,8 @@
       <c r="M53" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N53" s="31" t="s">
-        <v>129</v>
+      <c r="N53" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
@@ -9084,14 +9051,14 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
-      <c r="AB53" s="37"/>
-    </row>
-    <row r="54" ht="15.75" spans="1:28">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="94" t="s">
-        <v>90</v>
+      <c r="AB53" s="35"/>
+    </row>
+    <row r="54" ht="15" spans="1:28">
+      <c r="A54" s="31"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="22"/>
@@ -9102,7 +9069,7 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="31"/>
+      <c r="N54" s="30"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -9116,17 +9083,17 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="37"/>
-    </row>
-    <row r="55" ht="15.75" spans="1:28">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
+      <c r="AB54" s="35"/>
+    </row>
+    <row r="55" ht="15" spans="1:28">
+      <c r="A55" s="31"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
@@ -9138,8 +9105,8 @@
       <c r="M55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="31" t="s">
-        <v>131</v>
+      <c r="N55" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
@@ -9154,14 +9121,14 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
-      <c r="AB55" s="37"/>
-    </row>
-    <row r="56" ht="15.75" spans="1:28">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="94" t="s">
-        <v>90</v>
+      <c r="AB55" s="35"/>
+    </row>
+    <row r="56" ht="15" spans="1:28">
+      <c r="A56" s="31"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="22"/>
@@ -9172,7 +9139,7 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="17"/>
-      <c r="N56" s="31"/>
+      <c r="N56" s="30"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -9186,17 +9153,17 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
-      <c r="AB56" s="37"/>
-    </row>
-    <row r="57" ht="15.75" spans="1:28">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
+      <c r="AB56" s="35"/>
+    </row>
+    <row r="57" ht="15" spans="1:28">
+      <c r="A57" s="31"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
@@ -9208,8 +9175,8 @@
       <c r="M57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="31" t="s">
-        <v>133</v>
+      <c r="N57" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
@@ -9224,9 +9191,9 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="37"/>
-    </row>
-    <row r="58" ht="15.75" spans="2:28">
+      <c r="AB57" s="35"/>
+    </row>
+    <row r="58" ht="15" spans="2:28">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="23"/>
@@ -9239,7 +9206,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="31"/>
+      <c r="N58" s="30"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -9253,16 +9220,16 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="37"/>
-    </row>
-    <row r="59" ht="15.75" spans="2:28">
+      <c r="AB58" s="35"/>
+    </row>
+    <row r="59" ht="15" spans="2:28">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
       <c r="D59" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
@@ -9274,8 +9241,8 @@
       <c r="M59" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="31" t="s">
-        <v>135</v>
+      <c r="N59" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
@@ -9290,13 +9257,13 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
-      <c r="AB59" s="37"/>
-    </row>
-    <row r="60" ht="15.75" spans="2:28">
+      <c r="AB59" s="35"/>
+    </row>
+    <row r="60" ht="15" spans="2:28">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="94" t="s">
-        <v>90</v>
+      <c r="D60" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="12"/>
@@ -9307,7 +9274,7 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="31"/>
+      <c r="N60" s="30"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -9321,16 +9288,16 @@
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
-      <c r="AB60" s="37"/>
-    </row>
-    <row r="61" ht="15.75" spans="2:28">
+      <c r="AB60" s="35"/>
+    </row>
+    <row r="61" ht="15" spans="2:28">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
@@ -9342,8 +9309,8 @@
       <c r="M61" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="31" t="s">
-        <v>137</v>
+      <c r="N61" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
@@ -9358,7 +9325,7 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="37"/>
+      <c r="AB61" s="35"/>
     </row>
     <row r="62" spans="2:28">
       <c r="B62" s="10"/>
@@ -9373,7 +9340,7 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="17"/>
-      <c r="N62" s="31"/>
+      <c r="N62" s="30"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -9387,16 +9354,16 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
-      <c r="AB62" s="37"/>
-    </row>
-    <row r="63" ht="15.75" spans="2:28">
+      <c r="AB62" s="35"/>
+    </row>
+    <row r="63" ht="15" spans="2:28">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
@@ -9408,8 +9375,8 @@
       <c r="M63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N63" s="31" t="s">
-        <v>139</v>
+      <c r="N63" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
@@ -9424,13 +9391,13 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="37"/>
-    </row>
-    <row r="64" ht="15.75" spans="2:28">
+      <c r="AB63" s="35"/>
+    </row>
+    <row r="64" ht="15" spans="2:28">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="94" t="s">
-        <v>90</v>
+      <c r="D64" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="22"/>
@@ -9441,7 +9408,7 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="17"/>
-      <c r="N64" s="31"/>
+      <c r="N64" s="30"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -9455,16 +9422,16 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
-      <c r="AB64" s="37"/>
-    </row>
-    <row r="65" ht="15.75" spans="2:28">
+      <c r="AB64" s="35"/>
+    </row>
+    <row r="65" ht="15" spans="2:28">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
@@ -9476,8 +9443,8 @@
       <c r="M65" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N65" s="31" t="s">
-        <v>141</v>
+      <c r="N65" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
@@ -9492,9 +9459,9 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
-      <c r="AB65" s="37"/>
-    </row>
-    <row r="66" ht="15.75" spans="2:28">
+      <c r="AB65" s="35"/>
+    </row>
+    <row r="66" ht="15" spans="2:28">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="23"/>
@@ -9507,7 +9474,7 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="17"/>
-      <c r="N66" s="31"/>
+      <c r="N66" s="30"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -9521,7 +9488,7 @@
       <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
-      <c r="AB66" s="37"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="10"/>
@@ -9550,15 +9517,15 @@
       <c r="Y67" s="12"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
-      <c r="AB67" s="37"/>
+      <c r="AB67" s="35"/>
     </row>
     <row r="68" ht="20.1" customHeight="1" spans="2:28">
       <c r="B68" s="8"/>
-      <c r="C68" s="90" t="s">
+      <c r="C68" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -9583,7 +9550,7 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
-      <c r="AB68" s="36"/>
+      <c r="AB68" s="34"/>
     </row>
     <row r="69" spans="2:28">
       <c r="B69" s="10"/>
@@ -9612,16 +9579,16 @@
       <c r="Y69" s="12"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
-      <c r="AB69" s="37"/>
-    </row>
-    <row r="70" ht="15.75" spans="2:28">
+      <c r="AB69" s="35"/>
+    </row>
+    <row r="70" ht="15" spans="2:28">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
@@ -9633,8 +9600,8 @@
       <c r="M70" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N70" s="96" t="s">
-        <v>144</v>
+      <c r="N70" s="86" t="s">
+        <v>145</v>
       </c>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
@@ -9649,15 +9616,15 @@
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
-      <c r="AB70" s="37"/>
-    </row>
-    <row r="71" ht="15.75" spans="2:28">
+      <c r="AB70" s="35"/>
+    </row>
+    <row r="71" ht="15" spans="2:28">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="68"/>
+      <c r="D71" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="58"/>
       <c r="F71" s="15"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -9668,8 +9635,8 @@
       <c r="M71" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N71" s="31" t="s">
-        <v>145</v>
+      <c r="N71" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
@@ -9684,13 +9651,13 @@
       <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
-      <c r="AB71" s="37"/>
-    </row>
-    <row r="72" ht="15.75" spans="2:28">
+      <c r="AB71" s="35"/>
+    </row>
+    <row r="72" ht="15" spans="2:28">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="94" t="s">
-        <v>90</v>
+      <c r="D72" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="12"/>
@@ -9715,16 +9682,16 @@
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
-      <c r="AB72" s="37"/>
-    </row>
-    <row r="73" ht="15.75" spans="2:28">
+      <c r="AB72" s="35"/>
+    </row>
+    <row r="73" ht="15" spans="2:28">
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
       <c r="D73" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
@@ -9736,8 +9703,8 @@
       <c r="M73" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N73" s="31" t="s">
-        <v>144</v>
+      <c r="N73" s="30" t="s">
+        <v>145</v>
       </c>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
@@ -9752,17 +9719,17 @@
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
-      <c r="AB73" s="37"/>
-    </row>
-    <row r="74" ht="15.75" spans="2:28">
+      <c r="AB73" s="35"/>
+    </row>
+    <row r="74" ht="15" spans="2:28">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
-      <c r="D74" s="94" t="s">
-        <v>90</v>
+      <c r="D74" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="69"/>
+      <c r="G74" s="59"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -9771,63 +9738,63 @@
       <c r="M74" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N74" s="31" t="s">
-        <v>147</v>
+      <c r="N74" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
-      <c r="T74" s="70"/>
-      <c r="U74" s="70"/>
+      <c r="T74" s="60"/>
+      <c r="U74" s="60"/>
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
       <c r="Z74" s="12"/>
       <c r="AA74" s="12"/>
-      <c r="AB74" s="37"/>
-    </row>
-    <row r="75" ht="15.75" spans="2:28">
+      <c r="AB74" s="35"/>
+    </row>
+    <row r="75" ht="15" spans="2:28">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="94" t="s">
-        <v>90</v>
+      <c r="D75" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="69"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="17"/>
-      <c r="N75" s="31"/>
+      <c r="N75" s="30"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
-      <c r="T75" s="70"/>
-      <c r="U75" s="70"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="60"/>
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
-      <c r="AB75" s="37"/>
-    </row>
-    <row r="76" ht="15.75" spans="2:28">
+      <c r="AB75" s="35"/>
+    </row>
+    <row r="76" ht="15" spans="2:28">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
@@ -9839,31 +9806,31 @@
       <c r="M76" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N76" s="31" t="s">
-        <v>149</v>
+      <c r="N76" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
-      <c r="T76" s="70"/>
-      <c r="U76" s="70"/>
+      <c r="T76" s="60"/>
+      <c r="U76" s="60"/>
       <c r="V76" s="12"/>
       <c r="W76" s="12"/>
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
       <c r="Z76" s="12"/>
       <c r="AA76" s="12"/>
-      <c r="AB76" s="37"/>
-    </row>
-    <row r="77" spans="2:28">
+      <c r="AB76" s="35"/>
+    </row>
+    <row r="77" ht="14.4" spans="2:28">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="68"/>
+      <c r="E77" s="58"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="69"/>
+      <c r="G77" s="59"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
@@ -9872,31 +9839,31 @@
       <c r="M77" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N77" s="31" t="s">
-        <v>150</v>
+      <c r="N77" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
-      <c r="T77" s="70"/>
-      <c r="U77" s="70"/>
+      <c r="T77" s="60"/>
+      <c r="U77" s="60"/>
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
-      <c r="AB77" s="37"/>
-    </row>
-    <row r="78" spans="2:28">
+      <c r="AB77" s="35"/>
+    </row>
+    <row r="78" ht="14.4" spans="2:28">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="68"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="69"/>
+      <c r="G78" s="59"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -9909,23 +9876,23 @@
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
-      <c r="T78" s="70"/>
-      <c r="U78" s="70"/>
+      <c r="T78" s="60"/>
+      <c r="U78" s="60"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
-      <c r="AB78" s="37"/>
+      <c r="AB78" s="35"/>
     </row>
     <row r="79" ht="20.1" customHeight="1" spans="2:28">
       <c r="B79" s="8"/>
-      <c r="C79" s="90" t="s">
+      <c r="C79" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -9950,7 +9917,7 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
-      <c r="AB79" s="36"/>
+      <c r="AB79" s="34"/>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="10"/>
@@ -9979,16 +9946,16 @@
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
       <c r="AA80" s="12"/>
-      <c r="AB80" s="37"/>
-    </row>
-    <row r="81" ht="15.75" spans="2:28">
+      <c r="AB80" s="35"/>
+    </row>
+    <row r="81" ht="15" spans="2:28">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
@@ -10000,8 +9967,8 @@
       <c r="M81" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N81" s="31" t="s">
-        <v>153</v>
+      <c r="N81" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
@@ -10016,13 +9983,13 @@
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
-      <c r="AB81" s="37"/>
-    </row>
-    <row r="82" ht="15.75" spans="2:28">
+      <c r="AB81" s="35"/>
+    </row>
+    <row r="82" ht="15" spans="2:28">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="94" t="s">
-        <v>90</v>
+      <c r="D82" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -10035,8 +10002,8 @@
       <c r="M82" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N82" s="31" t="s">
-        <v>154</v>
+      <c r="N82" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
@@ -10051,13 +10018,13 @@
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
-      <c r="AB82" s="37"/>
-    </row>
-    <row r="83" ht="15.75" spans="2:28">
+      <c r="AB82" s="35"/>
+    </row>
+    <row r="83" ht="15" spans="2:28">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="94" t="s">
-        <v>90</v>
+      <c r="D83" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -10070,8 +10037,8 @@
       <c r="M83" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="31" t="s">
-        <v>155</v>
+      <c r="N83" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
@@ -10086,13 +10053,13 @@
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
-      <c r="AB83" s="37"/>
-    </row>
-    <row r="84" ht="15.75" spans="2:28">
+      <c r="AB83" s="35"/>
+    </row>
+    <row r="84" ht="15" spans="2:28">
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="94" t="s">
-        <v>90</v>
+      <c r="D84" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -10105,8 +10072,8 @@
       <c r="M84" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N84" s="31" t="s">
-        <v>156</v>
+      <c r="N84" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
@@ -10121,16 +10088,16 @@
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
       <c r="AA84" s="12"/>
-      <c r="AB84" s="37"/>
-    </row>
-    <row r="85" ht="15.75" spans="2:28">
+      <c r="AB84" s="35"/>
+    </row>
+    <row r="85" ht="15" spans="2:28">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
@@ -10142,8 +10109,8 @@
       <c r="M85" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N85" s="31" t="s">
-        <v>158</v>
+      <c r="N85" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
@@ -10158,13 +10125,13 @@
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
-      <c r="AB85" s="37"/>
-    </row>
-    <row r="86" ht="15.75" spans="2:28">
+      <c r="AB85" s="35"/>
+    </row>
+    <row r="86" ht="15" spans="2:28">
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="94" t="s">
-        <v>90</v>
+      <c r="D86" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -10189,16 +10156,16 @@
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
-      <c r="AB86" s="37"/>
-    </row>
-    <row r="87" ht="15.75" spans="2:28">
+      <c r="AB86" s="35"/>
+    </row>
+    <row r="87" ht="15" spans="2:28">
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
       <c r="D87" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
@@ -10210,8 +10177,8 @@
       <c r="M87" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N87" s="31" t="s">
-        <v>160</v>
+      <c r="N87" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
@@ -10226,7 +10193,7 @@
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
-      <c r="AB87" s="37"/>
+      <c r="AB87" s="35"/>
     </row>
     <row r="88" spans="2:28">
       <c r="B88" s="10"/>
@@ -10255,15 +10222,15 @@
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
-      <c r="AB88" s="37"/>
+      <c r="AB88" s="35"/>
     </row>
     <row r="89" ht="20.1" customHeight="1" spans="2:28">
       <c r="B89" s="8"/>
-      <c r="C89" s="90" t="s">
-        <v>161</v>
+      <c r="C89" s="80" t="s">
+        <v>162</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -10288,7 +10255,7 @@
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
-      <c r="AB89" s="36"/>
+      <c r="AB89" s="34"/>
     </row>
     <row r="90" spans="2:28">
       <c r="B90" s="10"/>
@@ -10317,16 +10284,16 @@
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
-      <c r="AB90" s="37"/>
-    </row>
-    <row r="91" ht="15.75" spans="2:28">
+      <c r="AB90" s="35"/>
+    </row>
+    <row r="91" ht="15" spans="2:28">
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
@@ -10338,8 +10305,8 @@
       <c r="M91" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="31" t="s">
-        <v>164</v>
+      <c r="N91" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
@@ -10354,13 +10321,13 @@
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
-      <c r="AB91" s="37"/>
-    </row>
-    <row r="92" ht="15.75" spans="2:28">
+      <c r="AB91" s="35"/>
+    </row>
+    <row r="92" ht="15" spans="2:28">
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="94" t="s">
-        <v>90</v>
+      <c r="D92" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -10385,16 +10352,16 @@
       <c r="Y92" s="12"/>
       <c r="Z92" s="12"/>
       <c r="AA92" s="12"/>
-      <c r="AB92" s="37"/>
-    </row>
-    <row r="93" ht="15.75" spans="2:28">
+      <c r="AB92" s="35"/>
+    </row>
+    <row r="93" ht="15" spans="2:28">
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
@@ -10406,8 +10373,8 @@
       <c r="M93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N93" s="31" t="s">
-        <v>166</v>
+      <c r="N93" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
@@ -10422,13 +10389,13 @@
       <c r="Y93" s="12"/>
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
-      <c r="AB93" s="37"/>
-    </row>
-    <row r="94" ht="15.75" spans="2:28">
+      <c r="AB93" s="35"/>
+    </row>
+    <row r="94" ht="15" spans="2:28">
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="94" t="s">
-        <v>90</v>
+      <c r="D94" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E94" s="21"/>
       <c r="F94" s="22"/>
@@ -10453,16 +10420,16 @@
       <c r="Y94" s="12"/>
       <c r="Z94" s="12"/>
       <c r="AA94" s="12"/>
-      <c r="AB94" s="37"/>
-    </row>
-    <row r="95" ht="15.75" spans="2:28">
+      <c r="AB94" s="35"/>
+    </row>
+    <row r="95" ht="15" spans="2:28">
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
       <c r="D95" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
@@ -10474,8 +10441,8 @@
       <c r="M95" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N95" s="31" t="s">
-        <v>168</v>
+      <c r="N95" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
@@ -10490,13 +10457,13 @@
       <c r="Y95" s="12"/>
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
-      <c r="AB95" s="37"/>
-    </row>
-    <row r="96" ht="15.75" spans="2:28">
+      <c r="AB95" s="35"/>
+    </row>
+    <row r="96" ht="15" spans="2:28">
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="94" t="s">
-        <v>90</v>
+      <c r="D96" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E96" s="21"/>
       <c r="F96" s="22"/>
@@ -10521,16 +10488,16 @@
       <c r="Y96" s="12"/>
       <c r="Z96" s="12"/>
       <c r="AA96" s="12"/>
-      <c r="AB96" s="37"/>
-    </row>
-    <row r="97" ht="15.75" spans="2:28">
+      <c r="AB96" s="35"/>
+    </row>
+    <row r="97" ht="15" spans="2:28">
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
       <c r="D97" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
@@ -10542,8 +10509,8 @@
       <c r="M97" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N97" s="31" t="s">
-        <v>170</v>
+      <c r="N97" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
@@ -10558,13 +10525,13 @@
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
-      <c r="AB97" s="37"/>
-    </row>
-    <row r="98" ht="15.75" spans="2:28">
+      <c r="AB97" s="35"/>
+    </row>
+    <row r="98" ht="15" spans="2:28">
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
-      <c r="D98" s="94" t="s">
-        <v>90</v>
+      <c r="D98" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E98" s="21"/>
       <c r="F98" s="22"/>
@@ -10589,16 +10556,16 @@
       <c r="Y98" s="12"/>
       <c r="Z98" s="12"/>
       <c r="AA98" s="12"/>
-      <c r="AB98" s="37"/>
-    </row>
-    <row r="99" ht="15.75" spans="2:28">
+      <c r="AB98" s="35"/>
+    </row>
+    <row r="99" ht="15" spans="2:28">
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
       <c r="D99" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
@@ -10610,8 +10577,8 @@
       <c r="M99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N99" s="31" t="s">
-        <v>172</v>
+      <c r="N99" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
@@ -10626,13 +10593,13 @@
       <c r="Y99" s="12"/>
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
-      <c r="AB99" s="37"/>
-    </row>
-    <row r="100" ht="15.75" spans="2:28">
+      <c r="AB99" s="35"/>
+    </row>
+    <row r="100" ht="15" spans="2:28">
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="94" t="s">
-        <v>90</v>
+      <c r="D100" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="22"/>
@@ -10657,16 +10624,16 @@
       <c r="Y100" s="12"/>
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
-      <c r="AB100" s="37"/>
-    </row>
-    <row r="101" ht="15.75" spans="2:28">
+      <c r="AB100" s="35"/>
+    </row>
+    <row r="101" ht="15" spans="2:28">
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
       <c r="D101" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
@@ -10678,8 +10645,8 @@
       <c r="M101" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="31" t="s">
-        <v>174</v>
+      <c r="N101" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
@@ -10694,7 +10661,7 @@
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
-      <c r="AB101" s="37"/>
+      <c r="AB101" s="35"/>
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="10"/>
@@ -10723,16 +10690,16 @@
       <c r="Y102" s="12"/>
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
-      <c r="AB102" s="37"/>
-    </row>
-    <row r="103" ht="15.75" spans="2:28">
+      <c r="AB102" s="35"/>
+    </row>
+    <row r="103" ht="15" spans="2:28">
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
       <c r="D103" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
@@ -10744,8 +10711,8 @@
       <c r="M103" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N103" s="31" t="s">
-        <v>164</v>
+      <c r="N103" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
@@ -10760,13 +10727,13 @@
       <c r="Y103" s="12"/>
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
-      <c r="AB103" s="37"/>
-    </row>
-    <row r="104" ht="15.75" spans="2:28">
+      <c r="AB103" s="35"/>
+    </row>
+    <row r="104" ht="15" spans="2:28">
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
-      <c r="D104" s="94" t="s">
-        <v>90</v>
+      <c r="D104" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E104" s="21"/>
       <c r="F104" s="22"/>
@@ -10791,16 +10758,16 @@
       <c r="Y104" s="12"/>
       <c r="Z104" s="12"/>
       <c r="AA104" s="12"/>
-      <c r="AB104" s="37"/>
-    </row>
-    <row r="105" ht="15.75" spans="2:28">
+      <c r="AB104" s="35"/>
+    </row>
+    <row r="105" ht="15" spans="2:28">
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
       <c r="D105" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
@@ -10812,8 +10779,8 @@
       <c r="M105" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N105" s="31" t="s">
-        <v>177</v>
+      <c r="N105" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
@@ -10828,13 +10795,13 @@
       <c r="Y105" s="12"/>
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
-      <c r="AB105" s="37"/>
-    </row>
-    <row r="106" ht="15.75" spans="2:28">
+      <c r="AB105" s="35"/>
+    </row>
+    <row r="106" ht="15" spans="2:28">
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
-      <c r="D106" s="94" t="s">
-        <v>90</v>
+      <c r="D106" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E106" s="21"/>
       <c r="F106" s="22"/>
@@ -10859,16 +10826,16 @@
       <c r="Y106" s="12"/>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
-      <c r="AB106" s="37"/>
-    </row>
-    <row r="107" ht="15.75" spans="2:28">
+      <c r="AB106" s="35"/>
+    </row>
+    <row r="107" ht="15" spans="2:28">
       <c r="B107" s="10"/>
       <c r="C107" s="11"/>
       <c r="D107" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
@@ -10880,8 +10847,8 @@
       <c r="M107" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N107" s="31" t="s">
-        <v>179</v>
+      <c r="N107" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -10896,13 +10863,13 @@
       <c r="Y107" s="12"/>
       <c r="Z107" s="12"/>
       <c r="AA107" s="12"/>
-      <c r="AB107" s="37"/>
-    </row>
-    <row r="108" ht="15.75" spans="2:28">
+      <c r="AB107" s="35"/>
+    </row>
+    <row r="108" ht="15" spans="2:28">
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
-      <c r="D108" s="94" t="s">
-        <v>90</v>
+      <c r="D108" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E108" s="21"/>
       <c r="F108" s="22"/>
@@ -10927,16 +10894,16 @@
       <c r="Y108" s="12"/>
       <c r="Z108" s="12"/>
       <c r="AA108" s="12"/>
-      <c r="AB108" s="37"/>
-    </row>
-    <row r="109" ht="15.75" spans="2:28">
+      <c r="AB108" s="35"/>
+    </row>
+    <row r="109" ht="15" spans="2:28">
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
       <c r="D109" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
@@ -10948,8 +10915,8 @@
       <c r="M109" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N109" s="96" t="s">
-        <v>181</v>
+      <c r="N109" s="86" t="s">
+        <v>182</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
@@ -10964,7 +10931,7 @@
       <c r="Y109" s="12"/>
       <c r="Z109" s="12"/>
       <c r="AA109" s="12"/>
-      <c r="AB109" s="37"/>
+      <c r="AB109" s="35"/>
     </row>
     <row r="110" spans="2:28">
       <c r="B110" s="10"/>
@@ -10993,16 +10960,16 @@
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
-      <c r="AB110" s="37"/>
-    </row>
-    <row r="111" ht="15.75" spans="2:28">
+      <c r="AB110" s="35"/>
+    </row>
+    <row r="111" ht="15" spans="2:28">
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
       <c r="D111" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
@@ -11014,8 +10981,8 @@
       <c r="M111" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N111" s="31" t="s">
-        <v>124</v>
+      <c r="N111" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
@@ -11030,7 +10997,7 @@
       <c r="Y111" s="12"/>
       <c r="Z111" s="12"/>
       <c r="AA111" s="12"/>
-      <c r="AB111" s="37"/>
+      <c r="AB111" s="35"/>
     </row>
     <row r="112" spans="2:28">
       <c r="B112" s="10"/>
@@ -11059,15 +11026,15 @@
       <c r="Y112" s="12"/>
       <c r="Z112" s="12"/>
       <c r="AA112" s="12"/>
-      <c r="AB112" s="37"/>
+      <c r="AB112" s="35"/>
     </row>
     <row r="113" ht="20.1" customHeight="1" spans="2:28">
       <c r="B113" s="8"/>
-      <c r="C113" s="90" t="s">
-        <v>182</v>
+      <c r="C113" s="80" t="s">
+        <v>183</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -11092,7 +11059,7 @@
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
-      <c r="AB113" s="36"/>
+      <c r="AB113" s="34"/>
     </row>
     <row r="114" spans="2:28">
       <c r="B114" s="10"/>
@@ -11121,16 +11088,16 @@
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
-      <c r="AB114" s="37"/>
-    </row>
-    <row r="115" ht="15.75" spans="2:28">
+      <c r="AB114" s="35"/>
+    </row>
+    <row r="115" ht="15" spans="2:28">
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
       <c r="D115" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
@@ -11142,8 +11109,8 @@
       <c r="M115" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N115" s="31" t="s">
-        <v>185</v>
+      <c r="N115" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
@@ -11158,7 +11125,7 @@
       <c r="Y115" s="12"/>
       <c r="Z115" s="12"/>
       <c r="AA115" s="12"/>
-      <c r="AB115" s="37"/>
+      <c r="AB115" s="35"/>
     </row>
     <row r="116" spans="2:28">
       <c r="B116" s="10"/>
@@ -11187,16 +11154,16 @@
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
       <c r="AA116" s="12"/>
-      <c r="AB116" s="37"/>
-    </row>
-    <row r="117" ht="15.75" spans="2:28">
+      <c r="AB116" s="35"/>
+    </row>
+    <row r="117" ht="15" spans="2:28">
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
       <c r="D117" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
@@ -11208,8 +11175,8 @@
       <c r="M117" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N117" s="31" t="s">
-        <v>187</v>
+      <c r="N117" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="O117" s="12"/>
       <c r="P117" s="12"/>
@@ -11224,7 +11191,7 @@
       <c r="Y117" s="12"/>
       <c r="Z117" s="12"/>
       <c r="AA117" s="12"/>
-      <c r="AB117" s="37"/>
+      <c r="AB117" s="35"/>
     </row>
     <row r="118" spans="2:28">
       <c r="B118" s="10"/>
@@ -11253,16 +11220,16 @@
       <c r="Y118" s="12"/>
       <c r="Z118" s="12"/>
       <c r="AA118" s="12"/>
-      <c r="AB118" s="37"/>
-    </row>
-    <row r="119" ht="15.75" spans="2:28">
+      <c r="AB118" s="35"/>
+    </row>
+    <row r="119" ht="15" spans="2:28">
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
       <c r="D119" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
@@ -11274,8 +11241,8 @@
       <c r="M119" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N119" s="31" t="s">
-        <v>189</v>
+      <c r="N119" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="O119" s="12"/>
       <c r="P119" s="12"/>
@@ -11290,7 +11257,7 @@
       <c r="Y119" s="12"/>
       <c r="Z119" s="12"/>
       <c r="AA119" s="12"/>
-      <c r="AB119" s="37"/>
+      <c r="AB119" s="35"/>
     </row>
     <row r="120" spans="2:28">
       <c r="B120" s="10"/>
@@ -11319,16 +11286,16 @@
       <c r="Y120" s="12"/>
       <c r="Z120" s="12"/>
       <c r="AA120" s="12"/>
-      <c r="AB120" s="37"/>
-    </row>
-    <row r="121" ht="15.75" spans="2:28">
+      <c r="AB120" s="35"/>
+    </row>
+    <row r="121" ht="15" spans="2:28">
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
       <c r="D121" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
@@ -11340,8 +11307,8 @@
       <c r="M121" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N121" s="31" t="s">
-        <v>191</v>
+      <c r="N121" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="O121" s="12"/>
       <c r="P121" s="12"/>
@@ -11356,7 +11323,7 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
-      <c r="AB121" s="37"/>
+      <c r="AB121" s="35"/>
     </row>
     <row r="122" spans="2:28">
       <c r="B122" s="10"/>
@@ -11385,9 +11352,9 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="12"/>
       <c r="AA122" s="12"/>
-      <c r="AB122" s="37"/>
-    </row>
-    <row r="123" ht="15.75" spans="2:28">
+      <c r="AB122" s="35"/>
+    </row>
+    <row r="123" ht="14.55" spans="2:28">
       <c r="B123" s="26"/>
       <c r="C123" s="27"/>
       <c r="D123" s="28"/>
@@ -11414,7 +11381,7 @@
       <c r="Y123" s="28"/>
       <c r="Z123" s="28"/>
       <c r="AA123" s="28"/>
-      <c r="AB123" s="38"/>
+      <c r="AB123" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11436,18 +11403,18 @@
   </sheetPr>
   <dimension ref="B1:AB28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.57142857142857" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.57407407407407" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.57142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.57142857142857" style="2"/>
-    <col min="4" max="28" width="4.57142857142857" style="1"/>
-    <col min="29" max="29" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.57142857142857" style="3"/>
+    <col min="1" max="1" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.57407407407407" style="2"/>
+    <col min="4" max="28" width="4.57407407407407" style="1"/>
+    <col min="29" max="29" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.57407407407407" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -11479,7 +11446,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -11508,7 +11475,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="35"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -11537,15 +11504,15 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="35"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -11570,7 +11537,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="36"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="10"/>
@@ -11599,12 +11566,12 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="37"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -11630,7 +11597,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="37"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="10"/>
@@ -11659,12 +11626,12 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="37"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -11677,7 +11644,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -11692,19 +11659,19 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="37"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="10"/>
-      <c r="C9" s="46"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>197</v>
+      <c r="F9" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -11713,14 +11680,14 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="46"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -11731,19 +11698,19 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="37"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="10"/>
-      <c r="C10" s="47"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>199</v>
+      <c r="F10" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -11752,15 +11719,15 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="47"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="31" t="s">
-        <v>200</v>
+      <c r="Q10" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -11772,19 +11739,19 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="37"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="10"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>202</v>
+      <c r="F11" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -11793,14 +11760,14 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="47"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -11811,19 +11778,19 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="37"/>
+      <c r="AB11" s="35"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="10"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>204</v>
+      <c r="F12" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -11832,15 +11799,15 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="47"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="31" t="s">
-        <v>204</v>
+      <c r="Q12" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
@@ -11852,9 +11819,9 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="37"/>
-    </row>
-    <row r="13" ht="15.75" spans="2:28">
+      <c r="AB12" s="35"/>
+    </row>
+    <row r="13" ht="14.55" spans="2:28">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -11881,229 +11848,229 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="37"/>
-    </row>
-    <row r="14" ht="15.75" spans="2:28">
+      <c r="AB13" s="35"/>
+    </row>
+    <row r="14" ht="14.55" spans="2:28">
       <c r="B14" s="10"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="35"/>
+    </row>
+    <row r="15" ht="14.55" spans="2:28">
+      <c r="B15" s="10"/>
+      <c r="C15" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" ht="14.55" spans="2:28">
+      <c r="B16" s="10"/>
+      <c r="C16" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="35"/>
+    </row>
+    <row r="17" ht="14.55" spans="2:28">
+      <c r="B17" s="10"/>
+      <c r="C17" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="35"/>
+    </row>
+    <row r="18" ht="14.55" spans="2:28">
+      <c r="B18" s="10"/>
+      <c r="C18" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="37"/>
-    </row>
-    <row r="15" ht="15.75" spans="2:28">
-      <c r="B15" s="10"/>
-      <c r="C15" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="37"/>
-    </row>
-    <row r="16" ht="15.75" spans="2:28">
-      <c r="B16" s="10"/>
-      <c r="C16" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="35"/>
+    </row>
+    <row r="19" ht="14.55" spans="2:28">
+      <c r="B19" s="10"/>
+      <c r="C19" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="37"/>
-    </row>
-    <row r="17" ht="15.75" spans="2:28">
-      <c r="B17" s="10"/>
-      <c r="C17" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="37"/>
-    </row>
-    <row r="18" ht="15.75" spans="2:28">
-      <c r="B18" s="10"/>
-      <c r="C18" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="37"/>
-    </row>
-    <row r="19" ht="15.75" spans="2:28">
-      <c r="B19" s="10"/>
-      <c r="C19" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="37"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="10"/>
@@ -12132,7 +12099,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="37"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="10"/>
@@ -12161,15 +12128,15 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="37"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="2:28">
       <c r="B22" s="8"/>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -12194,7 +12161,7 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
-      <c r="AB22" s="36"/>
+      <c r="AB22" s="34"/>
     </row>
     <row r="23" spans="2:28">
       <c r="B23" s="10"/>
@@ -12223,24 +12190,24 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="37"/>
-    </row>
-    <row r="24" ht="15.75" spans="2:28">
+      <c r="AB23" s="35"/>
+    </row>
+    <row r="24" ht="15" spans="2:28">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="E24" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="31"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -12254,13 +12221,13 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="37"/>
-    </row>
-    <row r="25" ht="15.75" spans="2:28">
+      <c r="AB24" s="35"/>
+    </row>
+    <row r="25" ht="15" spans="2:28">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="94" t="s">
-        <v>90</v>
+      <c r="D25" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="22"/>
@@ -12269,7 +12236,7 @@
       <c r="I25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="31"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -12283,27 +12250,27 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="37"/>
-    </row>
-    <row r="26" ht="15.75" spans="2:28">
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" ht="15" spans="2:28">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="E26" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="31" t="s">
-        <v>220</v>
+      <c r="N26" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
@@ -12318,7 +12285,7 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="37"/>
+      <c r="AB26" s="35"/>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="10"/>
@@ -12331,7 +12298,7 @@
       <c r="I27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="31"/>
+      <c r="N27" s="30"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -12345,9 +12312,9 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="37"/>
-    </row>
-    <row r="28" ht="15.75" spans="2:28">
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" ht="14.55" spans="2:28">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -12374,7 +12341,7 @@
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
       <c r="AA28" s="28"/>
-      <c r="AB28" s="38"/>
+      <c r="AB28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -12421,14 +12388,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.57142857142857" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.57407407407407" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.57142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.57142857142857" style="2"/>
-    <col min="4" max="28" width="4.57142857142857" style="1"/>
-    <col min="29" max="29" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.57142857142857" style="3"/>
+    <col min="1" max="1" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.57407407407407" style="2"/>
+    <col min="4" max="28" width="4.57407407407407" style="1"/>
+    <col min="29" max="29" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.57407407407407" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -12460,7 +12427,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -12489,7 +12456,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="35"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -12518,15 +12485,15 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="35"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -12551,7 +12518,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="36"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="10"/>
@@ -12580,16 +12547,16 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="37"/>
-    </row>
-    <row r="6" ht="15.75" spans="2:28">
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" ht="15" spans="2:28">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -12601,8 +12568,8 @@
       <c r="M6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="31" t="s">
-        <v>223</v>
+      <c r="N6" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -12617,13 +12584,13 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="37"/>
-    </row>
-    <row r="7" ht="15.75" spans="2:28">
+      <c r="AB6" s="35"/>
+    </row>
+    <row r="7" ht="15" spans="2:28">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="94" t="s">
-        <v>90</v>
+      <c r="D7" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -12648,16 +12615,16 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="37"/>
-    </row>
-    <row r="8" ht="15.75" spans="2:28">
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" ht="15" spans="2:28">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -12669,8 +12636,8 @@
       <c r="M8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="31" t="s">
-        <v>225</v>
+      <c r="N8" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -12685,16 +12652,16 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="37"/>
-    </row>
-    <row r="9" ht="15.75" spans="2:28">
+      <c r="AB8" s="35"/>
+    </row>
+    <row r="9" ht="15" spans="2:28">
       <c r="B9" s="10"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="94" t="s">
-        <v>90</v>
+      <c r="C9" s="11"/>
+      <c r="D9" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="31"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -12702,10 +12669,10 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="12"/>
       <c r="P9" s="17"/>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -12716,16 +12683,16 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="37"/>
-    </row>
-    <row r="10" ht="15.75" spans="2:28">
+      <c r="AB9" s="35"/>
+    </row>
+    <row r="10" ht="15" spans="2:28">
       <c r="B10" s="10"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -12737,12 +12704,12 @@
       <c r="M10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="31" t="s">
-        <v>227</v>
+      <c r="N10" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="17"/>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
@@ -12753,16 +12720,16 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="37"/>
-    </row>
-    <row r="11" ht="15.75" spans="2:28">
+      <c r="AB10" s="35"/>
+    </row>
+    <row r="11" ht="15" spans="2:28">
       <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="94" t="s">
-        <v>90</v>
+      <c r="C11" s="11"/>
+      <c r="D11" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -12770,10 +12737,10 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="40"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="12"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -12784,16 +12751,16 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="37"/>
-    </row>
-    <row r="12" ht="15.75" spans="2:28">
+      <c r="AB11" s="35"/>
+    </row>
+    <row r="12" ht="15" spans="2:28">
       <c r="B12" s="10"/>
-      <c r="C12" s="40"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -12805,12 +12772,12 @@
       <c r="M12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="31" t="s">
-        <v>229</v>
+      <c r="N12" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
@@ -12821,13 +12788,13 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="37"/>
-    </row>
-    <row r="13" ht="15.75" spans="2:28">
+      <c r="AB12" s="35"/>
+    </row>
+    <row r="13" ht="15" spans="2:28">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="94" t="s">
-        <v>90</v>
+      <c r="D13" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -12852,114 +12819,114 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="37"/>
-    </row>
-    <row r="14" ht="15.75" spans="2:28">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="AB13" s="35"/>
+    </row>
+    <row r="14" ht="15" spans="2:28">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="45"/>
-    </row>
-    <row r="15" ht="15.75" spans="2:28">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="94" t="s">
-        <v>90</v>
+      <c r="N14" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="35"/>
+    </row>
+    <row r="15" ht="15" spans="2:28">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="45"/>
-    </row>
-    <row r="16" ht="15.75" spans="2:28">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" ht="15" spans="2:28">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
+        <v>233</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="45"/>
-    </row>
-    <row r="17" ht="15.75" spans="2:28">
+      <c r="N16" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="35"/>
+    </row>
+    <row r="17" ht="14.55" spans="2:28">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
@@ -12986,7 +12953,7 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
       <c r="AA17" s="28"/>
-      <c r="AB17" s="38"/>
+      <c r="AB17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13009,19 +12976,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.57142857142857" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.57407407407407" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.57142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.57142857142857" style="2"/>
-    <col min="4" max="28" width="4.57142857142857" style="1"/>
-    <col min="29" max="29" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.57142857142857" style="3"/>
+    <col min="1" max="1" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.57407407407407" style="2"/>
+    <col min="4" max="28" width="4.57407407407407" style="1"/>
+    <col min="29" max="29" width="2.57407407407407" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.57407407407407" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -13048,7 +13015,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="6"/>
@@ -13077,7 +13044,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="35"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="6"/>
@@ -13106,15 +13073,15 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="35"/>
+      <c r="AB3" s="33"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -13139,7 +13106,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="36"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="10"/>
@@ -13168,15 +13135,15 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="37"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="10"/>
-      <c r="C6" s="91" t="s">
-        <v>236</v>
+      <c r="C6" s="81" t="s">
+        <v>237</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -13201,15 +13168,15 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="37"/>
-    </row>
-    <row r="7" ht="15.75" spans="2:28">
+      <c r="AB6" s="35"/>
+    </row>
+    <row r="7" ht="15" spans="2:28">
       <c r="B7" s="10"/>
       <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -13234,16 +13201,16 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="37"/>
-    </row>
-    <row r="8" ht="15.75" spans="2:28">
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" ht="15" spans="2:28">
       <c r="B8" s="10"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -13267,15 +13234,15 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="37"/>
-    </row>
-    <row r="9" ht="15.75" spans="2:28">
+      <c r="AB8" s="35"/>
+    </row>
+    <row r="9" ht="15" spans="2:28">
       <c r="B9" s="10"/>
       <c r="C9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -13300,7 +13267,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="37"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="10"/>
@@ -13309,7 +13276,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13333,7 +13300,7 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="37"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="10"/>
@@ -13342,7 +13309,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -13366,7 +13333,7 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="37"/>
+      <c r="AB11" s="35"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="10"/>
@@ -13375,7 +13342,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -13399,7 +13366,7 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="37"/>
+      <c r="AB12" s="35"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="10"/>
@@ -13408,7 +13375,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13432,7 +13399,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="37"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="10"/>
@@ -13441,7 +13408,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13465,13 +13432,13 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="37"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -13496,7 +13463,7 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="37"/>
+      <c r="AB15" s="35"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="10"/>
@@ -13525,15 +13492,15 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="37"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:28">
       <c r="B17" s="8"/>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="80" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -13558,7 +13525,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
-      <c r="AB17" s="36"/>
+      <c r="AB17" s="34"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="10"/>
@@ -13587,15 +13554,15 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="37"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="10"/>
-      <c r="C19" s="91" t="s">
-        <v>248</v>
+      <c r="C19" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -13618,7 +13585,7 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
-      <c r="AB19" s="37"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="10"/>
@@ -13645,28 +13612,28 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="37"/>
-    </row>
-    <row r="21" ht="15.75" spans="2:28">
+      <c r="AB20" s="35"/>
+    </row>
+    <row r="21" ht="15" spans="2:28">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="29"/>
       <c r="L21" s="12"/>
       <c r="M21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>251</v>
+      <c r="N21" s="30" t="s">
+        <v>252</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -13681,7 +13648,7 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="37"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="10"/>
@@ -13691,14 +13658,14 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="31"/>
       <c r="L22" s="12"/>
       <c r="M22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>252</v>
+      <c r="N22" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -13713,9 +13680,9 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="37"/>
-    </row>
-    <row r="23" ht="15.75" spans="2:28">
+      <c r="AB22" s="35"/>
+    </row>
+    <row r="23" ht="15" spans="2:28">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="23"/>
@@ -13726,7 +13693,7 @@
       <c r="I23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="31"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -13740,15 +13707,15 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="37"/>
+      <c r="AB23" s="35"/>
     </row>
     <row r="24" spans="2:28">
       <c r="B24" s="10"/>
-      <c r="C24" s="91" t="s">
-        <v>253</v>
+      <c r="C24" s="81" t="s">
+        <v>254</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -13757,7 +13724,7 @@
       <c r="I24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="31"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -13771,9 +13738,9 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="37"/>
-    </row>
-    <row r="25" ht="15.75" spans="2:28">
+      <c r="AB24" s="35"/>
+    </row>
+    <row r="25" ht="15" spans="2:28">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="23"/>
@@ -13784,7 +13751,7 @@
       <c r="I25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="31"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -13798,9 +13765,9 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="37"/>
-    </row>
-    <row r="26" ht="15.75" spans="2:28">
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" ht="15" spans="2:28">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="23"/>
@@ -13811,7 +13778,7 @@
       <c r="I26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -13825,9 +13792,9 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="37"/>
-    </row>
-    <row r="27" ht="15.75" spans="2:28">
+      <c r="AB26" s="35"/>
+    </row>
+    <row r="27" ht="15" spans="2:28">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="23"/>
@@ -13838,7 +13805,7 @@
       <c r="I27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="31"/>
+      <c r="N27" s="30"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -13852,9 +13819,9 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="37"/>
-    </row>
-    <row r="28" ht="15.75" spans="2:28">
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" ht="15" spans="2:28">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="23"/>
@@ -13865,7 +13832,7 @@
       <c r="I28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="31"/>
+      <c r="N28" s="30"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -13879,9 +13846,9 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="37"/>
-    </row>
-    <row r="29" ht="15.75" spans="2:28">
+      <c r="AB28" s="35"/>
+    </row>
+    <row r="29" ht="15" spans="2:28">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="23"/>
@@ -13892,7 +13859,7 @@
       <c r="I29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="31"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -13906,9 +13873,9 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="37"/>
-    </row>
-    <row r="30" ht="15.75" spans="2:28">
+      <c r="AB29" s="35"/>
+    </row>
+    <row r="30" ht="15" spans="2:28">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="23"/>
@@ -13919,7 +13886,7 @@
       <c r="I30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="31"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -13933,9 +13900,9 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-      <c r="AB30" s="37"/>
-    </row>
-    <row r="31" ht="15.75" spans="2:28">
+      <c r="AB30" s="35"/>
+    </row>
+    <row r="31" ht="15" spans="2:28">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="23"/>
@@ -13946,7 +13913,7 @@
       <c r="I31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="31"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -13960,9 +13927,9 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="37"/>
-    </row>
-    <row r="32" ht="15.75" spans="2:28">
+      <c r="AB31" s="35"/>
+    </row>
+    <row r="32" ht="15" spans="2:28">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="23"/>
@@ -13973,7 +13940,7 @@
       <c r="I32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="31"/>
+      <c r="N32" s="30"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -13987,9 +13954,9 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="37"/>
-    </row>
-    <row r="33" ht="15.75" spans="2:28">
+      <c r="AB32" s="35"/>
+    </row>
+    <row r="33" ht="15" spans="2:28">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="23"/>
@@ -14000,7 +13967,7 @@
       <c r="I33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -14014,9 +13981,9 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AB33" s="37"/>
-    </row>
-    <row r="34" ht="15.75" spans="2:28">
+      <c r="AB33" s="35"/>
+    </row>
+    <row r="34" ht="15" spans="2:28">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="23"/>
@@ -14027,7 +13994,7 @@
       <c r="I34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="31"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -14041,9 +14008,9 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
-      <c r="AB34" s="37"/>
-    </row>
-    <row r="35" ht="15.75" spans="2:28">
+      <c r="AB34" s="35"/>
+    </row>
+    <row r="35" ht="15" spans="2:28">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="23"/>
@@ -14054,7 +14021,7 @@
       <c r="I35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="31"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -14068,9 +14035,9 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="37"/>
-    </row>
-    <row r="36" ht="15.75" spans="2:28">
+      <c r="AB35" s="35"/>
+    </row>
+    <row r="36" ht="15" spans="2:28">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="23"/>
@@ -14081,7 +14048,7 @@
       <c r="I36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="31"/>
+      <c r="N36" s="30"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -14095,9 +14062,9 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="37"/>
-    </row>
-    <row r="37" ht="15.75" spans="2:28">
+      <c r="AB36" s="35"/>
+    </row>
+    <row r="37" ht="15" spans="2:28">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="23"/>
@@ -14108,7 +14075,7 @@
       <c r="I37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="31"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -14122,9 +14089,9 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="37"/>
-    </row>
-    <row r="38" ht="15.75" spans="2:28">
+      <c r="AB37" s="35"/>
+    </row>
+    <row r="38" ht="15" spans="2:28">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="23"/>
@@ -14135,7 +14102,7 @@
       <c r="I38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -14149,9 +14116,9 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="37"/>
-    </row>
-    <row r="39" ht="15.75" spans="2:28">
+      <c r="AB38" s="35"/>
+    </row>
+    <row r="39" ht="15" spans="2:28">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="23"/>
@@ -14162,7 +14129,7 @@
       <c r="I39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="17"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="30"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -14176,9 +14143,9 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
-      <c r="AB39" s="37"/>
-    </row>
-    <row r="40" ht="15.75" spans="2:28">
+      <c r="AB39" s="35"/>
+    </row>
+    <row r="40" ht="15" spans="2:28">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="23"/>
@@ -14189,7 +14156,7 @@
       <c r="I40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="17"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -14203,9 +14170,9 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="37"/>
-    </row>
-    <row r="41" ht="15.75" spans="2:28">
+      <c r="AB40" s="35"/>
+    </row>
+    <row r="41" ht="15" spans="2:28">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="23"/>
@@ -14216,7 +14183,7 @@
       <c r="I41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="31"/>
+      <c r="N41" s="30"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -14230,15 +14197,15 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="37"/>
+      <c r="AB41" s="35"/>
     </row>
     <row r="42" spans="2:28">
       <c r="B42" s="10"/>
-      <c r="C42" s="91" t="s">
-        <v>255</v>
+      <c r="C42" s="81" t="s">
+        <v>256</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="22"/>
@@ -14247,7 +14214,7 @@
       <c r="I42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="17"/>
-      <c r="N42" s="31"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -14261,9 +14228,9 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="37"/>
-    </row>
-    <row r="43" ht="15.75" spans="2:28">
+      <c r="AB42" s="35"/>
+    </row>
+    <row r="43" ht="15" spans="2:28">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="23"/>
@@ -14274,7 +14241,7 @@
       <c r="I43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="17"/>
-      <c r="N43" s="31"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -14288,28 +14255,28 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="37"/>
-    </row>
-    <row r="44" ht="15.75" spans="2:28">
+      <c r="AB43" s="35"/>
+    </row>
+    <row r="44" ht="15" spans="2:28">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="29"/>
       <c r="L44" s="12"/>
       <c r="M44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="31" t="s">
-        <v>258</v>
+      <c r="N44" s="30" t="s">
+        <v>259</v>
       </c>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -14324,13 +14291,13 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="37"/>
-    </row>
-    <row r="45" ht="15.75" spans="2:28">
+      <c r="AB44" s="35"/>
+    </row>
+    <row r="45" ht="15" spans="2:28">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="94" t="s">
-        <v>90</v>
+      <c r="D45" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="22"/>
@@ -14339,7 +14306,7 @@
       <c r="I45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="17"/>
-      <c r="N45" s="31"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
@@ -14353,28 +14320,28 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="37"/>
-    </row>
-    <row r="46" ht="15.75" spans="2:28">
+      <c r="AB45" s="35"/>
+    </row>
+    <row r="46" ht="15" spans="2:28">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="29"/>
       <c r="L46" s="12"/>
       <c r="M46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="31" t="s">
-        <v>260</v>
+      <c r="N46" s="30" t="s">
+        <v>261</v>
       </c>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
@@ -14389,13 +14356,13 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="37"/>
-    </row>
-    <row r="47" ht="15.75" spans="2:28">
+      <c r="AB46" s="35"/>
+    </row>
+    <row r="47" ht="15" spans="2:28">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="94" t="s">
-        <v>90</v>
+      <c r="D47" s="84" t="s">
+        <v>91</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="22"/>
@@ -14404,7 +14371,7 @@
       <c r="I47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="17"/>
-      <c r="N47" s="31"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
@@ -14418,28 +14385,28 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="37"/>
-    </row>
-    <row r="48" ht="15.75" spans="2:28">
+      <c r="AB47" s="35"/>
+    </row>
+    <row r="48" ht="15" spans="2:28">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="29"/>
       <c r="L48" s="12"/>
       <c r="M48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="31" t="s">
-        <v>262</v>
+      <c r="N48" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
@@ -14454,9 +14421,9 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="37"/>
-    </row>
-    <row r="49" ht="15.75" spans="2:28">
+      <c r="AB48" s="35"/>
+    </row>
+    <row r="49" ht="15" spans="2:28">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="23"/>
@@ -14467,7 +14434,7 @@
       <c r="I49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="17"/>
-      <c r="N49" s="31"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -14481,15 +14448,15 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="37"/>
+      <c r="AB49" s="35"/>
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="10"/>
-      <c r="C50" s="91" t="s">
-        <v>263</v>
+      <c r="C50" s="81" t="s">
+        <v>264</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="22"/>
@@ -14498,7 +14465,7 @@
       <c r="I50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -14512,13 +14479,13 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
-      <c r="AB50" s="37"/>
-    </row>
-    <row r="51" spans="2:28">
+      <c r="AB50" s="35"/>
+    </row>
+    <row r="51" ht="14.4" spans="2:28">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="22"/>
@@ -14527,7 +14494,7 @@
       <c r="I51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="17"/>
-      <c r="N51" s="31"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -14541,13 +14508,13 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
-      <c r="AB51" s="37"/>
-    </row>
-    <row r="52" spans="2:28">
+      <c r="AB51" s="35"/>
+    </row>
+    <row r="52" ht="14.4" spans="2:28">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
       <c r="D52" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="22"/>
@@ -14556,7 +14523,7 @@
       <c r="I52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="17"/>
-      <c r="N52" s="31"/>
+      <c r="N52" s="30"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -14570,9 +14537,9 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
-      <c r="AB52" s="37"/>
-    </row>
-    <row r="53" ht="15.75" spans="2:28">
+      <c r="AB52" s="35"/>
+    </row>
+    <row r="53" ht="15" spans="2:28">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="23"/>
@@ -14583,7 +14550,7 @@
       <c r="I53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="17"/>
-      <c r="N53" s="31"/>
+      <c r="N53" s="30"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -14597,9 +14564,9 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
-      <c r="AB53" s="37"/>
-    </row>
-    <row r="54" ht="15.75" spans="2:28">
+      <c r="AB53" s="35"/>
+    </row>
+    <row r="54" ht="14.55" spans="2:28">
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
       <c r="D54" s="28"/>
@@ -14626,7 +14593,7 @@
       <c r="Y54" s="28"/>
       <c r="Z54" s="28"/>
       <c r="AA54" s="28"/>
-      <c r="AB54" s="38"/>
+      <c r="AB54" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
